--- a/publipostage2/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
+++ b/publipostage2/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
+++ b/publipostage2/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L173"/>
+  <dimension ref="A1:M173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00770393</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Randomized Phase III Trial Comparing Induction Chemotherapy Followed by Radiotherapy to Concomitant Chemoradiotherapy for Laryngeal Preservation in T3MO Pyriform Sinus Carcinoma</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00428779</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Neuromuscular and Cognitive Fatigue During a 24h Treadmill Running Exercise.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -596,36 +611,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT00327106</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Efficacy of Tranexamic Acid on Perioperative Blood Loss During Hip Fracture Surgery.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>THIF</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -644,32 +664,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00522561</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lower Limb Mechanical Characteristics: Effect on Running Mechanics and Energetics</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -688,32 +713,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT00542906</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Functional Organization of Somatosensory Responses in the Secondary Somatosensitive Area (SII) and Insula : an fMRI Study</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -732,36 +762,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT00452010</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pain Reducing Effect of Transcutaneous Electrical Nerve Stimulation (TENS) in Patients With Chronic Low Back Pain or Chronic Lumbo-radiculalgia and Followed in Pain Treatment Centers</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>LOBOTENS</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -780,32 +815,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT00475059</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Performance of Cimetidine-corrected MDRD Equation in Renal Transplant Patients</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -824,36 +864,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT00555438</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Prospective, Multicentre, Open-label Study Evaluating 1.5 mg/Day of Fondaparinux,in Venous Thromboembolic Events Prevention in Patients With Renal Impairment and Undergoing a Major Orthopaedic Surgery. PROPICE Study</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>PROPICE</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -872,32 +917,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT00451776</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Post Operative Hemodynamic Function After Anesthetic Induction With Etomidate for Cardiac Surgery With ECC. A Prospective, Monocentric, Randomised Double Blind Study</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -914,38 +964,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2007-006275-36</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Levobupivacaine into post-caesarian analgesia: randomized monocentric study against placebo</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>LEVOBU</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -960,36 +1015,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT00732290</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Investigation of Drug-drug Interaction Between Clopidogrel and Fluoxetine</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>PLATINE</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1008,36 +1068,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT00621907</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Levobupivacïne Into Post-analgesia : Randomized Monocentric Study Against Placebo</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>LEVOBU</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
         <v>1</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1056,36 +1121,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT00904527</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Interest of Relaxation From Patients With Pain Due to Migraine</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>MIGREL</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1104,36 +1174,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT00916526</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Measurement of Exhaled NO and Bronchial Provocation Test With Mannitol as a Predictor of Response to Inhaled Corticosteroids in Chronic Cough</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>MANOTOUX</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1152,32 +1227,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT00521508</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Role of CD4+CD25+FoxP3+ Regulatory T Cells in Pathogenesis of Primary IgA Nephropathy</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1196,32 +1276,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT00941824</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Pharmacokinetic Evaluation of an Intensified and Decreasing Dosing Regimen of Mycophenolate Sodium in Combination With Tacrolimus During the First 3 Months Post Kidney Transplant (the myFORTic Study)</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1240,36 +1325,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT01385683</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Investigation Drug-drug Interaction Between Dabigatran and Clarithromycin</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>IMAGINE</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1288,36 +1378,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT00515645</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Cardiac Autonomic Functions During Head-out Immersion and During Head Down Tilt</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>IMMERSION</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1336,36 +1431,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT01135303</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Effectiveness of VistaO2 Device in Screening of Sleep Apnea/Hypopnea Syndrome</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>VISTAO2</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1384,36 +1484,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT01606020</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Effects of Sleep Deprivation on Driving Performance and Central Fatigue</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>PrivSom</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1432,32 +1537,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT02527902</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Autonomic Nervous System (ANS) Analysis According to Different Renal Function Stage in Immunoglobin A (IgA) Nephropathy</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1476,36 +1586,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT01401140</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Coronary Surgery: Comparing the Protective Effects of Two Cardioplegic Solutions: Custodiol Versus St Thomas, on Cardiac Metabolism, as Assessed Using Microdialysis</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Cardioplégie</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1524,32 +1639,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT02538445</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Can we Forget? Directed Forgetting and Embodied Cognition in Schizophrenia</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1568,36 +1688,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT00457158</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>PREPIC 2 : Interruption of Inferior Vena Cava by a Retrievable Filter for the Prevention of Recurrent Pulmonary Embolism : a Randomised, Open Label Study</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>PREPIC2</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1616,36 +1741,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT01303471</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Pain Assessment During General Anesthesia : DOLANS (DOULeur ANeSthesie) Study</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>DOLANS</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1664,36 +1794,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT02557568</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Evaluation of an Algorithm for Identifying Persistent Nasal Staphylococcus Aureus Carriage in a Cohort of Healthy Volunteers and Patients Regularly Monitored at the CHU of Saint-Etienne</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>ScreenStaph</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1712,36 +1847,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT00676390</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Estimated Physical Activity of Congestive Heart Failure Patients by a Physical Activity Questionnaire : Concordance Study.</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>H2OBis</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1760,32 +1900,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT02046720</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>The Influence of Age on Bispectral Index Associated With Propofol-induced Sedation</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1804,36 +1949,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT02522338</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Measurement of Glomerular Filtration Rate (GFR) in HIV Patients: Single-center Study Comparing the Accuracy of Estimators of GFR Versus Iohexol Plasma Clearance</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>HIVOL</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1852,36 +2002,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT02533518</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Ultra-Violet Fluorescence Bronchial Cancer Location</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>UVFBCL</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1900,36 +2055,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT01349270</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Multicentre Randomized Open-label Trial to Compare Efficacy and Tolerance of Corticosteroids and IVIg in Patients With Chronic Inflammatory Demyelinating Polyneuropathy on a One Year Follow up</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>PRNC</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1948,36 +2108,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT02551354</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Estimation of Pain During Epidural Analgesia During Labor - a Monocentric Study</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>PERIDANS</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1996,32 +2161,37 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT02531048</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Normative Values Laser Nociceptive Evoked Potentials Depending on the Age</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2040,32 +2210,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT02549378</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Study of the Impact of Changes in Carbonemia on Microcirculation in Patients - A Monocentric Study</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2084,36 +2259,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT00922857</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Influence of Muscular Atrophy on Biological and Functional Benefit of Respiratory Rehabilitation in Patients With Chronic Respiratory Failure</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>INSPIRE</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2132,36 +2312,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT01732978</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Are Parents Privileged Listeners Their Baby ?</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>BABIES_CRY</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2180,36 +2365,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT02526966</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Multicenter Study Evaluating the Performance of the Assay of Anti-hinge Region Antibodies in the Diagnosis of Progressive Forms of IgA Nephropathy</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>NIGA-RA</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2228,32 +2418,37 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT02547246</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Transcranial Magnetic Stimulation, Embodied Cognition and Bulimic Craving</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2272,32 +2467,37 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT01694914</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Comparative Study of Two Corneal Graft Storage Media: New Animal Compound Free Medium Versus Reference Medium</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2316,36 +2516,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT02528591</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Prospective Single-center Study Evaluating the Central Blood Pressure in Renal Transplantation</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>PACT</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2364,32 +2569,37 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT02522819</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Feasibility Evaluation of Continuous Positive Airway Pressure (CPAP) in the Treatment of Obstructive Sleep Apnea Synchrone in the Acute Phase of Stroke</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2408,36 +2618,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT00674531</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Detection of Enterovirus RNA by RT-PCR in Atheromatous Lesions</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>ATH-ENTE</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2456,32 +2671,37 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT03280810</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Effects of a Psycho-corporal Training on Postural and Cognitive Dual-task Performances in Patients With Schizophrenia</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2500,36 +2720,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT01116570</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Exercise and Myopathies. Physical Training Introduction in Lifestyle of Facioscapulohumeral Dystrophy Patients: Functional, Tissue and Quality of Life Benefits.</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>FSHD1</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2548,36 +2773,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT02524210</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Effect of Inhibitors of the Proton Pump on Intestinal Transporters and Their Impact on the Pharmacokinetics of Dabigatran - Mechanistic and Clinical Approach -BIPP Study</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>BIPP</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2596,36 +2826,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT02374281</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Autonomic Nervous System Reactivity of the Newborn After a Nociceptive Stress: Interest of Sucrose and Non-nutritive Sucking : A Controlled Randomized Single-center Study.</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>BBSUCROSE</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2644,36 +2879,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT02425839</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Assessment of Correlation Between Changes of Shear Wave Elastography and Surface Electromyogram of the Masseter, in Rest and Maximal Voluntary Contraction</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>EVEREST</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2692,36 +2932,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT02528578</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Modulation of Painful Perception</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>MODOU</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2740,36 +2985,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT03267979</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Assessing Pain in the Postoperative Period by Automatically Measuring the Variation Coefficient of Pupillary Diameter: PREVANS Study</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>PREVANS</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
         <v>1</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2788,36 +3038,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT01982214</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Effects of Whole Body Vibration (WBV) on Musculoskeletal System of Aged Women</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>VIBROS</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2834,39 +3089,44 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2013-000313-20</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Evaluation of the biological response to clopidogrel in patients with  ischemic stroke: role of platelet alpha2-adrenergic receptors 
  Evaluation de la réponse biologique au clopidogrel chez des patients en prévention secondaire d'accident ischémique cérébral : rôle des récepteurs alpha2-adrénergiques plaquettaires</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>AAPIX</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
       </c>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2881,36 +3141,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT02257164</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Anesthesic Techniques for Surgery of the Anterior Cruciate Ligament of the Knee in Ambulatory Surgery. Randomized Pilot Monocentric Trial</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>CLICA</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2927,39 +3192,44 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2013-005043-86</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Reactivity of the autonomic nervous system after a nociceptive stress in the newborn: Interest of sucrose and non-nutritive sucking. 
  Réactivité du système nerveux autonome après un stress nociceptif chez le nouveau-né : Intérêt du sucrose et de la succion non nutritive.</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>BB SUCROSE</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2974,32 +3244,37 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT02431819</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Single Center Prospective Study Evaluating the Safety of Progressive Compressive Stockings for the Treatment of Venous Insufficiency in Patients With Peripheral Arterial Disease</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3018,32 +3293,37 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT02552524</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Study of the Effect of an Active rTMS Session in Pathological Gamblers: Impact on Craving and Severity of These Behaviors</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3062,36 +3342,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT02355314</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Doppler-based Renal Resistive Index in Assessing Renal Dysfunction Reversibility in ICU Patients</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>R2D2</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>1</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3110,32 +3395,37 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT02549274</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Effectiveness of Active Home Exercises for Patients With Chronic Neck Pain: a Prospective Comparative Randomized Clinical Trial</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3154,32 +3444,37 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT02544516</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Study on the Links Between Perception and Action in Schizophrenia, "Upside Down, Give me the Handle"</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3198,36 +3493,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT02668224</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Chronic Effects of Tendon Vibrations on the Neuromechanical Muscular Properties : Pilot Study, Interventional, Prospective, Longitudinal.</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>NEUROVIB</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3246,36 +3546,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT02524223</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Prevalence of HPV Transmission During Medically Assisted Procreation Procedures</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>AMPAMAVIR</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3294,28 +3599,30 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT02657512</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Effect of Activated Charcoal on Rivaroxaban Pharmacokinetics in Healthy Subjects : RICHAR Study</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>RICHAR</t>
         </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
       </c>
       <c r="J62" t="b">
         <v>1</v>
@@ -3323,7 +3630,10 @@
       <c r="K62" t="b">
         <v>1</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3342,36 +3652,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT02386787</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Ultrasound Assessment of Gastric Content for Semi Emergency Surgery</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>ECHO-GAST</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3390,36 +3705,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT02279108</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Comparative, Prospective, Randomized Study Assessing The Interest of Indocyanine Green Fluorescence Imaging With Radioisotope Method For Sentinel Lymph Node Biopsy in Patients With Breast Cancer</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>FLUOTECH</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="b">
         <v>1</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3438,36 +3758,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT02571088</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Evaluation of a Training Program for Homozygous Sickle Cell Disease Patients: Benefits on Physical Ability and Skeletal Muscle. An Interventional Pilot, Multicentric, Prospective, Longitudinal Study</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>EXDRE</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
       <c r="J65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>1</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3486,32 +3811,37 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT02524301</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Evaluation of Brain Opioid Receptor Activity in Anorexia Nervosa : a PET [11C]Diprenorphine Study</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="b">
         <v>0</v>
       </c>
       <c r="K66" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
         <v>1</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3530,32 +3860,37 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT02524041</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Association Between Serum Periostin Levels and Cortical Porosity in Patients With Secondary Hyperparathyroidism</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3574,40 +3909,45 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT02252497</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2013-000791-15</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Tranexamic Acid in Total Hip Arthroplasty: Single Preoperative Administration vs Perioperative Administration. A Randomized Control Trial.</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>PORTO</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" t="b">
         <v>1</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3626,36 +3966,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>NCT02670993</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Support by Singing Sessions on Physical and Moral Pain : Assessment of Its Effectiveness in Alzheimer's Disease. Multicenter Study LACME</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>LACME</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3674,32 +4019,37 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT02538796</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>The Embodied Cognition: Exploratory Study of Automatic and Controlled Processes in Anorexia Nervosa. A Monocentric Study</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3718,36 +4068,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT02260414</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Effects of Injection Tinzaparin Prophylactic Dose (4,500 IU Anti-Xa) on Thrombin Generation in Patients With Multiple Myeloma, Lymphoma Patients and Patients Hospitalized for an Acute Medical Condition.</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>METRO B</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3766,32 +4121,37 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT02112695</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Opioid System Cerebral Activity in Endurance Sportswomen - Addiction or Denutrition ? [11C]Diprenorphine PET Study</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="b">
         <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3810,36 +4170,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT02960932</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Reproducibility Inter-session of the Measurement Elastography of the Passive Stiffness of Medial Beams of Gastrocnemius Muscle of the Hemiplegic Cerebral Child.</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>ELASTOREPRO</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
       <c r="J73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="b">
         <v>1</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3858,36 +4223,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT02562495</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Interest of the Ultrasound to Evaluate the Quadriceps Muscle Wasting in Critical Ill Patients.</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>ECHOSCAN</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3906,36 +4276,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT02526927</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Monocentric Study Evaluating Bone Microarchitecture by High Resolution Quantitative Computerized Tomography (HR-pQCT) in Young Adults and Adolescents Who Developed Anorexia Nervosa (AN) in Peri or Prepubertal Period.</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>AMOS</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3954,32 +4329,37 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT02895438</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Does Non Coeliac Gluten Sensitivity (NCGS) Exist in Children? A Double-Blind Randomized Placebo-Controlled Trial</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="b">
         <v>0</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -3998,36 +4378,41 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT02595112</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Study of Staphylococcus Aureus Colonization of the Posterior Nasal Cavity in Patients Undergoing Otorhinolaryngologic Surgery. A Monocentric Study</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>SREENSTAPH2</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4046,32 +4431,37 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT02531061</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Impact of the Persistence of Inflammation at Doppler Ultrasound Level on the Structural Evolution of Erosion in Rheumatoid Arthritis Treated With Biotherapy</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4090,36 +4480,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT02595125</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Comparative Study, Prospective, Randomized , Assessing the Reduction of Pain Felt During Installation Intra- Uterine Device by Direct Technique. A Monocentric Study</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>DIRECTE</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4138,36 +4533,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT02463890</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Effect of Exercise Training on Obstructive Sleep Apnea Syndrome Severity</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>EXESAS</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
       <c r="J80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="b">
         <v>1</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4186,36 +4586,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT02502474</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Study of the Colonic Carriage of Staphylococcus Aureus in a Prospective Cohort of Patients Undergoing Endoscopic Screening for Digestive Cancer in the University Hospital of Saint-Etienne.</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>ColoStaph</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4234,36 +4639,41 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>NCT03307434</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>PREVATHLE: To Evaluate the Effectiveness of an Injury Prevention Program in Athletics</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>PREVATHLE</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
       <c r="K82" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" t="b">
         <v>1</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4282,32 +4692,37 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>NCT02386969</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Long-term Efficacy of Repetitive Transcranial Magnetic Stimulation on the Primary Motor Cortex (M1) in Central Neuropathic Pain</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4326,36 +4741,41 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>NCT03690804</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Assessment of Autonomic Co-regulation Between Newborn and Parent During Kangaroo Care Sessions in Neonatal Intensive Care Units</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>Co-PAP</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4374,32 +4794,37 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT03714269</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Acute Effects of a Passive Stretching Session on the Mechanical Properties of Medial Gastrocnemius Muscle in Children With Cerebral Palsy</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" t="b">
         <v>1</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4418,36 +4843,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT03145454</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Objective Markers of Pain Perception in Pediatric Emergency</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>TAMALOU</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4466,36 +4896,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>NCT02667678</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>5 Years Follow-up Evaluation of Deterioration Kidney Biomarkers of HIV Patients : HIVOL 2 Study.</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>HIVOL2</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4514,36 +4949,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>NCT03079232</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>In Vivo Imaging Innovation : Optical Coherence Microscopy in Dermato-oncology</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>GALAXY</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4562,36 +5002,41 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>NCT02596984</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Evaluation of the Pharmacokinetics of Caspofungin in ICU Patients</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>CaspoKin</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4610,36 +5055,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>NCT02920723</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Follow-up of the Patients Included in the EXESAS Study : Analysis of the Profit of the Physical Activity for the Control Group and of the Preservation of a Regular Physical Activity for the Group Initially Trained</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>FOLLOW_EXESAS</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
       <c r="J90" t="b">
         <v>0</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4658,36 +5108,41 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>NCT02475486</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Role of the Sympathetic Nervous System (ANS) Dysregulation in the Persistence of Fatigue in Rheumatoid Arthritis Patients Treated With Anti-TNF (Tumor Necrosis Factor) - a Monocentric Cross-sectional Study</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>ANSRA</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4706,32 +5161,37 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>NCT03190486</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Perception of Baby's Painful Cry: Investigation in fMRI to Neuronal Activity Related to Empathy in Adults</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4750,32 +5210,37 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>NCT03324048</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>A Single Mindfulness Meditation Session in Preoperative Anxiety : Effects on the Autonomous Nervous System</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="b">
         <v>0</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4794,32 +5259,37 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>NCT02559999</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Objective Markers of Pain Perception in Humans: a Study in Healthy Subjects</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4838,32 +5308,37 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>NCT03249857</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Study of Sensorimotor Compatibility Effects in Bipolar Affective Disorder.</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="b">
         <v>0</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -4882,36 +5357,41 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>NCT02522806</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Endometrial Local Injury Before First IVF : Evaluation of Pregnancy Rate</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>BEONE</t>
         </is>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
       <c r="J96" t="b">
         <v>0</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4930,36 +5410,41 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>NCT02655172</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>Study on the Links Between Action and Perception in Schizophrenia, " Have a Good Grasp of the World "</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>GRASP</t>
         </is>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
       <c r="J97" t="b">
         <v>0</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4978,36 +5463,41 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>NCT03586505</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Tolerance to Light for Patients Suffering From Keratitis</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>EBLOUI</t>
         </is>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
       <c r="J98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="b">
         <v>1</v>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="L98" t="b">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5026,36 +5516,41 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>NCT04025138</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Fatigability Compared Men and Women Induced According to the Distance Traveled on an Ultra-marathon in the Mountains</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>UTMB_2019</t>
         </is>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
       <c r="J99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="b">
         <v>1</v>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="L99" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -5074,36 +5569,41 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>NCT02506504</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>Prevention of Post-exercise Muscle Fatigue Using a Non Invasive Ventilation and Effect on Exercise Training in Severe Patients With COPD. QUADRIVEND Study</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>QUADRIVEND</t>
         </is>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
       <c r="J100" t="b">
         <v>0</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5122,36 +5622,41 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>NCT03549546</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>Expression of the Inhibitory Receptors on Lymphocytes T Cells After Lung Cancer Surgery.</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>POIR</t>
         </is>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
       <c r="J101" t="b">
         <v>0</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -5170,36 +5675,41 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>NCT03526211</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>Study of Feasibility and Safety of Functional Electrical Stimulation (FES) Cycling in Intensive Care Unit Patients</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>FES Cycling</t>
         </is>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
       <c r="J102" t="b">
         <v>0</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5218,36 +5728,41 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>NCT02834260</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>Immunosuppression During Penetrating Keratoplasty, Using a Subconjunctival Implant Releasing Dexamethasone: Tolerance and Safety Pilot Study</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>IDEXACOR</t>
         </is>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
       <c r="J103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="b">
         <v>1</v>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="L103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5266,36 +5781,41 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>NCT02668237</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>Impact on Anti-infectious Treatments of the Early Molecular Detection Technique Coupled With Urinary Test of Infectious Agents Responsible of Community-acquired Pneumonia of Children at Pediatric Emergencies</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>OptiPAC</t>
         </is>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
       <c r="J104" t="b">
         <v>0</v>
       </c>
       <c r="K104" t="b">
         <v>0</v>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5314,36 +5834,41 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>NCT02386774</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>Innovative Imaging of the Conjunctiva, Cornea, and Ocular Adnexa : Study of a Handheld in Vivo Confocal Microscope and of a Fluorescent in Vivo Confocal Microscope</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>INNOV-EYE</t>
         </is>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
       <c r="J105" t="b">
         <v>0</v>
       </c>
       <c r="K105" t="b">
         <v>0</v>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5360,38 +5885,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
         <is>
           <t>2009-018189-36</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>Prévention chez le receveur avec néphropathie à IgA primaire (NIGA) de la Récidive Après Transplantation rénale: ATG-F versus Basiliximab, comme traitements immunosuppresseurs d’induction.   Etude PIRAT: A vs B</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>PIRAT</t>
         </is>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
       <c r="J106" t="b">
         <v>0</v>
       </c>
       <c r="K106" t="b">
         <v>0</v>
       </c>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5406,32 +5936,37 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>NCT03342339</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>Influence of Emotions on Decision-making in Parkinson's Disease</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="b">
         <v>0</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5450,36 +5985,41 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>NCT02591030</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>Randomised Phase II/III Study, Assessing the Safety and Efficacy of Modified Folfirinox Versus Gemcis in Locally Advanced, Unresectable and/or Metastatic Bile Duct Tumours</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>AMEBICA</t>
         </is>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
       <c r="J108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" t="b">
         <v>1</v>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="L108" t="b">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5496,38 +6036,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
         <is>
           <t>2017-004348-39</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>Association between methotrexate erythrocyte polyglutamate concentration and clinical response in rheumatoid arthritis patients treated with subcutaneous injectable methotrexate</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>POLYGLU</t>
         </is>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
       <c r="J109" t="b">
         <v>0</v>
       </c>
       <c r="K109" t="b">
         <v>0</v>
       </c>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5542,36 +6087,41 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>NCT02672566</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>Low-molecular-weight Heparin in Constituted Vascular Intrauterine Growth Restriction. Randomized Multicenter Trial</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>GROWTH</t>
         </is>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
       <c r="J110" t="b">
         <v>0</v>
       </c>
       <c r="K110" t="b">
         <v>0</v>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="L110" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5590,36 +6140,41 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>NCT04093037</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>Analysis of the Diagnostic Performance of LacryDiag, a New "All-in-one" Non-contact Analyzer of the Ocular Surface in the Dry Eye. Study LACRYMOSA</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>LACRYMOSA</t>
         </is>
       </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
       <c r="J111" t="b">
         <v>0</v>
       </c>
       <c r="K111" t="b">
         <v>0</v>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="L111" t="b">
+        <v>0</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -5636,40 +6191,45 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
         <is>
           <t>2018-001505-90</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>Decolonization of patients carrying S. aureus before cardiac surgery: study of the risk factors associated with failure 
  Décolonisation des patients porteurs de Staphylococcus aureus en chirurgie cardiaque : étude des facteurs de risque d’échec de décolonisation</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>STAdécol 
  STAdécol</t>
         </is>
       </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
       <c r="J112" t="b">
         <v>0</v>
       </c>
       <c r="K112" t="b">
         <v>0</v>
       </c>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="b">
+        <v>0</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5684,36 +6244,41 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>NCT03126045</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>SPPLAASH Study : a Randomized Study Aiming at Evaluating the Incidence of Post Lumbar Puncture Headache (PLPH) With the Use of Atraumatic Needles in Hematology</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>SPPLAASH</t>
         </is>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
       <c r="J113" t="b">
         <v>0</v>
       </c>
       <c r="K113" t="b">
         <v>0</v>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="L113" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5732,36 +6297,41 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>NCT03643328</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>Ex Vivo Evaluation of Immunity Activation Face to Staphylococcus Aureus Antigens and Adjuvants of a Vaccine Candidate in Cells From Haemodialysis Patients</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>ANTISTAPH</t>
         </is>
       </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
       <c r="J114" t="b">
         <v>0</v>
       </c>
       <c r="K114" t="b">
         <v>0</v>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="L114" t="b">
+        <v>0</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -5780,36 +6350,41 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>NCT03445871</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Association Between Methotrexate Erythrocyte Polyglutamate Concentration and Clinical Response in Rheumatoid Arthritis Patients Treated With Subcutaneous Injectable Methotrexate</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>POLYGLU</t>
         </is>
       </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
       <c r="J115" t="b">
         <v>0</v>
       </c>
       <c r="K115" t="b">
         <v>0</v>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="L115" t="b">
+        <v>0</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -5828,32 +6403,37 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>NCT03172390</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>In Vivo Evaluation of Growth and Risk of Rupture of Dilated Ascending Aorta Using 4D Cardiac Magnetic Resonance</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="b">
         <v>0</v>
       </c>
       <c r="K116" t="b">
         <v>0</v>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="L116" t="b">
+        <v>0</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5872,36 +6452,41 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>NCT02929004</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>Chronic Effects of Local Vibration on Neuromuscular Reconditioning After Anterior Cruciate Ligament Reconstruction</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>VIB_LCA</t>
         </is>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
       <c r="J117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" t="b">
         <v>1</v>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="L117" t="b">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5920,36 +6505,41 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>NCT02853045</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>Comparison of Blood Pressure Control Achieved in Antihypertensive or Generic Drugs in Moderate to Severe Hypertensive Patients</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>PRINGEN</t>
         </is>
       </c>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
       <c r="J118" t="b">
         <v>0</v>
       </c>
       <c r="K118" t="b">
         <v>0</v>
       </c>
-      <c r="L118" t="inlineStr">
+      <c r="L118" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5968,36 +6558,41 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>NCT02665845</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>Combination Corticosteroids+5-aminosalicylic Acids Compared to Corticosteroids Alone in the Treatment of Moderate-severe Active Ulcerative Colitis: A Protocol of a Multi-center Prospective Randomized Investigator Blinded Trial.</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>COMBOMESA</t>
         </is>
       </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
       <c r="J119" t="b">
         <v>0</v>
       </c>
       <c r="K119" t="b">
         <v>0</v>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="L119" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -6016,36 +6611,41 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>NCT03731247</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>In Vivo Imaging Innovation : Optical Coherence Microscopy in Dermato-oncology</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>OCTAV</t>
         </is>
       </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
       <c r="J120" t="b">
         <v>0</v>
       </c>
       <c r="K120" t="b">
         <v>0</v>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="L120" t="b">
+        <v>0</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -6064,36 +6664,41 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>NCT03736733</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>Relevance of an Adapted and Supervised Physical Activity Program in Fibromyalgia Patients. The FIMOUV 1 Study. Interventional, Controlled, Randomized, Open Study of an Original Outpatient Management.</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>FIMOUV 1</t>
         </is>
       </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
       <c r="J121" t="b">
         <v>0</v>
       </c>
       <c r="K121" t="b">
         <v>0</v>
       </c>
-      <c r="L121" t="inlineStr">
+      <c r="L121" t="b">
+        <v>0</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -6112,36 +6717,41 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>NCT03317613</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>Clinical Trial Assessing the Efficacy of Capsaicin Patch (Qutenza®) in Cancer Patients With Neuropathic Pain</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>CAPSONCO</t>
         </is>
       </c>
-      <c r="I122" t="b">
-        <v>0</v>
-      </c>
       <c r="J122" t="b">
         <v>0</v>
       </c>
       <c r="K122" t="b">
         <v>0</v>
       </c>
-      <c r="L122" t="inlineStr">
+      <c r="L122" t="b">
+        <v>0</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -6160,36 +6770,41 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>NCT04511858</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>Difference in Central Fatigue During Two Ultra-endurance Practices: Running vs. Cycling</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>FAT-CENTR</t>
         </is>
       </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
       <c r="J123" t="b">
         <v>0</v>
       </c>
       <c r="K123" t="b">
         <v>0</v>
       </c>
-      <c r="L123" t="inlineStr">
+      <c r="L123" t="b">
+        <v>0</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -6208,36 +6823,41 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>NCT03866785</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>Physical Activity Experiment on Male Prostate Cancer Patients : Feasibility Multicenter Study of an Innovative Follow-up by Peers</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>ACTI_PAIR</t>
         </is>
       </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
       <c r="J124" t="b">
         <v>0</v>
       </c>
       <c r="K124" t="b">
         <v>0</v>
       </c>
-      <c r="L124" t="inlineStr">
+      <c r="L124" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -6256,28 +6876,30 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>NCT04859023</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>Comparison of Strategies Based on RT-PCR or Antigenic Test for the Screening of SARS-CoV-2 Infection in General Population Using Self-samples (COVID-19).</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>AutoCoV</t>
         </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
       </c>
       <c r="J125" t="b">
         <v>1</v>
@@ -6285,7 +6907,10 @@
       <c r="K125" t="b">
         <v>1</v>
       </c>
-      <c r="L125" t="inlineStr">
+      <c r="L125" t="b">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -6304,28 +6929,30 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>NCT02668250</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>The OPTI-AGED Study : Influence of a Multi-parametric Optimization Strategy for General Anesthesia on Postoperative Morbidity and Mortality in Elderly Patients. A Randomized, Multicentre, Prospective Controlled Study</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>OPTI-AGED</t>
         </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
       </c>
       <c r="J126" t="b">
         <v>1</v>
@@ -6333,7 +6960,10 @@
       <c r="K126" t="b">
         <v>1</v>
       </c>
-      <c r="L126" t="inlineStr">
+      <c r="L126" t="b">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -6352,36 +6982,41 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>NCT01841242</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>Comparison of Alcoholic Chlorhexidine 2% Versus Alcoholic Povidone Iodine for Infections Prevention With Cardiac Resynchronization Therapy Device Implantation</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>CHLOVIS</t>
         </is>
       </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
       <c r="J127" t="b">
         <v>0</v>
       </c>
       <c r="K127" t="b">
         <v>0</v>
       </c>
-      <c r="L127" t="inlineStr">
+      <c r="L127" t="b">
+        <v>0</v>
+      </c>
+      <c r="M127" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -6400,36 +7035,41 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>NCT02675179</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr">
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>EOS® Versus Spiral CT Technique for Achieving a Pelvimetry in Suites of Obstructed Labor: Comparative Single-center Prospective Study - PELVIC-EOS.</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>PELVI-EOS</t>
         </is>
       </c>
-      <c r="I128" t="b">
-        <v>0</v>
-      </c>
       <c r="J128" t="b">
         <v>0</v>
       </c>
       <c r="K128" t="b">
         <v>0</v>
       </c>
-      <c r="L128" t="inlineStr">
+      <c r="L128" t="b">
+        <v>0</v>
+      </c>
+      <c r="M128" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -6448,36 +7088,41 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>NCT02657304</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>Effect of Early Education and Information of Sleep Apnea on the Observance of CPAP Treatment</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>CoachSAS</t>
         </is>
       </c>
-      <c r="I129" t="b">
-        <v>0</v>
-      </c>
       <c r="J129" t="b">
         <v>0</v>
       </c>
       <c r="K129" t="b">
         <v>0</v>
       </c>
-      <c r="L129" t="inlineStr">
+      <c r="L129" t="b">
+        <v>0</v>
+      </c>
+      <c r="M129" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -6496,36 +7141,41 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>NCT03182166</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr">
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>Pharmacokinetic and Pharmacodynamic Study of Golimumab in Ulcerative Colitis (UC) Patients With Loss of Response (LOR) Followed by Dose Optimization</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>GOLILOR</t>
         </is>
       </c>
-      <c r="I130" t="b">
-        <v>0</v>
-      </c>
       <c r="J130" t="b">
         <v>0</v>
       </c>
       <c r="K130" t="b">
         <v>0</v>
       </c>
-      <c r="L130" t="inlineStr">
+      <c r="L130" t="b">
+        <v>0</v>
+      </c>
+      <c r="M130" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -6544,36 +7194,41 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>NCT02494648</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>Effects of Inspiratory Muscles Strengthening Among Coronary Patients on the Sleep Apnea Obstructive Syndrome (SAOS)</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>RICAOS</t>
         </is>
       </c>
-      <c r="I131" t="b">
-        <v>0</v>
-      </c>
       <c r="J131" t="b">
         <v>0</v>
       </c>
       <c r="K131" t="b">
         <v>0</v>
       </c>
-      <c r="L131" t="inlineStr">
+      <c r="L131" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -6592,36 +7247,41 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>NCT02666339</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr">
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>Mélisses Garden: Effect of the Mediation by Care-garden on Anxious State in Adult Patients Hospitalized in Psychiatry (Prospective, Monocentric, Controlled, Randomized, Open in Two Parallel Groups Study)</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>JDM</t>
         </is>
       </c>
-      <c r="I132" t="b">
-        <v>0</v>
-      </c>
       <c r="J132" t="b">
         <v>0</v>
       </c>
       <c r="K132" t="b">
         <v>0</v>
       </c>
-      <c r="L132" t="inlineStr">
+      <c r="L132" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -6640,36 +7300,41 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>NCT04767776</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr">
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>Non Inferiority Study of a Reduced Dose of Activated Charcoal on Rivaroxaban Pharmacokinetics.</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>RICHAR2</t>
         </is>
       </c>
-      <c r="I133" t="b">
-        <v>0</v>
-      </c>
       <c r="J133" t="b">
         <v>0</v>
       </c>
       <c r="K133" t="b">
         <v>0</v>
       </c>
-      <c r="L133" t="inlineStr">
+      <c r="L133" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -6688,36 +7353,41 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>NCT04857710</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>Chronic Effects of Wide-pulse Neuromuscular Electrostimulation on Neuromuscular and Functional Properties in Healthy Subjects</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>ELECTRO-WP</t>
         </is>
       </c>
-      <c r="I134" t="b">
-        <v>0</v>
-      </c>
       <c r="J134" t="b">
         <v>0</v>
       </c>
       <c r="K134" t="b">
         <v>0</v>
       </c>
-      <c r="L134" t="inlineStr">
+      <c r="L134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -6736,36 +7406,41 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>NCT03801122</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>Study of Thromboelastography During Tranexamic Acid Treatment in Preventing Bleeding in Patients With Haematological Malignancies Presenting Severe Thrombocytopenia (TTRAP-bleeding)</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>TTRAP-Bleeding</t>
         </is>
       </c>
-      <c r="I135" t="b">
-        <v>0</v>
-      </c>
       <c r="J135" t="b">
         <v>0</v>
       </c>
       <c r="K135" t="b">
         <v>0</v>
       </c>
-      <c r="L135" t="inlineStr">
+      <c r="L135" t="b">
+        <v>0</v>
+      </c>
+      <c r="M135" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -6782,34 +7457,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
         <is>
           <t>2018-001051-12</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>VEDO - PREDIRESPUC project - Value of pharmacokinetic assays (Vedolizumab and anti-vedolizumab antibody) in the prediction of induction and maintenance therapeutic response in Ulcerative Colitis</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="b">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="b">
         <v>0</v>
       </c>
       <c r="K136" t="b">
         <v>0</v>
       </c>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6824,36 +7504,41 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>NCT04998266</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr">
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>Evaluation of Physical Capacities Within the Company and Effect of a Personalized Versus Traditional Training Program on the Quality of Life of Sedentary Employees: Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="I137" t="inlineStr">
         <is>
           <t>MOVING_LAB</t>
         </is>
       </c>
-      <c r="I137" t="b">
-        <v>0</v>
-      </c>
       <c r="J137" t="b">
         <v>0</v>
       </c>
       <c r="K137" t="b">
         <v>0</v>
       </c>
-      <c r="L137" t="inlineStr">
+      <c r="L137" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -6872,36 +7557,41 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>NCT04102410</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>Assessing Force-velocity Profile: an Innovative Approach to Optimize Cardiac Rehabilitation in Coronary Patients</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>CITIUS</t>
         </is>
       </c>
-      <c r="I138" t="b">
-        <v>0</v>
-      </c>
       <c r="J138" t="b">
         <v>0</v>
       </c>
       <c r="K138" t="b">
         <v>0</v>
       </c>
-      <c r="L138" t="inlineStr">
+      <c r="L138" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -6920,32 +7610,37 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>NCT02359513</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr">
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>Evaluation of the Efficacy of Serotoninergic Antidepressants in Bulimia Nervosa, According to Brain Serotonin Profile Determined by Positron Emission Tomography With [18F] MPPF - a Multicenter Study</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="b">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="b">
         <v>0</v>
       </c>
       <c r="K139" t="b">
         <v>0</v>
       </c>
-      <c r="L139" t="inlineStr">
+      <c r="L139" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -6964,36 +7659,41 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>NCT04895501</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr">
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>Effects of Shoe Longitudinal Bending Stiffness on Changes in Energy Cost of Running During a 21 km Run</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>FAT-FLEX</t>
         </is>
       </c>
-      <c r="I140" t="b">
-        <v>0</v>
-      </c>
       <c r="J140" t="b">
         <v>0</v>
       </c>
       <c r="K140" t="b">
         <v>0</v>
       </c>
-      <c r="L140" t="inlineStr">
+      <c r="L140" t="b">
+        <v>0</v>
+      </c>
+      <c r="M140" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -7012,36 +7712,41 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>NCT04034719</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>Benefit of Scarf Support on Skin-to-skin Time and Portage in Neonatology and at Home(PAPSE)</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>PAPSE</t>
         </is>
       </c>
-      <c r="I141" t="b">
-        <v>0</v>
-      </c>
       <c r="J141" t="b">
         <v>0</v>
       </c>
       <c r="K141" t="b">
         <v>0</v>
       </c>
-      <c r="L141" t="inlineStr">
+      <c r="L141" t="b">
+        <v>0</v>
+      </c>
+      <c r="M141" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -7060,36 +7765,41 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>NCT04117308</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>Analysis of the Use of the Fetal Movement Counting for Prolonged Pregnancy: Prospective Randomized Study.</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t>COMPTAMAF</t>
         </is>
       </c>
-      <c r="I142" t="b">
-        <v>0</v>
-      </c>
       <c r="J142" t="b">
         <v>0</v>
       </c>
       <c r="K142" t="b">
         <v>0</v>
       </c>
-      <c r="L142" t="inlineStr">
+      <c r="L142" t="b">
+        <v>0</v>
+      </c>
+      <c r="M142" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -7108,28 +7818,30 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>NCT03240341</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>Influence of PARAmedical Interventions on Patient ACTivation in the Cancer Care Pathway</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>PARACT</t>
         </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
       </c>
       <c r="J143" t="b">
         <v>1</v>
@@ -7137,7 +7849,10 @@
       <c r="K143" t="b">
         <v>1</v>
       </c>
-      <c r="L143" t="inlineStr">
+      <c r="L143" t="b">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -7156,36 +7871,41 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>NCT05013021</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>Sprint Interval Training (SIT) on the Endurance, Strength and Velocity Capacities of Healthy Sedentary Subjects</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t>BénéfiSIT</t>
         </is>
       </c>
-      <c r="I144" t="b">
-        <v>0</v>
-      </c>
       <c r="J144" t="b">
         <v>0</v>
       </c>
       <c r="K144" t="b">
         <v>0</v>
       </c>
-      <c r="L144" t="inlineStr">
+      <c r="L144" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -7204,36 +7924,41 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>NCT05717543</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>Imaging of Corneal and Crystalline by Near Infrared Retro-illumination</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>RETRO-ILLUMI</t>
         </is>
       </c>
-      <c r="I145" t="b">
-        <v>0</v>
-      </c>
       <c r="J145" t="b">
         <v>0</v>
       </c>
       <c r="K145" t="b">
         <v>0</v>
       </c>
-      <c r="L145" t="inlineStr">
+      <c r="L145" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -7252,36 +7977,41 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>NCT06110637</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>Effects of Running Shoe Sole Hardness on Vibration and Neuromuscular Fatigue During a Half-marathon Run on a Treadmill</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="I146" t="inlineStr">
         <is>
           <t>FAT-VIB</t>
         </is>
       </c>
-      <c r="I146" t="b">
-        <v>0</v>
-      </c>
       <c r="J146" t="b">
         <v>0</v>
       </c>
       <c r="K146" t="b">
         <v>0</v>
       </c>
-      <c r="L146" t="inlineStr">
+      <c r="L146" t="b">
+        <v>0</v>
+      </c>
+      <c r="M146" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -7300,36 +8030,41 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>NCT05155826</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>The Effect of Virtual Reality for Pain Management During Intracervical Balloon Placement for Labor Induction: a Randomized Controlled Trial (VIRTUALMAG)</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="I147" t="inlineStr">
         <is>
           <t>VIRTUALMAG</t>
         </is>
       </c>
-      <c r="I147" t="b">
-        <v>0</v>
-      </c>
       <c r="J147" t="b">
         <v>0</v>
       </c>
       <c r="K147" t="b">
         <v>0</v>
       </c>
-      <c r="L147" t="inlineStr">
+      <c r="L147" t="b">
+        <v>0</v>
+      </c>
+      <c r="M147" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -7348,36 +8083,41 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>NCT05047718</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr">
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>Factors Influencing the COVID-19 Vaccine Immune Response (Reactogenicity and Immunogenicity) According to Age and Presence or Not of a Past History of COVID-19</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="I148" t="inlineStr">
         <is>
           <t>COVIMMUNAGE</t>
         </is>
       </c>
-      <c r="I148" t="b">
-        <v>0</v>
-      </c>
       <c r="J148" t="b">
         <v>0</v>
       </c>
       <c r="K148" t="b">
         <v>0</v>
       </c>
-      <c r="L148" t="inlineStr">
+      <c r="L148" t="b">
+        <v>0</v>
+      </c>
+      <c r="M148" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -7396,36 +8136,41 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>NCT04737018</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr">
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>Impact of a Focal Muscle Vibration Protocol in Front of the the Anterior Tibial Muscle in the Subacute Post-stroke Period on Motor Recovery in Hemiplegic Patients.</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="I149" t="inlineStr">
         <is>
           <t>VIBRATAC</t>
         </is>
       </c>
-      <c r="I149" t="b">
-        <v>0</v>
-      </c>
       <c r="J149" t="b">
         <v>0</v>
       </c>
       <c r="K149" t="b">
         <v>0</v>
       </c>
-      <c r="L149" t="inlineStr">
+      <c r="L149" t="b">
+        <v>0</v>
+      </c>
+      <c r="M149" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -7444,36 +8189,41 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>NCT04469348</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>Inflammation, Intracellular Invasion and Colonization of the Nasal Mucosa by Staphylococcus Aureus</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="I150" t="inlineStr">
         <is>
           <t>I3COSa</t>
         </is>
       </c>
-      <c r="I150" t="b">
-        <v>0</v>
-      </c>
       <c r="J150" t="b">
         <v>0</v>
       </c>
       <c r="K150" t="b">
         <v>0</v>
       </c>
-      <c r="L150" t="inlineStr">
+      <c r="L150" t="b">
+        <v>0</v>
+      </c>
+      <c r="M150" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -7490,40 +8240,45 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr">
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
         <is>
           <t>2018-003233-14</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr">
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>Evaluation of the neonatal autonomic stress during intubations under Propofol in a population of premature infants under 33 w’GA 
  Evaluation autonomique du stress lors de l’intubation en séquence rapide sous Propofol d’une population de prématurés de moins de 33 SA</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="I151" t="inlineStr">
         <is>
           <t>PROPOSURF 
  PROPOSURF</t>
         </is>
       </c>
-      <c r="I151" t="b">
-        <v>0</v>
-      </c>
       <c r="J151" t="b">
         <v>0</v>
       </c>
       <c r="K151" t="b">
         <v>0</v>
       </c>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="b">
+        <v>0</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7538,36 +8293,41 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>NCT05170178</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr">
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>Cracking the Code of Crying Babies: How Familiarity Changes the Interpretation of Cries</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="I152" t="inlineStr">
         <is>
           <t>BEBEDOL</t>
         </is>
       </c>
-      <c r="I152" t="b">
-        <v>0</v>
-      </c>
       <c r="J152" t="b">
         <v>0</v>
       </c>
       <c r="K152" t="b">
         <v>0</v>
       </c>
-      <c r="L152" t="inlineStr">
+      <c r="L152" t="b">
+        <v>0</v>
+      </c>
+      <c r="M152" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -7586,36 +8346,41 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>NCT02484820</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr">
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>PREMAPESSAIRE: Prevention of Preterm Birth in Singletons Using Pessary After Resolutive Threatened Preterm Labor: a Prospective, Randomized Monocentric Clinical Trial</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="I153" t="inlineStr">
         <is>
           <t>PREMAPESSAIRE</t>
         </is>
       </c>
-      <c r="I153" t="b">
-        <v>0</v>
-      </c>
       <c r="J153" t="b">
         <v>0</v>
       </c>
       <c r="K153" t="b">
         <v>0</v>
       </c>
-      <c r="L153" t="inlineStr">
+      <c r="L153" t="b">
+        <v>0</v>
+      </c>
+      <c r="M153" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -7634,36 +8399,41 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>NCT04025411</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr">
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>Effectiveness of Computerized Device New of Visual Motor Simulation Versus Mirror Therapy in Hemiplegic Patients. SI-VIM Study</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="I154" t="inlineStr">
         <is>
           <t>SI-VIM</t>
         </is>
       </c>
-      <c r="I154" t="b">
-        <v>0</v>
-      </c>
       <c r="J154" t="b">
         <v>0</v>
       </c>
       <c r="K154" t="b">
         <v>0</v>
       </c>
-      <c r="L154" t="inlineStr">
+      <c r="L154" t="b">
+        <v>0</v>
+      </c>
+      <c r="M154" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -7682,36 +8452,41 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>NCT06469359</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>Development of a Methodology to Analyze Nasal Tissue-resident Memory Immune Cells and Peripheral Memory Cells Able to Migrate to Airway Tissues (MUCOVAC)</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="I155" t="inlineStr">
         <is>
           <t>MUCOVAC</t>
         </is>
       </c>
-      <c r="I155" t="b">
-        <v>0</v>
-      </c>
       <c r="J155" t="b">
         <v>0</v>
       </c>
       <c r="K155" t="b">
         <v>0</v>
       </c>
-      <c r="L155" t="inlineStr">
+      <c r="L155" t="b">
+        <v>0</v>
+      </c>
+      <c r="M155" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -7730,36 +8505,41 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>NCT03984682</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr">
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>Impact of Joint Crisis Plan on the Duration of Isolation Measures in Psychiatry.</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="I156" t="inlineStr">
         <is>
           <t>PLANCO-ISO</t>
         </is>
       </c>
-      <c r="I156" t="b">
-        <v>0</v>
-      </c>
       <c r="J156" t="b">
         <v>0</v>
       </c>
       <c r="K156" t="b">
         <v>0</v>
       </c>
-      <c r="L156" t="inlineStr">
+      <c r="L156" t="b">
+        <v>0</v>
+      </c>
+      <c r="M156" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -7778,36 +8558,41 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>NCT05367791</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr">
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>Improving Postural Control Through Innovative Stimulation of the Proprioceptive System</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="I157" t="inlineStr">
         <is>
           <t>IMPULSES</t>
         </is>
       </c>
-      <c r="I157" t="b">
-        <v>0</v>
-      </c>
       <c r="J157" t="b">
         <v>0</v>
       </c>
       <c r="K157" t="b">
         <v>0</v>
       </c>
-      <c r="L157" t="inlineStr">
+      <c r="L157" t="b">
+        <v>0</v>
+      </c>
+      <c r="M157" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -7826,36 +8611,41 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>NCT03753776</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr">
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t>Phase III Trial Evaluating Radium Bromatum Homeopathic Treatment Efficacy on Radiodermatitis Prevention and Treatment for Breast Cancer Women</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="I158" t="inlineStr">
         <is>
           <t>HOMEORAD</t>
         </is>
       </c>
-      <c r="I158" t="b">
-        <v>0</v>
-      </c>
       <c r="J158" t="b">
         <v>0</v>
       </c>
       <c r="K158" t="b">
         <v>0</v>
       </c>
-      <c r="L158" t="inlineStr">
+      <c r="L158" t="b">
+        <v>0</v>
+      </c>
+      <c r="M158" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -7874,36 +8664,41 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>NCT05314543</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr">
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>Description and Determinants of the Power-speed-endurance Profile (PVE) in Cycling and Rowing to Optimize the Performance of the French Athletes at the Paris Olympics 2024</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="I159" t="inlineStr">
         <is>
           <t>THPCA2024</t>
         </is>
       </c>
-      <c r="I159" t="b">
-        <v>0</v>
-      </c>
       <c r="J159" t="b">
         <v>0</v>
       </c>
       <c r="K159" t="b">
         <v>0</v>
       </c>
-      <c r="L159" t="inlineStr">
+      <c r="L159" t="b">
+        <v>0</v>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -7922,36 +8717,41 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>NCT05385653</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>Pre-therapeutic Validation of the VR-based Exposure Scenario for CBT "ReVBEB" for the Induction of Food Craving in Patients With Bulimia and Binge Eating Disorder</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="I160" t="inlineStr">
         <is>
           <t>RevBED</t>
         </is>
       </c>
-      <c r="I160" t="b">
-        <v>0</v>
-      </c>
       <c r="J160" t="b">
         <v>0</v>
       </c>
       <c r="K160" t="b">
         <v>0</v>
       </c>
-      <c r="L160" t="inlineStr">
+      <c r="L160" t="b">
+        <v>0</v>
+      </c>
+      <c r="M160" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -7970,36 +8770,41 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>NCT03445845</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr">
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>Rotation or Change of Biotherapy After TNF Blocker Treatment Failure for Axial Spondyloarthritis</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="I161" t="inlineStr">
         <is>
           <t>ROC-SPA</t>
         </is>
       </c>
-      <c r="I161" t="b">
-        <v>0</v>
-      </c>
       <c r="J161" t="b">
         <v>0</v>
       </c>
       <c r="K161" t="b">
         <v>0</v>
       </c>
-      <c r="L161" t="inlineStr">
+      <c r="L161" t="b">
+        <v>0</v>
+      </c>
+      <c r="M161" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -8018,36 +8823,41 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>NCT02579954</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr">
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>Cardiac Function and Exercise Capacity in Pulmonary Arterial Hypertension</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="I162" t="inlineStr">
         <is>
           <t>FONCE-HTAP</t>
         </is>
       </c>
-      <c r="I162" t="b">
-        <v>0</v>
-      </c>
       <c r="J162" t="b">
         <v>0</v>
       </c>
       <c r="K162" t="b">
         <v>0</v>
       </c>
-      <c r="L162" t="inlineStr">
+      <c r="L162" t="b">
+        <v>0</v>
+      </c>
+      <c r="M162" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -8064,30 +8874,35 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr">
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
         <is>
           <t>2006-005294-22</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr">
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
         <is>
           <t>Performance de l’équation MDRD corrigée par la cimétidine chez le patient transplanté rénal</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="b">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="b">
         <v>0</v>
       </c>
       <c r="K163" t="b">
         <v>0</v>
       </c>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="b">
+        <v>0</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8100,30 +8915,35 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr">
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
         <is>
           <t>2009-017768-18</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr">
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
         <is>
           <t>Analgésie par bloc continu du plan transverse de l’abdomen en chirurgie d’exérèse hépatique : efficacité et influence sur la réhabilitation précoce.</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="b">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="b">
         <v>0</v>
       </c>
       <c r="K164" t="b">
         <v>0</v>
       </c>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="b">
+        <v>0</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8136,30 +8956,35 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr">
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
         <is>
           <t>2008-006256-22</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr">
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
         <is>
           <t>Evaluation by high resolution micro computerized tomography of bone microarchitecture changes in patients with rheumatoid arthritis under anti-TNF therapy.</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="b">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="b">
         <v>0</v>
       </c>
       <c r="K165" t="b">
         <v>0</v>
       </c>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="b">
+        <v>0</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8172,35 +8997,40 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr">
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
         <is>
           <t>2016-000424-25</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr">
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
         <is>
           <t>Low-molecular-weight heparin in constituted vascular intrauterine growth restriction. Randomized multicenter trial</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="I166" t="inlineStr">
         <is>
           <t>GROWTH 
  GROWTH</t>
         </is>
       </c>
-      <c r="I166" t="b">
-        <v>0</v>
-      </c>
       <c r="J166" t="b">
         <v>0</v>
       </c>
       <c r="K166" t="b">
         <v>0</v>
       </c>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="b">
+        <v>0</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8213,30 +9043,35 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr">
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
         <is>
           <t>2009-014690-41</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr">
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
         <is>
           <t>Comparison of the protective effect of two cardioplegic solutions Custodiol versus St Thomas on the cardiac metabolism assessed by microdialysis in coronary surgery</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="b">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="b">
         <v>0</v>
       </c>
       <c r="K167" t="b">
         <v>0</v>
       </c>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="b">
+        <v>0</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8249,36 +9084,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr">
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
         <is>
           <t>2016-004381-25</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr">
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
         <is>
           <t>Study of the impact of a targeted decolonization of S. aureus in persistent carriers on the occurrence of S. aureus infections in hemodialysis patients 
  Evaluation de l’impact d’une stratégie de décolonisation ciblée des porteurs persistants de Staphylococcus aureus sur la survenue d’infections à S. aureus en hémodialyse</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="I168" t="inlineStr">
         <is>
           <t>CIBERSTAPH 
  CIBERSTAPH</t>
         </is>
       </c>
-      <c r="I168" t="b">
-        <v>0</v>
-      </c>
       <c r="J168" t="b">
         <v>0</v>
       </c>
       <c r="K168" t="b">
         <v>0</v>
       </c>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="b">
+        <v>0</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8291,36 +9131,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr">
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
         <is>
           <t>2015-001807-29</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr">
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
         <is>
           <t>Pharmacokinetic study of rituximab induction regimen in ANCA-associated vasculitis : a predictive factor of clinical outcome? (MONITUX) - A multicentric study 
  MONITUX : Evaluation de l’intérêt du MONitoring des taux de riTUXimab et de la recherche d’anticorps anti-rituximab comme facteur prédictif de rechute dans les vascularites à ANCA  (Etude pilote, multicentrique)</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="I169" t="inlineStr">
         <is>
           <t>MONITUX</t>
         </is>
       </c>
-      <c r="I169" t="b">
-        <v>0</v>
-      </c>
       <c r="J169" t="b">
         <v>0</v>
       </c>
       <c r="K169" t="b">
         <v>0</v>
       </c>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="b">
+        <v>0</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8333,34 +9178,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr">
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
         <is>
           <t>2008-008378-29</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr">
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
         <is>
           <t>A survey on the success of inhibitor elimination using individualized concentrate selection and controlled immune tolerance induction</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="I170" t="inlineStr">
         <is>
           <t>OBSITI</t>
         </is>
       </c>
-      <c r="I170" t="b">
-        <v>0</v>
-      </c>
       <c r="J170" t="b">
         <v>0</v>
       </c>
       <c r="K170" t="b">
         <v>0</v>
       </c>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="b">
+        <v>0</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8373,34 +9223,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
         <is>
           <t>2010-021022-35</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr">
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
         <is>
           <t>Effet of curarization under general anaesthesia on eye movements in non-strabismus children</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
+      <c r="I171" t="inlineStr">
         <is>
           <t>STRABO</t>
         </is>
       </c>
-      <c r="I171" t="b">
-        <v>0</v>
-      </c>
       <c r="J171" t="b">
         <v>0</v>
       </c>
       <c r="K171" t="b">
         <v>0</v>
       </c>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="b">
+        <v>0</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8413,36 +9268,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr">
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
         <is>
           <t>2021-003547-24</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr">
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
         <is>
           <t>Factors influencing the COVID-19 vaccine immune response (reactogenicity and immunogenicity) according to age and presence or not of a past history of COVID-19. COVIMMUNAGE study 
  Etude des facteurs influençant la réponse immunitaire vaccinale COVID-19 (réactogénicité et immunogénicité) en fonction de l’âge et de la présence ou non d’un antécédent de COVID-19. Etude COVIMMUNAGE</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="I172" t="inlineStr">
         <is>
           <t>COVIMMUNAGE 
  COVIMMUNAGE</t>
         </is>
       </c>
-      <c r="I172" t="b">
-        <v>0</v>
-      </c>
       <c r="J172" t="b">
         <v>0</v>
       </c>
       <c r="K172" t="b">
         <v>0</v>
       </c>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8455,36 +9315,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr">
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
         <is>
           <t>2020-001188-96</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr">
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
         <is>
           <t>Chemoprophylaxis of SARS-CoV-2 infection (COVID-19) in exposed healthcare workers: a randomized double-blind placebo-controlled clinical trial 
  Essai de chimioprophylaxie de l’infection à SARS-CoV-2 (COVID-19) chez les soignants exposés : essai multicentrique randomisé contrôle versus placebo en double aveugle.</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="I173" t="inlineStr">
         <is>
           <t>COVIDAXIS 
  COVIDAXIS</t>
         </is>
       </c>
-      <c r="I173" t="b">
-        <v>0</v>
-      </c>
       <c r="J173" t="b">
         <v>0</v>
       </c>
       <c r="K173" t="b">
         <v>0</v>
       </c>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="b">
+        <v>0</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publipostage2/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
+++ b/publipostage2/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
+++ b/publipostage2/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
+++ b/publipostage2/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
@@ -67,7 +67,7 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00770393</t>

--- a/publipostage2/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
+++ b/publipostage2/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
@@ -76,40 +76,43 @@
     <t>NCT00327106</t>
   </si>
   <si>
+    <t>NCT00475059</t>
+  </si>
+  <si>
+    <t>NCT00542906</t>
+  </si>
+  <si>
+    <t>NCT00555438</t>
+  </si>
+  <si>
+    <t>NCT00452010</t>
+  </si>
+  <si>
     <t>NCT00522561</t>
   </si>
   <si>
-    <t>NCT00542906</t>
-  </si>
-  <si>
-    <t>NCT00452010</t>
-  </si>
-  <si>
-    <t>NCT00475059</t>
-  </si>
-  <si>
-    <t>NCT00555438</t>
-  </si>
-  <si>
     <t>NCT00451776</t>
   </si>
   <si>
+    <t>NCT00621907</t>
+  </si>
+  <si>
     <t>NCT00732290</t>
   </si>
   <si>
-    <t>NCT00621907</t>
-  </si>
-  <si>
     <t>NCT00904527</t>
   </si>
   <si>
     <t>NCT00916526</t>
   </si>
   <si>
+    <t>NCT00941824</t>
+  </si>
+  <si>
     <t>NCT00521508</t>
   </si>
   <si>
-    <t>NCT00941824</t>
+    <t>NCT01135303</t>
   </si>
   <si>
     <t>NCT01385683</t>
@@ -118,153 +121,165 @@
     <t>NCT00515645</t>
   </si>
   <si>
-    <t>NCT01135303</t>
+    <t>NCT01303471</t>
+  </si>
+  <si>
+    <t>NCT02538445</t>
+  </si>
+  <si>
+    <t>NCT00457158</t>
+  </si>
+  <si>
+    <t>NCT01401140</t>
+  </si>
+  <si>
+    <t>NCT02527902</t>
   </si>
   <si>
     <t>NCT01606020</t>
   </si>
   <si>
-    <t>NCT02527902</t>
-  </si>
-  <si>
-    <t>NCT01401140</t>
-  </si>
-  <si>
-    <t>NCT02538445</t>
-  </si>
-  <si>
-    <t>NCT00457158</t>
-  </si>
-  <si>
-    <t>NCT01303471</t>
+    <t>NCT01349270</t>
+  </si>
+  <si>
+    <t>NCT02549378</t>
+  </si>
+  <si>
+    <t>NCT02551354</t>
+  </si>
+  <si>
+    <t>NCT00676390</t>
+  </si>
+  <si>
+    <t>NCT02522338</t>
   </si>
   <si>
     <t>NCT02557568</t>
   </si>
   <si>
-    <t>NCT00676390</t>
+    <t>NCT02533518</t>
+  </si>
+  <si>
+    <t>NCT02531048</t>
   </si>
   <si>
     <t>NCT02046720</t>
   </si>
   <si>
-    <t>NCT02522338</t>
-  </si>
-  <si>
-    <t>NCT02533518</t>
-  </si>
-  <si>
-    <t>NCT01349270</t>
-  </si>
-  <si>
-    <t>NCT02551354</t>
-  </si>
-  <si>
-    <t>NCT02531048</t>
-  </si>
-  <si>
-    <t>NCT02549378</t>
-  </si>
-  <si>
     <t>NCT00922857</t>
   </si>
   <si>
+    <t>NCT02528591</t>
+  </si>
+  <si>
+    <t>NCT02522819</t>
+  </si>
+  <si>
+    <t>NCT02547246</t>
+  </si>
+  <si>
+    <t>NCT00674531</t>
+  </si>
+  <si>
+    <t>NCT02526966</t>
+  </si>
+  <si>
     <t>NCT01732978</t>
   </si>
   <si>
-    <t>NCT02526966</t>
-  </si>
-  <si>
-    <t>NCT02547246</t>
-  </si>
-  <si>
     <t>NCT01694914</t>
   </si>
   <si>
-    <t>NCT02528591</t>
-  </si>
-  <si>
-    <t>NCT02522819</t>
-  </si>
-  <si>
-    <t>NCT00674531</t>
+    <t>NCT02524210</t>
+  </si>
+  <si>
+    <t>NCT02552524</t>
+  </si>
+  <si>
+    <t>NCT01116570</t>
   </si>
   <si>
     <t>NCT03280810</t>
   </si>
   <si>
-    <t>NCT01116570</t>
-  </si>
-  <si>
-    <t>NCT02524210</t>
+    <t>NCT01982214</t>
+  </si>
+  <si>
+    <t>NCT02528578</t>
+  </si>
+  <si>
+    <t>NCT02431819</t>
+  </si>
+  <si>
+    <t>NCT02425839</t>
   </si>
   <si>
     <t>NCT02374281</t>
   </si>
   <si>
-    <t>NCT02425839</t>
-  </si>
-  <si>
-    <t>NCT02528578</t>
+    <t>NCT02257164</t>
   </si>
   <si>
     <t>NCT03267979</t>
   </si>
   <si>
-    <t>NCT01982214</t>
-  </si>
-  <si>
-    <t>NCT02257164</t>
-  </si>
-  <si>
-    <t>NCT02431819</t>
-  </si>
-  <si>
-    <t>NCT02552524</t>
+    <t>NCT02279108</t>
+  </si>
+  <si>
+    <t>NCT02524041</t>
+  </si>
+  <si>
+    <t>NCT02524301</t>
+  </si>
+  <si>
+    <t>NCT02670993</t>
+  </si>
+  <si>
+    <t>NCT02571088</t>
   </si>
   <si>
     <t>NCT02355314</t>
   </si>
   <si>
+    <t>NCT02524223</t>
+  </si>
+  <si>
+    <t>NCT02544516</t>
+  </si>
+  <si>
+    <t>NCT02668224</t>
+  </si>
+  <si>
+    <t>NCT02386787</t>
+  </si>
+  <si>
+    <t>NCT02252497</t>
+  </si>
+  <si>
+    <t>NCT02657512</t>
+  </si>
+  <si>
     <t>NCT02549274</t>
   </si>
   <si>
-    <t>NCT02544516</t>
-  </si>
-  <si>
-    <t>NCT02668224</t>
-  </si>
-  <si>
-    <t>NCT02524223</t>
-  </si>
-  <si>
-    <t>NCT02657512</t>
-  </si>
-  <si>
-    <t>NCT02386787</t>
-  </si>
-  <si>
-    <t>NCT02279108</t>
-  </si>
-  <si>
-    <t>NCT02571088</t>
-  </si>
-  <si>
-    <t>NCT02524301</t>
-  </si>
-  <si>
-    <t>NCT02524041</t>
-  </si>
-  <si>
-    <t>NCT02252497</t>
-  </si>
-  <si>
-    <t>NCT02670993</t>
-  </si>
-  <si>
     <t>NCT02538796</t>
   </si>
   <si>
+    <t>NCT02502474</t>
+  </si>
+  <si>
+    <t>NCT02526927</t>
+  </si>
+  <si>
+    <t>NCT02595125</t>
+  </si>
+  <si>
+    <t>NCT02895438</t>
+  </si>
+  <si>
+    <t>NCT02595112</t>
+  </si>
+  <si>
     <t>NCT02260414</t>
   </si>
   <si>
@@ -277,94 +292,94 @@
     <t>NCT02562495</t>
   </si>
   <si>
-    <t>NCT02526927</t>
-  </si>
-  <si>
-    <t>NCT02895438</t>
-  </si>
-  <si>
-    <t>NCT02595112</t>
-  </si>
-  <si>
     <t>NCT02531061</t>
   </si>
   <si>
-    <t>NCT02595125</t>
-  </si>
-  <si>
     <t>NCT02463890</t>
   </si>
   <si>
-    <t>NCT02502474</t>
+    <t>NCT03324048</t>
+  </si>
+  <si>
+    <t>NCT03249857</t>
+  </si>
+  <si>
+    <t>NCT03690804</t>
+  </si>
+  <si>
+    <t>NCT03190486</t>
+  </si>
+  <si>
+    <t>NCT02559999</t>
+  </si>
+  <si>
+    <t>NCT02475486</t>
+  </si>
+  <si>
+    <t>NCT03714269</t>
+  </si>
+  <si>
+    <t>NCT02386969</t>
+  </si>
+  <si>
+    <t>NCT02920723</t>
+  </si>
+  <si>
+    <t>NCT03079232</t>
+  </si>
+  <si>
+    <t>NCT03145454</t>
+  </si>
+  <si>
+    <t>NCT02667678</t>
+  </si>
+  <si>
+    <t>NCT02596984</t>
   </si>
   <si>
     <t>NCT03307434</t>
   </si>
   <si>
-    <t>NCT02386969</t>
-  </si>
-  <si>
-    <t>NCT03690804</t>
-  </si>
-  <si>
-    <t>NCT03714269</t>
-  </si>
-  <si>
-    <t>NCT03145454</t>
-  </si>
-  <si>
-    <t>NCT02667678</t>
-  </si>
-  <si>
-    <t>NCT03079232</t>
-  </si>
-  <si>
-    <t>NCT02596984</t>
-  </si>
-  <si>
-    <t>NCT02920723</t>
-  </si>
-  <si>
-    <t>NCT02475486</t>
-  </si>
-  <si>
-    <t>NCT03190486</t>
-  </si>
-  <si>
-    <t>NCT03324048</t>
-  </si>
-  <si>
-    <t>NCT02559999</t>
-  </si>
-  <si>
-    <t>NCT03249857</t>
-  </si>
-  <si>
     <t>NCT02522806</t>
   </si>
   <si>
+    <t>NCT02506504</t>
+  </si>
+  <si>
+    <t>NCT03526211</t>
+  </si>
+  <si>
+    <t>NCT02668237</t>
+  </si>
+  <si>
+    <t>NCT04025138</t>
+  </si>
+  <si>
+    <t>NCT03549546</t>
+  </si>
+  <si>
     <t>NCT02655172</t>
   </si>
   <si>
     <t>NCT03586505</t>
   </si>
   <si>
-    <t>NCT04025138</t>
-  </si>
-  <si>
-    <t>NCT02506504</t>
-  </si>
-  <si>
-    <t>NCT03549546</t>
-  </si>
-  <si>
-    <t>NCT03526211</t>
-  </si>
-  <si>
     <t>NCT02834260</t>
   </si>
   <si>
-    <t>NCT02668237</t>
+    <t>NCT03126045</t>
+  </si>
+  <si>
+    <t>NCT04093037</t>
+  </si>
+  <si>
+    <t>NCT03445871</t>
+  </si>
+  <si>
+    <t>NCT03643328</t>
+  </si>
+  <si>
+    <t>NCT02591030</t>
   </si>
   <si>
     <t>NCT02386774</t>
@@ -373,73 +388,76 @@
     <t>NCT03342339</t>
   </si>
   <si>
-    <t>NCT02591030</t>
+    <t>NCT02929004</t>
   </si>
   <si>
     <t>NCT02672566</t>
   </si>
   <si>
-    <t>NCT04093037</t>
-  </si>
-  <si>
-    <t>NCT03126045</t>
-  </si>
-  <si>
-    <t>NCT03643328</t>
-  </si>
-  <si>
-    <t>NCT03445871</t>
-  </si>
-  <si>
     <t>NCT03172390</t>
   </si>
   <si>
-    <t>NCT02929004</t>
+    <t>NCT02657304</t>
+  </si>
+  <si>
+    <t>NCT02668250</t>
+  </si>
+  <si>
+    <t>NCT03317613</t>
+  </si>
+  <si>
+    <t>NCT03731247</t>
+  </si>
+  <si>
+    <t>NCT03866785</t>
+  </si>
+  <si>
+    <t>NCT03736733</t>
+  </si>
+  <si>
+    <t>NCT01841242</t>
+  </si>
+  <si>
+    <t>NCT02666339</t>
+  </si>
+  <si>
+    <t>NCT02665845</t>
+  </si>
+  <si>
+    <t>NCT02675179</t>
   </si>
   <si>
     <t>NCT02853045</t>
   </si>
   <si>
-    <t>NCT02665845</t>
-  </si>
-  <si>
-    <t>NCT03731247</t>
-  </si>
-  <si>
-    <t>NCT03736733</t>
-  </si>
-  <si>
-    <t>NCT03317613</t>
+    <t>NCT04859023</t>
+  </si>
+  <si>
+    <t>NCT02494648</t>
+  </si>
+  <si>
+    <t>NCT03182166</t>
   </si>
   <si>
     <t>NCT04511858</t>
   </si>
   <si>
-    <t>NCT03866785</t>
-  </si>
-  <si>
-    <t>NCT04859023</t>
-  </si>
-  <si>
-    <t>NCT02668250</t>
-  </si>
-  <si>
-    <t>NCT01841242</t>
-  </si>
-  <si>
-    <t>NCT02675179</t>
-  </si>
-  <si>
-    <t>NCT02657304</t>
-  </si>
-  <si>
-    <t>NCT03182166</t>
-  </si>
-  <si>
-    <t>NCT02494648</t>
-  </si>
-  <si>
-    <t>NCT02666339</t>
+    <t>NCT03801122</t>
+  </si>
+  <si>
+    <t>NCT02359513</t>
+  </si>
+  <si>
+    <t>NCT03240341</t>
+  </si>
+  <si>
+    <t>NCT04117308</t>
+  </si>
+  <si>
+    <t>NCT04998266</t>
+  </si>
+  <si>
+    <t>NCT04102410</t>
   </si>
   <si>
     <t>NCT04767776</t>
@@ -448,84 +466,66 @@
     <t>NCT04857710</t>
   </si>
   <si>
-    <t>NCT03801122</t>
-  </si>
-  <si>
-    <t>NCT04998266</t>
-  </si>
-  <si>
-    <t>NCT04102410</t>
-  </si>
-  <si>
-    <t>NCT02359513</t>
-  </si>
-  <si>
     <t>NCT04895501</t>
   </si>
   <si>
     <t>NCT04034719</t>
   </si>
   <si>
-    <t>NCT04117308</t>
-  </si>
-  <si>
-    <t>NCT03240341</t>
+    <t>NCT05717543</t>
+  </si>
+  <si>
+    <t>NCT05170178</t>
+  </si>
+  <si>
+    <t>NCT04025411</t>
+  </si>
+  <si>
+    <t>NCT06110637</t>
+  </si>
+  <si>
+    <t>NCT04469348</t>
+  </si>
+  <si>
+    <t>NCT05155826</t>
+  </si>
+  <si>
+    <t>NCT04737018</t>
+  </si>
+  <si>
+    <t>NCT05047718</t>
   </si>
   <si>
     <t>NCT05013021</t>
   </si>
   <si>
-    <t>NCT05717543</t>
-  </si>
-  <si>
-    <t>NCT06110637</t>
-  </si>
-  <si>
-    <t>NCT05155826</t>
-  </si>
-  <si>
-    <t>NCT05047718</t>
-  </si>
-  <si>
-    <t>NCT04737018</t>
-  </si>
-  <si>
-    <t>NCT04469348</t>
-  </si>
-  <si>
-    <t>NCT05170178</t>
-  </si>
-  <si>
     <t>NCT02484820</t>
   </si>
   <si>
-    <t>NCT04025411</t>
-  </si>
-  <si>
     <t>NCT06469359</t>
   </si>
   <si>
+    <t>NCT05385653</t>
+  </si>
+  <si>
+    <t>NCT03445845</t>
+  </si>
+  <si>
+    <t>NCT02579954</t>
+  </si>
+  <si>
+    <t>NCT05314543</t>
+  </si>
+  <si>
+    <t>NCT03753776</t>
+  </si>
+  <si>
     <t>NCT03984682</t>
   </si>
   <si>
     <t>NCT05367791</t>
   </si>
   <si>
-    <t>NCT03753776</t>
-  </si>
-  <si>
-    <t>NCT05314543</t>
-  </si>
-  <si>
-    <t>NCT05385653</t>
-  </si>
-  <si>
-    <t>NCT03445845</t>
-  </si>
-  <si>
-    <t>NCT02579954</t>
-  </si>
-  <si>
     <t>2007-006275-36</t>
   </si>
   <si>
@@ -541,12 +541,12 @@
     <t>2009-018189-36</t>
   </si>
   <si>
+    <t>2018-001505-90</t>
+  </si>
+  <si>
     <t>2017-004348-39</t>
   </si>
   <si>
-    <t>2018-001505-90</t>
-  </si>
-  <si>
     <t>2018-001051-12</t>
   </si>
   <si>
@@ -556,36 +556,36 @@
     <t>2006-005294-22</t>
   </si>
   <si>
+    <t>2009-014690-41</t>
+  </si>
+  <si>
     <t>2009-017768-18</t>
   </si>
   <si>
     <t>2008-006256-22</t>
   </si>
   <si>
+    <t>2016-004381-25</t>
+  </si>
+  <si>
+    <t>2021-003547-24</t>
+  </si>
+  <si>
+    <t>2008-008378-29</t>
+  </si>
+  <si>
+    <t>2020-001188-96</t>
+  </si>
+  <si>
+    <t>2015-001807-29</t>
+  </si>
+  <si>
+    <t>2010-021022-35</t>
+  </si>
+  <si>
     <t>2016-000424-25</t>
   </si>
   <si>
-    <t>2009-014690-41</t>
-  </si>
-  <si>
-    <t>2016-004381-25</t>
-  </si>
-  <si>
-    <t>2015-001807-29</t>
-  </si>
-  <si>
-    <t>2008-008378-29</t>
-  </si>
-  <si>
-    <t>2010-021022-35</t>
-  </si>
-  <si>
-    <t>2021-003547-24</t>
-  </si>
-  <si>
-    <t>2020-001188-96</t>
-  </si>
-  <si>
     <t>2007</t>
   </si>
   <si>
@@ -649,43 +649,46 @@
     <t>Efficacy of Tranexamic Acid on Perioperative Blood Loss During Hip Fracture Surgery.</t>
   </si>
   <si>
+    <t>Performance of Cimetidine-corrected MDRD Equation in Renal Transplant Patients</t>
+  </si>
+  <si>
+    <t>Functional Organization of Somatosensory Responses in the Secondary Somatosensitive Area (SII) and Insula : an fMRI Study</t>
+  </si>
+  <si>
+    <t>Prospective, Multicentre, Open-label Study Evaluating 1.5 mg/Day of Fondaparinux,in Venous Thromboembolic Events Prevention in Patients With Renal Impairment and Undergoing a Major Orthopaedic Surgery. PROPICE Study</t>
+  </si>
+  <si>
+    <t>Pain Reducing Effect of Transcutaneous Electrical Nerve Stimulation (TENS) in Patients With Chronic Low Back Pain or Chronic Lumbo-radiculalgia and Followed in Pain Treatment Centers</t>
+  </si>
+  <si>
     <t>Lower Limb Mechanical Characteristics: Effect on Running Mechanics and Energetics</t>
   </si>
   <si>
-    <t>Functional Organization of Somatosensory Responses in the Secondary Somatosensitive Area (SII) and Insula : an fMRI Study</t>
-  </si>
-  <si>
-    <t>Pain Reducing Effect of Transcutaneous Electrical Nerve Stimulation (TENS) in Patients With Chronic Low Back Pain or Chronic Lumbo-radiculalgia and Followed in Pain Treatment Centers</t>
-  </si>
-  <si>
-    <t>Performance of Cimetidine-corrected MDRD Equation in Renal Transplant Patients</t>
-  </si>
-  <si>
-    <t>Prospective, Multicentre, Open-label Study Evaluating 1.5 mg/Day of Fondaparinux,in Venous Thromboembolic Events Prevention in Patients With Renal Impairment and Undergoing a Major Orthopaedic Surgery. PROPICE Study</t>
-  </si>
-  <si>
     <t>Post Operative Hemodynamic Function After Anesthetic Induction With Etomidate for Cardiac Surgery With ECC. A Prospective, Monocentric, Randomised Double Blind Study</t>
   </si>
   <si>
     <t>Levobupivacaine into post-caesarian analgesia: randomized monocentric study against placebo</t>
   </si>
   <si>
+    <t>Levobupivacïne Into Post-analgesia : Randomized Monocentric Study Against Placebo</t>
+  </si>
+  <si>
     <t>Investigation of Drug-drug Interaction Between Clopidogrel and Fluoxetine</t>
   </si>
   <si>
-    <t>Levobupivacïne Into Post-analgesia : Randomized Monocentric Study Against Placebo</t>
-  </si>
-  <si>
     <t>Interest of Relaxation From Patients With Pain Due to Migraine</t>
   </si>
   <si>
     <t>Measurement of Exhaled NO and Bronchial Provocation Test With Mannitol as a Predictor of Response to Inhaled Corticosteroids in Chronic Cough</t>
   </si>
   <si>
+    <t>Pharmacokinetic Evaluation of an Intensified and Decreasing Dosing Regimen of Mycophenolate Sodium in Combination With Tacrolimus During the First 3 Months Post Kidney Transplant (the myFORTic Study)</t>
+  </si>
+  <si>
     <t>Role of CD4+CD25+FoxP3+ Regulatory T Cells in Pathogenesis of Primary IgA Nephropathy</t>
   </si>
   <si>
-    <t>Pharmacokinetic Evaluation of an Intensified and Decreasing Dosing Regimen of Mycophenolate Sodium in Combination With Tacrolimus During the First 3 Months Post Kidney Transplant (the myFORTic Study)</t>
+    <t>Effectiveness of VistaO2 Device in Screening of Sleep Apnea/Hypopnea Syndrome</t>
   </si>
   <si>
     <t>Investigation Drug-drug Interaction Between Dabigatran and Clarithromycin</t>
@@ -694,107 +697,95 @@
     <t>Cardiac Autonomic Functions During Head-out Immersion and During Head Down Tilt</t>
   </si>
   <si>
-    <t>Effectiveness of VistaO2 Device in Screening of Sleep Apnea/Hypopnea Syndrome</t>
+    <t>Pain Assessment During General Anesthesia : DOLANS (DOULeur ANeSthesie) Study</t>
+  </si>
+  <si>
+    <t>Can we Forget? Directed Forgetting and Embodied Cognition in Schizophrenia</t>
+  </si>
+  <si>
+    <t>PREPIC 2 : Interruption of Inferior Vena Cava by a Retrievable Filter for the Prevention of Recurrent Pulmonary Embolism : a Randomised, Open Label Study</t>
+  </si>
+  <si>
+    <t>Coronary Surgery: Comparing the Protective Effects of Two Cardioplegic Solutions: Custodiol Versus St Thomas, on Cardiac Metabolism, as Assessed Using Microdialysis</t>
+  </si>
+  <si>
+    <t>Autonomic Nervous System (ANS) Analysis According to Different Renal Function Stage in Immunoglobin A (IgA) Nephropathy</t>
   </si>
   <si>
     <t>Effects of Sleep Deprivation on Driving Performance and Central Fatigue</t>
   </si>
   <si>
-    <t>Autonomic Nervous System (ANS) Analysis According to Different Renal Function Stage in Immunoglobin A (IgA) Nephropathy</t>
-  </si>
-  <si>
-    <t>Coronary Surgery: Comparing the Protective Effects of Two Cardioplegic Solutions: Custodiol Versus St Thomas, on Cardiac Metabolism, as Assessed Using Microdialysis</t>
-  </si>
-  <si>
-    <t>Can we Forget? Directed Forgetting and Embodied Cognition in Schizophrenia</t>
-  </si>
-  <si>
-    <t>PREPIC 2 : Interruption of Inferior Vena Cava by a Retrievable Filter for the Prevention of Recurrent Pulmonary Embolism : a Randomised, Open Label Study</t>
-  </si>
-  <si>
-    <t>Pain Assessment During General Anesthesia : DOLANS (DOULeur ANeSthesie) Study</t>
+    <t>Multicentre Randomized Open-label Trial to Compare Efficacy and Tolerance of Corticosteroids and IVIg in Patients With Chronic Inflammatory Demyelinating Polyneuropathy on a One Year Follow up</t>
+  </si>
+  <si>
+    <t>Study of the Impact of Changes in Carbonemia on Microcirculation in Patients - A Monocentric Study</t>
+  </si>
+  <si>
+    <t>Estimation of Pain During Epidural Analgesia During Labor - a Monocentric Study</t>
+  </si>
+  <si>
+    <t>Estimated Physical Activity of Congestive Heart Failure Patients by a Physical Activity Questionnaire : Concordance Study.</t>
+  </si>
+  <si>
+    <t>Measurement of Glomerular Filtration Rate (GFR) in HIV Patients: Single-center Study Comparing the Accuracy of Estimators of GFR Versus Iohexol Plasma Clearance</t>
   </si>
   <si>
     <t>Evaluation of an Algorithm for Identifying Persistent Nasal Staphylococcus Aureus Carriage in a Cohort of Healthy Volunteers and Patients Regularly Monitored at the CHU of Saint-Etienne</t>
   </si>
   <si>
-    <t>Estimated Physical Activity of Congestive Heart Failure Patients by a Physical Activity Questionnaire : Concordance Study.</t>
+    <t>Ultra-Violet Fluorescence Bronchial Cancer Location</t>
+  </si>
+  <si>
+    <t>Normative Values Laser Nociceptive Evoked Potentials Depending on the Age</t>
   </si>
   <si>
     <t>The Influence of Age on Bispectral Index Associated With Propofol-induced Sedation</t>
   </si>
   <si>
-    <t>Measurement of Glomerular Filtration Rate (GFR) in HIV Patients: Single-center Study Comparing the Accuracy of Estimators of GFR Versus Iohexol Plasma Clearance</t>
-  </si>
-  <si>
-    <t>Ultra-Violet Fluorescence Bronchial Cancer Location</t>
-  </si>
-  <si>
-    <t>Multicentre Randomized Open-label Trial to Compare Efficacy and Tolerance of Corticosteroids and IVIg in Patients With Chronic Inflammatory Demyelinating Polyneuropathy on a One Year Follow up</t>
-  </si>
-  <si>
-    <t>Estimation of Pain During Epidural Analgesia During Labor - a Monocentric Study</t>
-  </si>
-  <si>
-    <t>Normative Values Laser Nociceptive Evoked Potentials Depending on the Age</t>
-  </si>
-  <si>
-    <t>Study of the Impact of Changes in Carbonemia on Microcirculation in Patients - A Monocentric Study</t>
-  </si>
-  <si>
     <t>Influence of Muscular Atrophy on Biological and Functional Benefit of Respiratory Rehabilitation in Patients With Chronic Respiratory Failure</t>
   </si>
   <si>
+    <t>Prospective Single-center Study Evaluating the Central Blood Pressure in Renal Transplantation</t>
+  </si>
+  <si>
+    <t>Feasibility Evaluation of Continuous Positive Airway Pressure (CPAP) in the Treatment of Obstructive Sleep Apnea Synchrone in the Acute Phase of Stroke</t>
+  </si>
+  <si>
+    <t>Transcranial Magnetic Stimulation, Embodied Cognition and Bulimic Craving</t>
+  </si>
+  <si>
+    <t>Detection of Enterovirus RNA by RT-PCR in Atheromatous Lesions</t>
+  </si>
+  <si>
+    <t>Multicenter Study Evaluating the Performance of the Assay of Anti-hinge Region Antibodies in the Diagnosis of Progressive Forms of IgA Nephropathy</t>
+  </si>
+  <si>
     <t>Are Parents Privileged Listeners Their Baby ?</t>
   </si>
   <si>
-    <t>Multicenter Study Evaluating the Performance of the Assay of Anti-hinge Region Antibodies in the Diagnosis of Progressive Forms of IgA Nephropathy</t>
-  </si>
-  <si>
-    <t>Transcranial Magnetic Stimulation, Embodied Cognition and Bulimic Craving</t>
-  </si>
-  <si>
     <t>Comparative Study of Two Corneal Graft Storage Media: New Animal Compound Free Medium Versus Reference Medium</t>
   </si>
   <si>
-    <t>Prospective Single-center Study Evaluating the Central Blood Pressure in Renal Transplantation</t>
-  </si>
-  <si>
-    <t>Feasibility Evaluation of Continuous Positive Airway Pressure (CPAP) in the Treatment of Obstructive Sleep Apnea Synchrone in the Acute Phase of Stroke</t>
-  </si>
-  <si>
-    <t>Detection of Enterovirus RNA by RT-PCR in Atheromatous Lesions</t>
-  </si>
-  <si>
-    <t>Effects of a Psycho-corporal Training on Postural and Cognitive Dual-task Performances in Patients With Schizophrenia</t>
+    <t>Effect of Inhibitors of the Proton Pump on Intestinal Transporters and Their Impact on the Pharmacokinetics of Dabigatran - Mechanistic and Clinical Approach -BIPP Study</t>
+  </si>
+  <si>
+    <t>Study of the Effect of an Active rTMS Session in Pathological Gamblers: Impact on Craving and Severity of These Behaviors</t>
   </si>
   <si>
     <t>Exercise and Myopathies. Physical Training Introduction in Lifestyle of Facioscapulohumeral Dystrophy Patients: Functional, Tissue and Quality of Life Benefits.</t>
-  </si>
-  <si>
-    <t>Effect of Inhibitors of the Proton Pump on Intestinal Transporters and Their Impact on the Pharmacokinetics of Dabigatran - Mechanistic and Clinical Approach -BIPP Study</t>
-  </si>
-  <si>
-    <t>Autonomic Nervous System Reactivity of the Newborn After a Nociceptive Stress: Interest of Sucrose and Non-nutritive Sucking : A Controlled Randomized Single-center Study.</t>
-  </si>
-  <si>
-    <t>Assessment of Correlation Between Changes of Shear Wave Elastography and Surface Electromyogram of the Masseter, in Rest and Maximal Voluntary Contraction</t>
-  </si>
-  <si>
-    <t>Modulation of Painful Perception</t>
-  </si>
-  <si>
-    <t>Assessing Pain in the Postoperative Period by Automatically Measuring the Variation Coefficient of Pupillary Diameter: PREVANS Study</t>
-  </si>
-  <si>
-    <t>Effects of Whole Body Vibration (WBV) on Musculoskeletal System of Aged Women</t>
   </si>
   <si>
     <t>Evaluation of the biological response to clopidogrel in patients with  ischemic stroke: role of platelet alpha2-adrenergic receptors 
  Evaluation de la réponse biologique au clopidogrel chez des patients en prévention secondaire d'accident ischémique cérébral : rôle des récepteurs alpha2-adrénergiques plaquettaires</t>
   </si>
   <si>
-    <t>Anesthesic Techniques for Surgery of the Anterior Cruciate Ligament of the Knee in Ambulatory Surgery. Randomized Pilot Monocentric Trial</t>
+    <t>Effects of a Psycho-corporal Training on Postural and Cognitive Dual-task Performances in Patients With Schizophrenia</t>
+  </si>
+  <si>
+    <t>Effects of Whole Body Vibration (WBV) on Musculoskeletal System of Aged Women</t>
+  </si>
+  <si>
+    <t>Modulation of Painful Perception</t>
   </si>
   <si>
     <t>Reactivity of the autonomic nervous system after a nociceptive stress in the newborn: Interest of sucrose and non-nutritive sucking. 
@@ -804,51 +795,75 @@
     <t>Single Center Prospective Study Evaluating the Safety of Progressive Compressive Stockings for the Treatment of Venous Insufficiency in Patients With Peripheral Arterial Disease</t>
   </si>
   <si>
-    <t>Study of the Effect of an Active rTMS Session in Pathological Gamblers: Impact on Craving and Severity of These Behaviors</t>
+    <t>Assessment of Correlation Between Changes of Shear Wave Elastography and Surface Electromyogram of the Masseter, in Rest and Maximal Voluntary Contraction</t>
+  </si>
+  <si>
+    <t>Autonomic Nervous System Reactivity of the Newborn After a Nociceptive Stress: Interest of Sucrose and Non-nutritive Sucking : A Controlled Randomized Single-center Study.</t>
+  </si>
+  <si>
+    <t>Anesthesic Techniques for Surgery of the Anterior Cruciate Ligament of the Knee in Ambulatory Surgery. Randomized Pilot Monocentric Trial</t>
+  </si>
+  <si>
+    <t>Assessing Pain in the Postoperative Period by Automatically Measuring the Variation Coefficient of Pupillary Diameter: PREVANS Study</t>
+  </si>
+  <si>
+    <t>Comparative, Prospective, Randomized Study Assessing The Interest of Indocyanine Green Fluorescence Imaging With Radioisotope Method For Sentinel Lymph Node Biopsy in Patients With Breast Cancer</t>
+  </si>
+  <si>
+    <t>Association Between Serum Periostin Levels and Cortical Porosity in Patients With Secondary Hyperparathyroidism</t>
+  </si>
+  <si>
+    <t>Evaluation of Brain Opioid Receptor Activity in Anorexia Nervosa : a PET [11C]Diprenorphine Study</t>
+  </si>
+  <si>
+    <t>Support by Singing Sessions on Physical and Moral Pain : Assessment of Its Effectiveness in Alzheimer's Disease. Multicenter Study LACME</t>
+  </si>
+  <si>
+    <t>Evaluation of a Training Program for Homozygous Sickle Cell Disease Patients: Benefits on Physical Ability and Skeletal Muscle. An Interventional Pilot, Multicentric, Prospective, Longitudinal Study</t>
   </si>
   <si>
     <t>Doppler-based Renal Resistive Index in Assessing Renal Dysfunction Reversibility in ICU Patients</t>
   </si>
   <si>
+    <t>Prevalence of HPV Transmission During Medically Assisted Procreation Procedures</t>
+  </si>
+  <si>
+    <t>Study on the Links Between Perception and Action in Schizophrenia, "Upside Down, Give me the Handle"</t>
+  </si>
+  <si>
+    <t>Chronic Effects of Tendon Vibrations on the Neuromechanical Muscular Properties : Pilot Study, Interventional, Prospective, Longitudinal.</t>
+  </si>
+  <si>
+    <t>Ultrasound Assessment of Gastric Content for Semi Emergency Surgery</t>
+  </si>
+  <si>
+    <t>Tranexamic Acid in Total Hip Arthroplasty: Single Preoperative Administration vs Perioperative Administration. A Randomized Control Trial.</t>
+  </si>
+  <si>
+    <t>Effect of Activated Charcoal on Rivaroxaban Pharmacokinetics in Healthy Subjects : RICHAR Study</t>
+  </si>
+  <si>
     <t>Effectiveness of Active Home Exercises for Patients With Chronic Neck Pain: a Prospective Comparative Randomized Clinical Trial</t>
   </si>
   <si>
-    <t>Study on the Links Between Perception and Action in Schizophrenia, "Upside Down, Give me the Handle"</t>
-  </si>
-  <si>
-    <t>Chronic Effects of Tendon Vibrations on the Neuromechanical Muscular Properties : Pilot Study, Interventional, Prospective, Longitudinal.</t>
-  </si>
-  <si>
-    <t>Prevalence of HPV Transmission During Medically Assisted Procreation Procedures</t>
-  </si>
-  <si>
-    <t>Effect of Activated Charcoal on Rivaroxaban Pharmacokinetics in Healthy Subjects : RICHAR Study</t>
-  </si>
-  <si>
-    <t>Ultrasound Assessment of Gastric Content for Semi Emergency Surgery</t>
-  </si>
-  <si>
-    <t>Comparative, Prospective, Randomized Study Assessing The Interest of Indocyanine Green Fluorescence Imaging With Radioisotope Method For Sentinel Lymph Node Biopsy in Patients With Breast Cancer</t>
-  </si>
-  <si>
-    <t>Evaluation of a Training Program for Homozygous Sickle Cell Disease Patients: Benefits on Physical Ability and Skeletal Muscle. An Interventional Pilot, Multicentric, Prospective, Longitudinal Study</t>
-  </si>
-  <si>
-    <t>Evaluation of Brain Opioid Receptor Activity in Anorexia Nervosa : a PET [11C]Diprenorphine Study</t>
-  </si>
-  <si>
-    <t>Association Between Serum Periostin Levels and Cortical Porosity in Patients With Secondary Hyperparathyroidism</t>
-  </si>
-  <si>
-    <t>Tranexamic Acid in Total Hip Arthroplasty: Single Preoperative Administration vs Perioperative Administration. A Randomized Control Trial.</t>
-  </si>
-  <si>
-    <t>Support by Singing Sessions on Physical and Moral Pain : Assessment of Its Effectiveness in Alzheimer's Disease. Multicenter Study LACME</t>
-  </si>
-  <si>
     <t>The Embodied Cognition: Exploratory Study of Automatic and Controlled Processes in Anorexia Nervosa. A Monocentric Study</t>
   </si>
   <si>
+    <t>Study of the Colonic Carriage of Staphylococcus Aureus in a Prospective Cohort of Patients Undergoing Endoscopic Screening for Digestive Cancer in the University Hospital of Saint-Etienne.</t>
+  </si>
+  <si>
+    <t>Monocentric Study Evaluating Bone Microarchitecture by High Resolution Quantitative Computerized Tomography (HR-pQCT) in Young Adults and Adolescents Who Developed Anorexia Nervosa (AN) in Peri or Prepubertal Period.</t>
+  </si>
+  <si>
+    <t>Comparative Study, Prospective, Randomized , Assessing the Reduction of Pain Felt During Installation Intra- Uterine Device by Direct Technique. A Monocentric Study</t>
+  </si>
+  <si>
+    <t>Does Non Coeliac Gluten Sensitivity (NCGS) Exist in Children? A Double-Blind Randomized Placebo-Controlled Trial</t>
+  </si>
+  <si>
+    <t>Study of Staphylococcus Aureus Colonization of the Posterior Nasal Cavity in Patients Undergoing Otorhinolaryngologic Surgery. A Monocentric Study</t>
+  </si>
+  <si>
     <t>Effects of Injection Tinzaparin Prophylactic Dose (4,500 IU Anti-Xa) on Thrombin Generation in Patients With Multiple Myeloma, Lymphoma Patients and Patients Hospitalized for an Acute Medical Condition.</t>
   </si>
   <si>
@@ -861,176 +876,182 @@
     <t>Interest of the Ultrasound to Evaluate the Quadriceps Muscle Wasting in Critical Ill Patients.</t>
   </si>
   <si>
-    <t>Monocentric Study Evaluating Bone Microarchitecture by High Resolution Quantitative Computerized Tomography (HR-pQCT) in Young Adults and Adolescents Who Developed Anorexia Nervosa (AN) in Peri or Prepubertal Period.</t>
-  </si>
-  <si>
-    <t>Does Non Coeliac Gluten Sensitivity (NCGS) Exist in Children? A Double-Blind Randomized Placebo-Controlled Trial</t>
-  </si>
-  <si>
-    <t>Study of Staphylococcus Aureus Colonization of the Posterior Nasal Cavity in Patients Undergoing Otorhinolaryngologic Surgery. A Monocentric Study</t>
-  </si>
-  <si>
     <t>Impact of the Persistence of Inflammation at Doppler Ultrasound Level on the Structural Evolution of Erosion in Rheumatoid Arthritis Treated With Biotherapy</t>
   </si>
   <si>
-    <t>Comparative Study, Prospective, Randomized , Assessing the Reduction of Pain Felt During Installation Intra- Uterine Device by Direct Technique. A Monocentric Study</t>
-  </si>
-  <si>
     <t>Effect of Exercise Training on Obstructive Sleep Apnea Syndrome Severity</t>
   </si>
   <si>
-    <t>Study of the Colonic Carriage of Staphylococcus Aureus in a Prospective Cohort of Patients Undergoing Endoscopic Screening for Digestive Cancer in the University Hospital of Saint-Etienne.</t>
+    <t>A Single Mindfulness Meditation Session in Preoperative Anxiety : Effects on the Autonomous Nervous System</t>
+  </si>
+  <si>
+    <t>Study of Sensorimotor Compatibility Effects in Bipolar Affective Disorder.</t>
+  </si>
+  <si>
+    <t>Assessment of Autonomic Co-regulation Between Newborn and Parent During Kangaroo Care Sessions in Neonatal Intensive Care Units</t>
+  </si>
+  <si>
+    <t>Perception of Baby's Painful Cry: Investigation in fMRI to Neuronal Activity Related to Empathy in Adults</t>
+  </si>
+  <si>
+    <t>Objective Markers of Pain Perception in Humans: a Study in Healthy Subjects</t>
+  </si>
+  <si>
+    <t>Role of the Sympathetic Nervous System (ANS) Dysregulation in the Persistence of Fatigue in Rheumatoid Arthritis Patients Treated With Anti-TNF (Tumor Necrosis Factor) - a Monocentric Cross-sectional Study</t>
+  </si>
+  <si>
+    <t>Acute Effects of a Passive Stretching Session on the Mechanical Properties of Medial Gastrocnemius Muscle in Children With Cerebral Palsy</t>
+  </si>
+  <si>
+    <t>Long-term Efficacy of Repetitive Transcranial Magnetic Stimulation on the Primary Motor Cortex (M1) in Central Neuropathic Pain</t>
+  </si>
+  <si>
+    <t>Follow-up of the Patients Included in the EXESAS Study : Analysis of the Profit of the Physical Activity for the Control Group and of the Preservation of a Regular Physical Activity for the Group Initially Trained</t>
+  </si>
+  <si>
+    <t>In Vivo Imaging Innovation : Optical Coherence Microscopy in Dermato-oncology</t>
+  </si>
+  <si>
+    <t>Objective Markers of Pain Perception in Pediatric Emergency</t>
+  </si>
+  <si>
+    <t>5 Years Follow-up Evaluation of Deterioration Kidney Biomarkers of HIV Patients : HIVOL 2 Study.</t>
+  </si>
+  <si>
+    <t>Evaluation of the Pharmacokinetics of Caspofungin in ICU Patients</t>
   </si>
   <si>
     <t>PREVATHLE: To Evaluate the Effectiveness of an Injury Prevention Program in Athletics</t>
   </si>
   <si>
-    <t>Long-term Efficacy of Repetitive Transcranial Magnetic Stimulation on the Primary Motor Cortex (M1) in Central Neuropathic Pain</t>
-  </si>
-  <si>
-    <t>Assessment of Autonomic Co-regulation Between Newborn and Parent During Kangaroo Care Sessions in Neonatal Intensive Care Units</t>
-  </si>
-  <si>
-    <t>Acute Effects of a Passive Stretching Session on the Mechanical Properties of Medial Gastrocnemius Muscle in Children With Cerebral Palsy</t>
-  </si>
-  <si>
-    <t>Objective Markers of Pain Perception in Pediatric Emergency</t>
-  </si>
-  <si>
-    <t>5 Years Follow-up Evaluation of Deterioration Kidney Biomarkers of HIV Patients : HIVOL 2 Study.</t>
-  </si>
-  <si>
-    <t>In Vivo Imaging Innovation : Optical Coherence Microscopy in Dermato-oncology</t>
-  </si>
-  <si>
-    <t>Evaluation of the Pharmacokinetics of Caspofungin in ICU Patients</t>
-  </si>
-  <si>
-    <t>Follow-up of the Patients Included in the EXESAS Study : Analysis of the Profit of the Physical Activity for the Control Group and of the Preservation of a Regular Physical Activity for the Group Initially Trained</t>
-  </si>
-  <si>
-    <t>Role of the Sympathetic Nervous System (ANS) Dysregulation in the Persistence of Fatigue in Rheumatoid Arthritis Patients Treated With Anti-TNF (Tumor Necrosis Factor) - a Monocentric Cross-sectional Study</t>
-  </si>
-  <si>
-    <t>Perception of Baby's Painful Cry: Investigation in fMRI to Neuronal Activity Related to Empathy in Adults</t>
-  </si>
-  <si>
-    <t>A Single Mindfulness Meditation Session in Preoperative Anxiety : Effects on the Autonomous Nervous System</t>
-  </si>
-  <si>
-    <t>Objective Markers of Pain Perception in Humans: a Study in Healthy Subjects</t>
-  </si>
-  <si>
-    <t>Study of Sensorimotor Compatibility Effects in Bipolar Affective Disorder.</t>
-  </si>
-  <si>
     <t>Endometrial Local Injury Before First IVF : Evaluation of Pregnancy Rate</t>
   </si>
   <si>
+    <t>Prevention of Post-exercise Muscle Fatigue Using a Non Invasive Ventilation and Effect on Exercise Training in Severe Patients With COPD. QUADRIVEND Study</t>
+  </si>
+  <si>
+    <t>Study of Feasibility and Safety of Functional Electrical Stimulation (FES) Cycling in Intensive Care Unit Patients</t>
+  </si>
+  <si>
+    <t>Impact on Anti-infectious Treatments of the Early Molecular Detection Technique Coupled With Urinary Test of Infectious Agents Responsible of Community-acquired Pneumonia of Children at Pediatric Emergencies</t>
+  </si>
+  <si>
+    <t>Fatigability Compared Men and Women Induced According to the Distance Traveled on an Ultra-marathon in the Mountains</t>
+  </si>
+  <si>
+    <t>Expression of the Inhibitory Receptors on Lymphocytes T Cells After Lung Cancer Surgery.</t>
+  </si>
+  <si>
     <t>Study on the Links Between Action and Perception in Schizophrenia, " Have a Good Grasp of the World "</t>
   </si>
   <si>
     <t>Tolerance to Light for Patients Suffering From Keratitis</t>
   </si>
   <si>
-    <t>Fatigability Compared Men and Women Induced According to the Distance Traveled on an Ultra-marathon in the Mountains</t>
-  </si>
-  <si>
-    <t>Prevention of Post-exercise Muscle Fatigue Using a Non Invasive Ventilation and Effect on Exercise Training in Severe Patients With COPD. QUADRIVEND Study</t>
-  </si>
-  <si>
-    <t>Expression of the Inhibitory Receptors on Lymphocytes T Cells After Lung Cancer Surgery.</t>
-  </si>
-  <si>
-    <t>Study of Feasibility and Safety of Functional Electrical Stimulation (FES) Cycling in Intensive Care Unit Patients</t>
-  </si>
-  <si>
     <t>Immunosuppression During Penetrating Keratoplasty, Using a Subconjunctival Implant Releasing Dexamethasone: Tolerance and Safety Pilot Study</t>
   </si>
   <si>
-    <t>Impact on Anti-infectious Treatments of the Early Molecular Detection Technique Coupled With Urinary Test of Infectious Agents Responsible of Community-acquired Pneumonia of Children at Pediatric Emergencies</t>
+    <t>SPPLAASH Study : a Randomized Study Aiming at Evaluating the Incidence of Post Lumbar Puncture Headache (PLPH) With the Use of Atraumatic Needles in Hematology</t>
+  </si>
+  <si>
+    <t>Analysis of the Diagnostic Performance of LacryDiag, a New "All-in-one" Non-contact Analyzer of the Ocular Surface in the Dry Eye. Study LACRYMOSA</t>
+  </si>
+  <si>
+    <t>Prévention chez le receveur avec néphropathie à IgA primaire (NIGA) de la Récidive Après Transplantation rénale: ATG-F versus Basiliximab, comme traitements immunosuppresseurs d’induction.   Etude PIRAT: A vs B</t>
+  </si>
+  <si>
+    <t>Association Between Methotrexate Erythrocyte Polyglutamate Concentration and Clinical Response in Rheumatoid Arthritis Patients Treated With Subcutaneous Injectable Methotrexate</t>
+  </si>
+  <si>
+    <t>Ex Vivo Evaluation of Immunity Activation Face to Staphylococcus Aureus Antigens and Adjuvants of a Vaccine Candidate in Cells From Haemodialysis Patients</t>
+  </si>
+  <si>
+    <t>Randomised Phase II/III Study, Assessing the Safety and Efficacy of Modified Folfirinox Versus Gemcis in Locally Advanced, Unresectable and/or Metastatic Bile Duct Tumours</t>
   </si>
   <si>
     <t>Innovative Imaging of the Conjunctiva, Cornea, and Ocular Adnexa : Study of a Handheld in Vivo Confocal Microscope and of a Fluorescent in Vivo Confocal Microscope</t>
   </si>
   <si>
-    <t>Prévention chez le receveur avec néphropathie à IgA primaire (NIGA) de la Récidive Après Transplantation rénale: ATG-F versus Basiliximab, comme traitements immunosuppresseurs d’induction.   Etude PIRAT: A vs B</t>
-  </si>
-  <si>
     <t>Influence of Emotions on Decision-making in Parkinson's Disease</t>
-  </si>
-  <si>
-    <t>Randomised Phase II/III Study, Assessing the Safety and Efficacy of Modified Folfirinox Versus Gemcis in Locally Advanced, Unresectable and/or Metastatic Bile Duct Tumours</t>
-  </si>
-  <si>
-    <t>Association between methotrexate erythrocyte polyglutamate concentration and clinical response in rheumatoid arthritis patients treated with subcutaneous injectable methotrexate</t>
-  </si>
-  <si>
-    <t>Low-molecular-weight Heparin in Constituted Vascular Intrauterine Growth Restriction. Randomized Multicenter Trial</t>
-  </si>
-  <si>
-    <t>Analysis of the Diagnostic Performance of LacryDiag, a New "All-in-one" Non-contact Analyzer of the Ocular Surface in the Dry Eye. Study LACRYMOSA</t>
   </si>
   <si>
     <t>Decolonization of patients carrying S. aureus before cardiac surgery: study of the risk factors associated with failure 
  Décolonisation des patients porteurs de Staphylococcus aureus en chirurgie cardiaque : étude des facteurs de risque d’échec de décolonisation</t>
   </si>
   <si>
-    <t>SPPLAASH Study : a Randomized Study Aiming at Evaluating the Incidence of Post Lumbar Puncture Headache (PLPH) With the Use of Atraumatic Needles in Hematology</t>
-  </si>
-  <si>
-    <t>Ex Vivo Evaluation of Immunity Activation Face to Staphylococcus Aureus Antigens and Adjuvants of a Vaccine Candidate in Cells From Haemodialysis Patients</t>
-  </si>
-  <si>
-    <t>Association Between Methotrexate Erythrocyte Polyglutamate Concentration and Clinical Response in Rheumatoid Arthritis Patients Treated With Subcutaneous Injectable Methotrexate</t>
+    <t>Association between methotrexate erythrocyte polyglutamate concentration and clinical response in rheumatoid arthritis patients treated with subcutaneous injectable methotrexate</t>
+  </si>
+  <si>
+    <t>Chronic Effects of Local Vibration on Neuromuscular Reconditioning After Anterior Cruciate Ligament Reconstruction</t>
+  </si>
+  <si>
+    <t>Low-molecular-weight Heparin in Constituted Vascular Intrauterine Growth Restriction. Randomized Multicenter Trial</t>
   </si>
   <si>
     <t>In Vivo Evaluation of Growth and Risk of Rupture of Dilated Ascending Aorta Using 4D Cardiac Magnetic Resonance</t>
   </si>
   <si>
-    <t>Chronic Effects of Local Vibration on Neuromuscular Reconditioning After Anterior Cruciate Ligament Reconstruction</t>
+    <t>Effect of Early Education and Information of Sleep Apnea on the Observance of CPAP Treatment</t>
+  </si>
+  <si>
+    <t>The OPTI-AGED Study : Influence of a Multi-parametric Optimization Strategy for General Anesthesia on Postoperative Morbidity and Mortality in Elderly Patients. A Randomized, Multicentre, Prospective Controlled Study</t>
+  </si>
+  <si>
+    <t>Clinical Trial Assessing the Efficacy of Capsaicin Patch (Qutenza®) in Cancer Patients With Neuropathic Pain</t>
+  </si>
+  <si>
+    <t>Physical Activity Experiment on Male Prostate Cancer Patients : Feasibility Multicenter Study of an Innovative Follow-up by Peers</t>
+  </si>
+  <si>
+    <t>Relevance of an Adapted and Supervised Physical Activity Program in Fibromyalgia Patients. The FIMOUV 1 Study. Interventional, Controlled, Randomized, Open Study of an Original Outpatient Management.</t>
+  </si>
+  <si>
+    <t>Comparison of Alcoholic Chlorhexidine 2% Versus Alcoholic Povidone Iodine for Infections Prevention With Cardiac Resynchronization Therapy Device Implantation</t>
+  </si>
+  <si>
+    <t>Mélisses Garden: Effect of the Mediation by Care-garden on Anxious State in Adult Patients Hospitalized in Psychiatry (Prospective, Monocentric, Controlled, Randomized, Open in Two Parallel Groups Study)</t>
+  </si>
+  <si>
+    <t>Combination Corticosteroids+5-aminosalicylic Acids Compared to Corticosteroids Alone in the Treatment of Moderate-severe Active Ulcerative Colitis: A Protocol of a Multi-center Prospective Randomized Investigator Blinded Trial.</t>
+  </si>
+  <si>
+    <t>EOS® Versus Spiral CT Technique for Achieving a Pelvimetry in Suites of Obstructed Labor: Comparative Single-center Prospective Study - PELVIC-EOS.</t>
   </si>
   <si>
     <t>Comparison of Blood Pressure Control Achieved in Antihypertensive or Generic Drugs in Moderate to Severe Hypertensive Patients</t>
   </si>
   <si>
-    <t>Combination Corticosteroids+5-aminosalicylic Acids Compared to Corticosteroids Alone in the Treatment of Moderate-severe Active Ulcerative Colitis: A Protocol of a Multi-center Prospective Randomized Investigator Blinded Trial.</t>
-  </si>
-  <si>
-    <t>Relevance of an Adapted and Supervised Physical Activity Program in Fibromyalgia Patients. The FIMOUV 1 Study. Interventional, Controlled, Randomized, Open Study of an Original Outpatient Management.</t>
-  </si>
-  <si>
-    <t>Clinical Trial Assessing the Efficacy of Capsaicin Patch (Qutenza®) in Cancer Patients With Neuropathic Pain</t>
+    <t>Comparison of Strategies Based on RT-PCR or Antigenic Test for the Screening of SARS-CoV-2 Infection in General Population Using Self-samples (COVID-19).</t>
+  </si>
+  <si>
+    <t>Effects of Inspiratory Muscles Strengthening Among Coronary Patients on the Sleep Apnea Obstructive Syndrome (SAOS)</t>
+  </si>
+  <si>
+    <t>Pharmacokinetic and Pharmacodynamic Study of Golimumab in Ulcerative Colitis (UC) Patients With Loss of Response (LOR) Followed by Dose Optimization</t>
   </si>
   <si>
     <t>Difference in Central Fatigue During Two Ultra-endurance Practices: Running vs. Cycling</t>
   </si>
   <si>
-    <t>Physical Activity Experiment on Male Prostate Cancer Patients : Feasibility Multicenter Study of an Innovative Follow-up by Peers</t>
-  </si>
-  <si>
-    <t>Comparison of Strategies Based on RT-PCR or Antigenic Test for the Screening of SARS-CoV-2 Infection in General Population Using Self-samples (COVID-19).</t>
-  </si>
-  <si>
-    <t>The OPTI-AGED Study : Influence of a Multi-parametric Optimization Strategy for General Anesthesia on Postoperative Morbidity and Mortality in Elderly Patients. A Randomized, Multicentre, Prospective Controlled Study</t>
-  </si>
-  <si>
-    <t>Comparison of Alcoholic Chlorhexidine 2% Versus Alcoholic Povidone Iodine for Infections Prevention With Cardiac Resynchronization Therapy Device Implantation</t>
-  </si>
-  <si>
-    <t>EOS® Versus Spiral CT Technique for Achieving a Pelvimetry in Suites of Obstructed Labor: Comparative Single-center Prospective Study - PELVIC-EOS.</t>
-  </si>
-  <si>
-    <t>Effect of Early Education and Information of Sleep Apnea on the Observance of CPAP Treatment</t>
-  </si>
-  <si>
-    <t>Pharmacokinetic and Pharmacodynamic Study of Golimumab in Ulcerative Colitis (UC) Patients With Loss of Response (LOR) Followed by Dose Optimization</t>
-  </si>
-  <si>
-    <t>Effects of Inspiratory Muscles Strengthening Among Coronary Patients on the Sleep Apnea Obstructive Syndrome (SAOS)</t>
-  </si>
-  <si>
-    <t>Mélisses Garden: Effect of the Mediation by Care-garden on Anxious State in Adult Patients Hospitalized in Psychiatry (Prospective, Monocentric, Controlled, Randomized, Open in Two Parallel Groups Study)</t>
+    <t>VEDO - PREDIRESPUC project - Value of pharmacokinetic assays (Vedolizumab and anti-vedolizumab antibody) in the prediction of induction and maintenance therapeutic response in Ulcerative Colitis</t>
+  </si>
+  <si>
+    <t>Study of Thromboelastography During Tranexamic Acid Treatment in Preventing Bleeding in Patients With Haematological Malignancies Presenting Severe Thrombocytopenia (TTRAP-bleeding)</t>
+  </si>
+  <si>
+    <t>Evaluation of the Efficacy of Serotoninergic Antidepressants in Bulimia Nervosa, According to Brain Serotonin Profile Determined by Positron Emission Tomography With [18F] MPPF - a Multicenter Study</t>
+  </si>
+  <si>
+    <t>Influence of PARAmedical Interventions on Patient ACTivation in the Cancer Care Pathway</t>
+  </si>
+  <si>
+    <t>Analysis of the Use of the Fetal Movement Counting for Prolonged Pregnancy: Prospective Randomized Study.</t>
+  </si>
+  <si>
+    <t>Evaluation of Physical Capacities Within the Company and Effect of a Personalized Versus Traditional Training Program on the Quality of Life of Sedentary Employees: Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Assessing Force-velocity Profile: an Innovative Approach to Optimize Cardiac Rehabilitation in Coronary Patients</t>
   </si>
   <si>
     <t>Non Inferiority Study of a Reduced Dose of Activated Charcoal on Rivaroxaban Pharmacokinetics.</t>
@@ -1039,137 +1060,116 @@
     <t>Chronic Effects of Wide-pulse Neuromuscular Electrostimulation on Neuromuscular and Functional Properties in Healthy Subjects</t>
   </si>
   <si>
-    <t>Study of Thromboelastography During Tranexamic Acid Treatment in Preventing Bleeding in Patients With Haematological Malignancies Presenting Severe Thrombocytopenia (TTRAP-bleeding)</t>
-  </si>
-  <si>
-    <t>VEDO - PREDIRESPUC project - Value of pharmacokinetic assays (Vedolizumab and anti-vedolizumab antibody) in the prediction of induction and maintenance therapeutic response in Ulcerative Colitis</t>
-  </si>
-  <si>
-    <t>Evaluation of Physical Capacities Within the Company and Effect of a Personalized Versus Traditional Training Program on the Quality of Life of Sedentary Employees: Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Assessing Force-velocity Profile: an Innovative Approach to Optimize Cardiac Rehabilitation in Coronary Patients</t>
-  </si>
-  <si>
-    <t>Evaluation of the Efficacy of Serotoninergic Antidepressants in Bulimia Nervosa, According to Brain Serotonin Profile Determined by Positron Emission Tomography With [18F] MPPF - a Multicenter Study</t>
-  </si>
-  <si>
     <t>Effects of Shoe Longitudinal Bending Stiffness on Changes in Energy Cost of Running During a 21 km Run</t>
   </si>
   <si>
     <t>Benefit of Scarf Support on Skin-to-skin Time and Portage in Neonatology and at Home(PAPSE)</t>
   </si>
   <si>
-    <t>Analysis of the Use of the Fetal Movement Counting for Prolonged Pregnancy: Prospective Randomized Study.</t>
-  </si>
-  <si>
-    <t>Influence of PARAmedical Interventions on Patient ACTivation in the Cancer Care Pathway</t>
-  </si>
-  <si>
-    <t>Sprint Interval Training (SIT) on the Endurance, Strength and Velocity Capacities of Healthy Sedentary Subjects</t>
-  </si>
-  <si>
     <t>Imaging of Corneal and Crystalline by Near Infrared Retro-illumination</t>
   </si>
   <si>
-    <t>Effects of Running Shoe Sole Hardness on Vibration and Neuromuscular Fatigue During a Half-marathon Run on a Treadmill</t>
-  </si>
-  <si>
-    <t>The Effect of Virtual Reality for Pain Management During Intracervical Balloon Placement for Labor Induction: a Randomized Controlled Trial (VIRTUALMAG)</t>
-  </si>
-  <si>
-    <t>Factors Influencing the COVID-19 Vaccine Immune Response (Reactogenicity and Immunogenicity) According to Age and Presence or Not of a Past History of COVID-19</t>
-  </si>
-  <si>
-    <t>Impact of a Focal Muscle Vibration Protocol in Front of the the Anterior Tibial Muscle in the Subacute Post-stroke Period on Motor Recovery in Hemiplegic Patients.</t>
-  </si>
-  <si>
-    <t>Inflammation, Intracellular Invasion and Colonization of the Nasal Mucosa by Staphylococcus Aureus</t>
+    <t>Cracking the Code of Crying Babies: How Familiarity Changes the Interpretation of Cries</t>
+  </si>
+  <si>
+    <t>Effectiveness of Computerized Device New of Visual Motor Simulation Versus Mirror Therapy in Hemiplegic Patients. SI-VIM Study</t>
   </si>
   <si>
     <t>Evaluation of the neonatal autonomic stress during intubations under Propofol in a population of premature infants under 33 w’GA 
  Evaluation autonomique du stress lors de l’intubation en séquence rapide sous Propofol d’une population de prématurés de moins de 33 SA</t>
   </si>
   <si>
-    <t>Cracking the Code of Crying Babies: How Familiarity Changes the Interpretation of Cries</t>
+    <t>Effects of Running Shoe Sole Hardness on Vibration and Neuromuscular Fatigue During a Half-marathon Run on a Treadmill</t>
+  </si>
+  <si>
+    <t>Inflammation, Intracellular Invasion and Colonization of the Nasal Mucosa by Staphylococcus Aureus</t>
+  </si>
+  <si>
+    <t>The Effect of Virtual Reality for Pain Management During Intracervical Balloon Placement for Labor Induction: a Randomized Controlled Trial (VIRTUALMAG)</t>
+  </si>
+  <si>
+    <t>Impact of a Focal Muscle Vibration Protocol in Front of the the Anterior Tibial Muscle in the Subacute Post-stroke Period on Motor Recovery in Hemiplegic Patients.</t>
+  </si>
+  <si>
+    <t>Factors Influencing the COVID-19 Vaccine Immune Response (Reactogenicity and Immunogenicity) According to Age and Presence or Not of a Past History of COVID-19</t>
+  </si>
+  <si>
+    <t>Sprint Interval Training (SIT) on the Endurance, Strength and Velocity Capacities of Healthy Sedentary Subjects</t>
   </si>
   <si>
     <t>PREMAPESSAIRE: Prevention of Preterm Birth in Singletons Using Pessary After Resolutive Threatened Preterm Labor: a Prospective, Randomized Monocentric Clinical Trial</t>
   </si>
   <si>
-    <t>Effectiveness of Computerized Device New of Visual Motor Simulation Versus Mirror Therapy in Hemiplegic Patients. SI-VIM Study</t>
-  </si>
-  <si>
     <t>Development of a Methodology to Analyze Nasal Tissue-resident Memory Immune Cells and Peripheral Memory Cells Able to Migrate to Airway Tissues (MUCOVAC)</t>
   </si>
   <si>
+    <t>Pre-therapeutic Validation of the VR-based Exposure Scenario for CBT "ReVBEB" for the Induction of Food Craving in Patients With Bulimia and Binge Eating Disorder</t>
+  </si>
+  <si>
+    <t>Rotation or Change of Biotherapy After TNF Blocker Treatment Failure for Axial Spondyloarthritis</t>
+  </si>
+  <si>
+    <t>Cardiac Function and Exercise Capacity in Pulmonary Arterial Hypertension</t>
+  </si>
+  <si>
+    <t>Description and Determinants of the Power-speed-endurance Profile (PVE) in Cycling and Rowing to Optimize the Performance of the French Athletes at the Paris Olympics 2024</t>
+  </si>
+  <si>
+    <t>Phase III Trial Evaluating Radium Bromatum Homeopathic Treatment Efficacy on Radiodermatitis Prevention and Treatment for Breast Cancer Women</t>
+  </si>
+  <si>
     <t>Impact of Joint Crisis Plan on the Duration of Isolation Measures in Psychiatry.</t>
   </si>
   <si>
     <t>Improving Postural Control Through Innovative Stimulation of the Proprioceptive System</t>
   </si>
   <si>
-    <t>Phase III Trial Evaluating Radium Bromatum Homeopathic Treatment Efficacy on Radiodermatitis Prevention and Treatment for Breast Cancer Women</t>
-  </si>
-  <si>
-    <t>Description and Determinants of the Power-speed-endurance Profile (PVE) in Cycling and Rowing to Optimize the Performance of the French Athletes at the Paris Olympics 2024</t>
-  </si>
-  <si>
-    <t>Pre-therapeutic Validation of the VR-based Exposure Scenario for CBT "ReVBEB" for the Induction of Food Craving in Patients With Bulimia and Binge Eating Disorder</t>
-  </si>
-  <si>
-    <t>Rotation or Change of Biotherapy After TNF Blocker Treatment Failure for Axial Spondyloarthritis</t>
-  </si>
-  <si>
-    <t>Cardiac Function and Exercise Capacity in Pulmonary Arterial Hypertension</t>
-  </si>
-  <si>
     <t>Performance de l’équation MDRD corrigée par la cimétidine chez le patient transplanté rénal</t>
   </si>
   <si>
+    <t>Comparison of the protective effect of two cardioplegic solutions Custodiol versus St Thomas on the cardiac metabolism assessed by microdialysis in coronary surgery</t>
+  </si>
+  <si>
     <t>Analgésie par bloc continu du plan transverse de l’abdomen en chirurgie d’exérèse hépatique : efficacité et influence sur la réhabilitation précoce.</t>
   </si>
   <si>
     <t>Evaluation by high resolution micro computerized tomography of bone microarchitecture changes in patients with rheumatoid arthritis under anti-TNF therapy.</t>
-  </si>
-  <si>
-    <t>Low-molecular-weight heparin in constituted vascular intrauterine growth restriction. Randomized multicenter trial</t>
-  </si>
-  <si>
-    <t>Comparison of the protective effect of two cardioplegic solutions Custodiol versus St Thomas on the cardiac metabolism assessed by microdialysis in coronary surgery</t>
   </si>
   <si>
     <t>Study of the impact of a targeted decolonization of S. aureus in persistent carriers on the occurrence of S. aureus infections in hemodialysis patients 
  Evaluation de l’impact d’une stratégie de décolonisation ciblée des porteurs persistants de Staphylococcus aureus sur la survenue d’infections à S. aureus en hémodialyse</t>
   </si>
   <si>
+    <t>Factors influencing the COVID-19 vaccine immune response (reactogenicity and immunogenicity) according to age and presence or not of a past history of COVID-19. COVIMMUNAGE study 
+ Etude des facteurs influençant la réponse immunitaire vaccinale COVID-19 (réactogénicité et immunogénicité) en fonction de l’âge et de la présence ou non d’un antécédent de COVID-19. Etude COVIMMUNAGE</t>
+  </si>
+  <si>
+    <t>A survey on the success of inhibitor elimination using individualized concentrate selection and controlled immune tolerance induction</t>
+  </si>
+  <si>
+    <t>Chemoprophylaxis of SARS-CoV-2 infection (COVID-19) in exposed healthcare workers: a randomized double-blind placebo-controlled clinical trial 
+ Essai de chimioprophylaxie de l’infection à SARS-CoV-2 (COVID-19) chez les soignants exposés : essai multicentrique randomisé contrôle versus placebo en double aveugle.</t>
+  </si>
+  <si>
     <t>Pharmacokinetic study of rituximab induction regimen in ANCA-associated vasculitis : a predictive factor of clinical outcome? (MONITUX) - A multicentric study 
  MONITUX : Evaluation de l’intérêt du MONitoring des taux de riTUXimab et de la recherche d’anticorps anti-rituximab comme facteur prédictif de rechute dans les vascularites à ANCA_x000D_ (Etude pilote, multicentrique)</t>
   </si>
   <si>
-    <t>A survey on the success of inhibitor elimination using individualized concentrate selection and controlled immune tolerance induction</t>
-  </si>
-  <si>
     <t>Effet of curarization under general anaesthesia on eye movements in non-strabismus children</t>
   </si>
   <si>
-    <t>Factors influencing the COVID-19 vaccine immune response (reactogenicity and immunogenicity) according to age and presence or not of a past history of COVID-19. COVIMMUNAGE study 
- Etude des facteurs influençant la réponse immunitaire vaccinale COVID-19 (réactogénicité et immunogénicité) en fonction de l’âge et de la présence ou non d’un antécédent de COVID-19. Etude COVIMMUNAGE</t>
-  </si>
-  <si>
-    <t>Chemoprophylaxis of SARS-CoV-2 infection (COVID-19) in exposed healthcare workers: a randomized double-blind placebo-controlled clinical trial 
- Essai de chimioprophylaxie de l’infection à SARS-CoV-2 (COVID-19) chez les soignants exposés : essai multicentrique randomisé contrôle versus placebo en double aveugle.</t>
+    <t>Low-molecular-weight heparin in constituted vascular intrauterine growth restriction. Randomized multicenter trial</t>
   </si>
   <si>
     <t>THIF</t>
   </si>
   <si>
+    <t>PROPICE</t>
+  </si>
+  <si>
     <t>LOBOTENS</t>
   </si>
   <si>
-    <t>PROPICE</t>
-  </si>
-  <si>
     <t>LEVOBU</t>
   </si>
   <si>
@@ -1182,115 +1182,127 @@
     <t>MANOTOUX</t>
   </si>
   <si>
+    <t>VISTAO2</t>
+  </si>
+  <si>
     <t>IMAGINE</t>
   </si>
   <si>
     <t>IMMERSION</t>
   </si>
   <si>
-    <t>VISTAO2</t>
+    <t>DOLANS</t>
+  </si>
+  <si>
+    <t>PREPIC2</t>
+  </si>
+  <si>
+    <t>Cardioplégie</t>
   </si>
   <si>
     <t>PrivSom</t>
   </si>
   <si>
-    <t>Cardioplégie</t>
-  </si>
-  <si>
-    <t>PREPIC2</t>
-  </si>
-  <si>
-    <t>DOLANS</t>
+    <t>PRNC</t>
+  </si>
+  <si>
+    <t>PERIDANS</t>
+  </si>
+  <si>
+    <t>H2OBis</t>
+  </si>
+  <si>
+    <t>HIVOL</t>
   </si>
   <si>
     <t>ScreenStaph</t>
   </si>
   <si>
-    <t>H2OBis</t>
-  </si>
-  <si>
-    <t>HIVOL</t>
-  </si>
-  <si>
     <t>UVFBCL</t>
   </si>
   <si>
-    <t>PRNC</t>
-  </si>
-  <si>
-    <t>PERIDANS</t>
-  </si>
-  <si>
     <t>INSPIRE</t>
   </si>
   <si>
+    <t>PACT</t>
+  </si>
+  <si>
+    <t>ATH-ENTE</t>
+  </si>
+  <si>
+    <t>NIGA-RA</t>
+  </si>
+  <si>
     <t>BABIES_CRY</t>
   </si>
   <si>
-    <t>NIGA-RA</t>
-  </si>
-  <si>
-    <t>PACT</t>
-  </si>
-  <si>
-    <t>ATH-ENTE</t>
+    <t>BIPP</t>
   </si>
   <si>
     <t>FSHD1</t>
   </si>
   <si>
-    <t>BIPP</t>
+    <t>AAPIX</t>
+  </si>
+  <si>
+    <t>VIBROS</t>
+  </si>
+  <si>
+    <t>MODOU</t>
+  </si>
+  <si>
+    <t>BB SUCROSE</t>
+  </si>
+  <si>
+    <t>EVEREST</t>
   </si>
   <si>
     <t>BBSUCROSE</t>
   </si>
   <si>
-    <t>EVEREST</t>
-  </si>
-  <si>
-    <t>MODOU</t>
+    <t>CLICA</t>
   </si>
   <si>
     <t>PREVANS</t>
   </si>
   <si>
-    <t>VIBROS</t>
-  </si>
-  <si>
-    <t>AAPIX</t>
-  </si>
-  <si>
-    <t>CLICA</t>
-  </si>
-  <si>
-    <t>BB SUCROSE</t>
+    <t>FLUOTECH</t>
+  </si>
+  <si>
+    <t>LACME</t>
+  </si>
+  <si>
+    <t>EXDRE</t>
   </si>
   <si>
     <t>R2D2</t>
   </si>
   <si>
+    <t>AMPAMAVIR</t>
+  </si>
+  <si>
     <t>NEUROVIB</t>
   </si>
   <si>
-    <t>AMPAMAVIR</t>
+    <t>ECHO-GAST</t>
+  </si>
+  <si>
+    <t>PORTO</t>
   </si>
   <si>
     <t>RICHAR</t>
   </si>
   <si>
-    <t>ECHO-GAST</t>
-  </si>
-  <si>
-    <t>FLUOTECH</t>
-  </si>
-  <si>
-    <t>EXDRE</t>
-  </si>
-  <si>
-    <t>PORTO</t>
-  </si>
-  <si>
-    <t>LACME</t>
+    <t>ColoStaph</t>
+  </si>
+  <si>
+    <t>AMOS</t>
+  </si>
+  <si>
+    <t>DIRECTE</t>
+  </si>
+  <si>
+    <t>SREENSTAPH2</t>
   </si>
   <si>
     <t>METRO B</t>
@@ -1302,146 +1314,149 @@
     <t>ECHOSCAN</t>
   </si>
   <si>
-    <t>AMOS</t>
-  </si>
-  <si>
-    <t>SREENSTAPH2</t>
-  </si>
-  <si>
-    <t>DIRECTE</t>
-  </si>
-  <si>
     <t>EXESAS</t>
   </si>
   <si>
-    <t>ColoStaph</t>
+    <t>Co-PAP</t>
+  </si>
+  <si>
+    <t>ANSRA</t>
+  </si>
+  <si>
+    <t>FOLLOW_EXESAS</t>
+  </si>
+  <si>
+    <t>GALAXY</t>
+  </si>
+  <si>
+    <t>TAMALOU</t>
+  </si>
+  <si>
+    <t>HIVOL2</t>
+  </si>
+  <si>
+    <t>CaspoKin</t>
   </si>
   <si>
     <t>PREVATHLE</t>
   </si>
   <si>
-    <t>Co-PAP</t>
-  </si>
-  <si>
-    <t>TAMALOU</t>
-  </si>
-  <si>
-    <t>HIVOL2</t>
-  </si>
-  <si>
-    <t>GALAXY</t>
-  </si>
-  <si>
-    <t>CaspoKin</t>
-  </si>
-  <si>
-    <t>FOLLOW_EXESAS</t>
-  </si>
-  <si>
-    <t>ANSRA</t>
-  </si>
-  <si>
     <t>BEONE</t>
   </si>
   <si>
+    <t>QUADRIVEND</t>
+  </si>
+  <si>
+    <t>FES Cycling</t>
+  </si>
+  <si>
+    <t>OptiPAC</t>
+  </si>
+  <si>
+    <t>UTMB_2019</t>
+  </si>
+  <si>
+    <t>POIR</t>
+  </si>
+  <si>
     <t>GRASP</t>
   </si>
   <si>
     <t>EBLOUI</t>
   </si>
   <si>
-    <t>UTMB_2019</t>
-  </si>
-  <si>
-    <t>QUADRIVEND</t>
-  </si>
-  <si>
-    <t>POIR</t>
-  </si>
-  <si>
-    <t>FES Cycling</t>
-  </si>
-  <si>
     <t>IDEXACOR</t>
   </si>
   <si>
-    <t>OptiPAC</t>
+    <t>SPPLAASH</t>
+  </si>
+  <si>
+    <t>LACRYMOSA</t>
+  </si>
+  <si>
+    <t>PIRAT</t>
+  </si>
+  <si>
+    <t>POLYGLU</t>
+  </si>
+  <si>
+    <t>ANTISTAPH</t>
+  </si>
+  <si>
+    <t>AMEBICA</t>
   </si>
   <si>
     <t>INNOV-EYE</t>
-  </si>
-  <si>
-    <t>PIRAT</t>
-  </si>
-  <si>
-    <t>AMEBICA</t>
-  </si>
-  <si>
-    <t>POLYGLU</t>
-  </si>
-  <si>
-    <t>GROWTH</t>
-  </si>
-  <si>
-    <t>LACRYMOSA</t>
   </si>
   <si>
     <t>STAdécol 
  STAdécol</t>
   </si>
   <si>
-    <t>SPPLAASH</t>
-  </si>
-  <si>
-    <t>ANTISTAPH</t>
-  </si>
-  <si>
     <t>VIB_LCA</t>
   </si>
   <si>
+    <t>GROWTH</t>
+  </si>
+  <si>
+    <t>CoachSAS</t>
+  </si>
+  <si>
+    <t>OPTI-AGED</t>
+  </si>
+  <si>
+    <t>CAPSONCO</t>
+  </si>
+  <si>
+    <t>OCTAV</t>
+  </si>
+  <si>
+    <t>ACTI_PAIR</t>
+  </si>
+  <si>
+    <t>FIMOUV 1</t>
+  </si>
+  <si>
+    <t>CHLOVIS</t>
+  </si>
+  <si>
+    <t>JDM</t>
+  </si>
+  <si>
+    <t>COMBOMESA</t>
+  </si>
+  <si>
+    <t>PELVI-EOS</t>
+  </si>
+  <si>
     <t>PRINGEN</t>
   </si>
   <si>
-    <t>COMBOMESA</t>
-  </si>
-  <si>
-    <t>OCTAV</t>
-  </si>
-  <si>
-    <t>FIMOUV 1</t>
-  </si>
-  <si>
-    <t>CAPSONCO</t>
+    <t>AutoCoV</t>
+  </si>
+  <si>
+    <t>RICAOS</t>
+  </si>
+  <si>
+    <t>GOLILOR</t>
   </si>
   <si>
     <t>FAT-CENTR</t>
   </si>
   <si>
-    <t>ACTI_PAIR</t>
-  </si>
-  <si>
-    <t>AutoCoV</t>
-  </si>
-  <si>
-    <t>OPTI-AGED</t>
-  </si>
-  <si>
-    <t>CHLOVIS</t>
-  </si>
-  <si>
-    <t>PELVI-EOS</t>
-  </si>
-  <si>
-    <t>CoachSAS</t>
-  </si>
-  <si>
-    <t>GOLILOR</t>
-  </si>
-  <si>
-    <t>RICAOS</t>
-  </si>
-  <si>
-    <t>JDM</t>
+    <t>TTRAP-Bleeding</t>
+  </si>
+  <si>
+    <t>PARACT</t>
+  </si>
+  <si>
+    <t>COMPTAMAF</t>
+  </si>
+  <si>
+    <t>MOVING_LAB</t>
+  </si>
+  <si>
+    <t>CITIUS</t>
   </si>
   <si>
     <t>RICHAR2</t>
@@ -1450,108 +1465,93 @@
     <t>ELECTRO-WP</t>
   </si>
   <si>
-    <t>TTRAP-Bleeding</t>
-  </si>
-  <si>
-    <t>MOVING_LAB</t>
-  </si>
-  <si>
-    <t>CITIUS</t>
-  </si>
-  <si>
     <t>FAT-FLEX</t>
   </si>
   <si>
     <t>PAPSE</t>
   </si>
   <si>
-    <t>COMPTAMAF</t>
-  </si>
-  <si>
-    <t>PARACT</t>
-  </si>
-  <si>
-    <t>BénéfiSIT</t>
-  </si>
-  <si>
     <t>RETRO-ILLUMI</t>
   </si>
   <si>
-    <t>FAT-VIB</t>
-  </si>
-  <si>
-    <t>VIRTUALMAG</t>
-  </si>
-  <si>
-    <t>COVIMMUNAGE</t>
-  </si>
-  <si>
-    <t>VIBRATAC</t>
-  </si>
-  <si>
-    <t>I3COSa</t>
+    <t>BEBEDOL</t>
+  </si>
+  <si>
+    <t>SI-VIM</t>
   </si>
   <si>
     <t>PROPOSURF 
  PROPOSURF</t>
   </si>
   <si>
-    <t>BEBEDOL</t>
+    <t>FAT-VIB</t>
+  </si>
+  <si>
+    <t>I3COSa</t>
+  </si>
+  <si>
+    <t>VIRTUALMAG</t>
+  </si>
+  <si>
+    <t>VIBRATAC</t>
+  </si>
+  <si>
+    <t>COVIMMUNAGE</t>
+  </si>
+  <si>
+    <t>BénéfiSIT</t>
   </si>
   <si>
     <t>PREMAPESSAIRE</t>
   </si>
   <si>
-    <t>SI-VIM</t>
-  </si>
-  <si>
     <t>MUCOVAC</t>
   </si>
   <si>
+    <t>RevBED</t>
+  </si>
+  <si>
+    <t>ROC-SPA</t>
+  </si>
+  <si>
+    <t>FONCE-HTAP</t>
+  </si>
+  <si>
+    <t>THPCA2024</t>
+  </si>
+  <si>
+    <t>HOMEORAD</t>
+  </si>
+  <si>
     <t>PLANCO-ISO</t>
   </si>
   <si>
     <t>IMPULSES</t>
   </si>
   <si>
-    <t>HOMEORAD</t>
-  </si>
-  <si>
-    <t>THPCA2024</t>
-  </si>
-  <si>
-    <t>RevBED</t>
-  </si>
-  <si>
-    <t>ROC-SPA</t>
-  </si>
-  <si>
-    <t>FONCE-HTAP</t>
+    <t>CIBERSTAPH 
+ CIBERSTAPH</t>
+  </si>
+  <si>
+    <t>COVIMMUNAGE 
+ COVIMMUNAGE</t>
+  </si>
+  <si>
+    <t>OBSITI</t>
+  </si>
+  <si>
+    <t>COVIDAXIS 
+ COVIDAXIS</t>
+  </si>
+  <si>
+    <t>MONITUX</t>
+  </si>
+  <si>
+    <t>STRABO</t>
   </si>
   <si>
     <t>GROWTH 
  GROWTH</t>
-  </si>
-  <si>
-    <t>CIBERSTAPH 
- CIBERSTAPH</t>
-  </si>
-  <si>
-    <t>MONITUX</t>
-  </si>
-  <si>
-    <t>OBSITI</t>
-  </si>
-  <si>
-    <t>STRABO</t>
-  </si>
-  <si>
-    <t>COVIMMUNAGE 
- COVIMMUNAGE</t>
-  </si>
-  <si>
-    <t>COVIDAXIS 
- COVIDAXIS</t>
   </si>
   <si>
     <t>PROCEDURE</t>
@@ -2048,7 +2048,7 @@
         <v>211</v>
       </c>
       <c r="I5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2073,10 +2073,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -2091,15 +2091,15 @@
         <v>380</v>
       </c>
       <c r="I7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -2110,16 +2110,19 @@
       <c r="G8" t="s">
         <v>214</v>
       </c>
+      <c r="H8" t="s">
+        <v>381</v>
+      </c>
       <c r="I8" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -2130,11 +2133,8 @@
       <c r="G9" t="s">
         <v>215</v>
       </c>
-      <c r="H9" t="s">
-        <v>381</v>
-      </c>
       <c r="I9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2179,10 +2179,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -2194,7 +2194,7 @@
         <v>218</v>
       </c>
       <c r="H12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I12" t="s">
         <v>509</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -2217,7 +2217,7 @@
         <v>219</v>
       </c>
       <c r="H13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I13" t="s">
         <v>509</v>
@@ -2286,7 +2286,7 @@
         <v>222</v>
       </c>
       <c r="I16" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2306,15 +2306,15 @@
         <v>223</v>
       </c>
       <c r="I17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -2329,7 +2329,7 @@
         <v>386</v>
       </c>
       <c r="I18" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2352,15 +2352,15 @@
         <v>387</v>
       </c>
       <c r="I19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
@@ -2375,7 +2375,7 @@
         <v>388</v>
       </c>
       <c r="I20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2398,7 +2398,7 @@
         <v>389</v>
       </c>
       <c r="I21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2418,15 +2418,15 @@
         <v>228</v>
       </c>
       <c r="I22" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -2441,7 +2441,7 @@
         <v>390</v>
       </c>
       <c r="I23" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2460,16 +2460,19 @@
       <c r="G24" t="s">
         <v>230</v>
       </c>
+      <c r="H24" t="s">
+        <v>391</v>
+      </c>
       <c r="I24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -2480,9 +2483,6 @@
       <c r="G25" t="s">
         <v>231</v>
       </c>
-      <c r="H25" t="s">
-        <v>391</v>
-      </c>
       <c r="I25" t="s">
         <v>511</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>392</v>
       </c>
       <c r="I26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2530,7 +2530,7 @@
         <v>393</v>
       </c>
       <c r="I27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2549,11 +2549,8 @@
       <c r="G28" t="s">
         <v>234</v>
       </c>
-      <c r="H28" t="s">
-        <v>394</v>
-      </c>
       <c r="I28" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2572,8 +2569,11 @@
       <c r="G29" t="s">
         <v>235</v>
       </c>
+      <c r="H29" t="s">
+        <v>394</v>
+      </c>
       <c r="I29" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2596,7 +2596,7 @@
         <v>395</v>
       </c>
       <c r="I30" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2619,7 +2619,7 @@
         <v>396</v>
       </c>
       <c r="I31" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2642,7 +2642,7 @@
         <v>397</v>
       </c>
       <c r="I32" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2665,7 +2665,7 @@
         <v>398</v>
       </c>
       <c r="I33" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2705,7 +2705,7 @@
         <v>241</v>
       </c>
       <c r="I35" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2751,7 +2751,7 @@
         <v>400</v>
       </c>
       <c r="I37" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2770,11 +2770,8 @@
       <c r="G38" t="s">
         <v>244</v>
       </c>
-      <c r="H38" t="s">
-        <v>401</v>
-      </c>
       <c r="I38" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2813,6 +2810,9 @@
       <c r="G40" t="s">
         <v>246</v>
       </c>
+      <c r="H40" t="s">
+        <v>401</v>
+      </c>
       <c r="I40" t="s">
         <v>508</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>402</v>
       </c>
       <c r="I41" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2856,8 +2856,11 @@
       <c r="G42" t="s">
         <v>248</v>
       </c>
+      <c r="H42" t="s">
+        <v>403</v>
+      </c>
       <c r="I42" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2876,9 +2879,6 @@
       <c r="G43" t="s">
         <v>249</v>
       </c>
-      <c r="H43" t="s">
-        <v>403</v>
-      </c>
       <c r="I43" t="s">
         <v>508</v>
       </c>
@@ -2899,16 +2899,19 @@
       <c r="G44" t="s">
         <v>250</v>
       </c>
+      <c r="H44" t="s">
+        <v>404</v>
+      </c>
       <c r="I44" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
         <v>59</v>
@@ -2919,11 +2922,8 @@
       <c r="G45" t="s">
         <v>251</v>
       </c>
-      <c r="H45" t="s">
-        <v>404</v>
-      </c>
       <c r="I45" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2946,7 +2946,7 @@
         <v>405</v>
       </c>
       <c r="I46" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2956,8 +2956,8 @@
       <c r="B47" t="s">
         <v>13</v>
       </c>
-      <c r="C47" t="s">
-        <v>61</v>
+      <c r="D47" t="s">
+        <v>171</v>
       </c>
       <c r="F47" t="s">
         <v>198</v>
@@ -2968,9 +2968,6 @@
       <c r="H47" t="s">
         <v>406</v>
       </c>
-      <c r="I47" t="s">
-        <v>509</v>
-      </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
@@ -2980,7 +2977,7 @@
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F48" t="s">
         <v>198</v>
@@ -2988,11 +2985,8 @@
       <c r="G48" t="s">
         <v>254</v>
       </c>
-      <c r="H48" t="s">
-        <v>407</v>
-      </c>
       <c r="I48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3003,7 +2997,7 @@
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F49" t="s">
         <v>198</v>
@@ -3012,7 +3006,7 @@
         <v>255</v>
       </c>
       <c r="H49" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I49" t="s">
         <v>511</v>
@@ -3020,13 +3014,13 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F50" t="s">
         <v>198</v>
@@ -3035,10 +3029,10 @@
         <v>256</v>
       </c>
       <c r="H50" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I50" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3048,8 +3042,8 @@
       <c r="B51" t="s">
         <v>13</v>
       </c>
-      <c r="C51" t="s">
-        <v>65</v>
+      <c r="D51" t="s">
+        <v>172</v>
       </c>
       <c r="F51" t="s">
         <v>198</v>
@@ -3058,10 +3052,7 @@
         <v>257</v>
       </c>
       <c r="H51" t="s">
-        <v>410</v>
-      </c>
-      <c r="I51" t="s">
-        <v>511</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3071,8 +3062,8 @@
       <c r="B52" t="s">
         <v>13</v>
       </c>
-      <c r="D52" t="s">
-        <v>171</v>
+      <c r="C52" t="s">
+        <v>64</v>
       </c>
       <c r="F52" t="s">
         <v>198</v>
@@ -3080,8 +3071,8 @@
       <c r="G52" t="s">
         <v>258</v>
       </c>
-      <c r="H52" t="s">
-        <v>411</v>
+      <c r="I52" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3092,7 +3083,7 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F53" t="s">
         <v>198</v>
@@ -3101,10 +3092,10 @@
         <v>259</v>
       </c>
       <c r="H53" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I53" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3114,8 +3105,8 @@
       <c r="B54" t="s">
         <v>13</v>
       </c>
-      <c r="D54" t="s">
-        <v>172</v>
+      <c r="C54" t="s">
+        <v>66</v>
       </c>
       <c r="F54" t="s">
         <v>198</v>
@@ -3124,7 +3115,10 @@
         <v>260</v>
       </c>
       <c r="H54" t="s">
-        <v>413</v>
+        <v>411</v>
+      </c>
+      <c r="I54" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3143,16 +3137,19 @@
       <c r="G55" t="s">
         <v>261</v>
       </c>
+      <c r="H55" t="s">
+        <v>412</v>
+      </c>
       <c r="I55" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -3163,8 +3160,11 @@
       <c r="G56" t="s">
         <v>262</v>
       </c>
+      <c r="H56" t="s">
+        <v>413</v>
+      </c>
       <c r="I56" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3187,7 +3187,7 @@
         <v>414</v>
       </c>
       <c r="I57" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3207,15 +3207,15 @@
         <v>264</v>
       </c>
       <c r="I58" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
@@ -3227,7 +3227,7 @@
         <v>265</v>
       </c>
       <c r="I59" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3250,15 +3250,15 @@
         <v>415</v>
       </c>
       <c r="I60" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
@@ -3278,10 +3278,10 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
@@ -3296,7 +3296,7 @@
         <v>417</v>
       </c>
       <c r="I62" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3319,15 +3319,15 @@
         <v>418</v>
       </c>
       <c r="I63" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
@@ -3338,19 +3338,16 @@
       <c r="G64" t="s">
         <v>270</v>
       </c>
-      <c r="H64" t="s">
-        <v>419</v>
-      </c>
       <c r="I64" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
@@ -3362,18 +3359,18 @@
         <v>271</v>
       </c>
       <c r="H65" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I65" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
@@ -3384,43 +3381,49 @@
       <c r="G66" t="s">
         <v>272</v>
       </c>
+      <c r="H66" t="s">
+        <v>420</v>
+      </c>
       <c r="I66" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
+      <c r="D67" t="s">
+        <v>173</v>
+      </c>
       <c r="F67" t="s">
         <v>199</v>
       </c>
       <c r="G67" t="s">
         <v>273</v>
       </c>
+      <c r="H67" t="s">
+        <v>421</v>
+      </c>
       <c r="I67" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
-      <c r="D68" t="s">
-        <v>173</v>
-      </c>
       <c r="F68" t="s">
         <v>199</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>274</v>
       </c>
       <c r="H68" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I68" t="s">
         <v>509</v>
@@ -3450,11 +3453,8 @@
       <c r="G69" t="s">
         <v>275</v>
       </c>
-      <c r="H69" t="s">
-        <v>422</v>
-      </c>
       <c r="I69" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3497,7 +3497,7 @@
         <v>423</v>
       </c>
       <c r="I71" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3516,16 +3516,19 @@
       <c r="G72" t="s">
         <v>278</v>
       </c>
+      <c r="H72" t="s">
+        <v>424</v>
+      </c>
       <c r="I72" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
@@ -3537,7 +3540,7 @@
         <v>279</v>
       </c>
       <c r="H73" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I73" t="s">
         <v>511</v>
@@ -3559,11 +3562,8 @@
       <c r="G74" t="s">
         <v>280</v>
       </c>
-      <c r="H74" t="s">
-        <v>425</v>
-      </c>
       <c r="I74" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3586,7 +3586,7 @@
         <v>426</v>
       </c>
       <c r="I75" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3605,8 +3605,11 @@
       <c r="G76" t="s">
         <v>282</v>
       </c>
+      <c r="H76" t="s">
+        <v>427</v>
+      </c>
       <c r="I76" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3625,19 +3628,16 @@
       <c r="G77" t="s">
         <v>283</v>
       </c>
-      <c r="H77" t="s">
-        <v>427</v>
-      </c>
       <c r="I77" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
         <v>90</v>
@@ -3648,6 +3648,9 @@
       <c r="G78" t="s">
         <v>284</v>
       </c>
+      <c r="H78" t="s">
+        <v>428</v>
+      </c>
       <c r="I78" t="s">
         <v>511</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>285</v>
       </c>
       <c r="H79" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I79" t="s">
         <v>511</v>
@@ -3677,10 +3680,10 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
         <v>92</v>
@@ -3691,19 +3694,16 @@
       <c r="G80" t="s">
         <v>286</v>
       </c>
-      <c r="H80" t="s">
-        <v>429</v>
-      </c>
       <c r="I80" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
         <v>93</v>
@@ -3723,10 +3723,10 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
         <v>94</v>
@@ -3737,9 +3737,6 @@
       <c r="G82" t="s">
         <v>288</v>
       </c>
-      <c r="H82" t="s">
-        <v>431</v>
-      </c>
       <c r="I82" t="s">
         <v>510</v>
       </c>
@@ -3761,7 +3758,7 @@
         <v>289</v>
       </c>
       <c r="I83" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3781,7 +3778,7 @@
         <v>290</v>
       </c>
       <c r="H84" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I84" t="s">
         <v>511</v>
@@ -3789,10 +3786,10 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
         <v>97</v>
@@ -3823,11 +3820,8 @@
       <c r="G86" t="s">
         <v>292</v>
       </c>
-      <c r="H86" t="s">
-        <v>433</v>
-      </c>
       <c r="I86" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3847,18 +3841,18 @@
         <v>293</v>
       </c>
       <c r="H87" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I87" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
         <v>100</v>
@@ -3869,11 +3863,8 @@
       <c r="G88" t="s">
         <v>294</v>
       </c>
-      <c r="H88" t="s">
-        <v>435</v>
-      </c>
       <c r="I88" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3892,11 +3883,8 @@
       <c r="G89" t="s">
         <v>295</v>
       </c>
-      <c r="H89" t="s">
-        <v>436</v>
-      </c>
       <c r="I89" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3916,7 +3904,7 @@
         <v>296</v>
       </c>
       <c r="H90" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I90" t="s">
         <v>510</v>
@@ -3939,7 +3927,7 @@
         <v>297</v>
       </c>
       <c r="H91" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I91" t="s">
         <v>511</v>
@@ -3961,8 +3949,11 @@
       <c r="G92" t="s">
         <v>298</v>
       </c>
+      <c r="H92" t="s">
+        <v>435</v>
+      </c>
       <c r="I92" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3981,8 +3972,11 @@
       <c r="G93" t="s">
         <v>299</v>
       </c>
+      <c r="H93" t="s">
+        <v>436</v>
+      </c>
       <c r="I93" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4001,16 +3995,19 @@
       <c r="G94" t="s">
         <v>300</v>
       </c>
+      <c r="H94" t="s">
+        <v>437</v>
+      </c>
       <c r="I94" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
         <v>107</v>
@@ -4021,8 +4018,11 @@
       <c r="G95" t="s">
         <v>301</v>
       </c>
+      <c r="H95" t="s">
+        <v>438</v>
+      </c>
       <c r="I95" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4068,15 +4068,15 @@
         <v>440</v>
       </c>
       <c r="I97" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
         <v>110</v>
@@ -4096,10 +4096,10 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C99" t="s">
         <v>111</v>
@@ -4114,15 +4114,15 @@
         <v>442</v>
       </c>
       <c r="I99" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s">
         <v>112</v>
@@ -4137,7 +4137,7 @@
         <v>443</v>
       </c>
       <c r="I100" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4183,7 +4183,7 @@
         <v>445</v>
       </c>
       <c r="I102" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4206,15 +4206,15 @@
         <v>446</v>
       </c>
       <c r="I103" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C104" t="s">
         <v>116</v>
@@ -4229,7 +4229,7 @@
         <v>447</v>
       </c>
       <c r="I104" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4252,7 +4252,7 @@
         <v>448</v>
       </c>
       <c r="I105" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4262,8 +4262,8 @@
       <c r="B106" t="s">
         <v>13</v>
       </c>
-      <c r="D106" t="s">
-        <v>174</v>
+      <c r="C106" t="s">
+        <v>118</v>
       </c>
       <c r="F106" t="s">
         <v>203</v>
@@ -4274,6 +4274,9 @@
       <c r="H106" t="s">
         <v>449</v>
       </c>
+      <c r="I106" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
@@ -4282,8 +4285,8 @@
       <c r="B107" t="s">
         <v>13</v>
       </c>
-      <c r="C107" t="s">
-        <v>118</v>
+      <c r="D107" t="s">
+        <v>174</v>
       </c>
       <c r="F107" t="s">
         <v>203</v>
@@ -4291,16 +4294,16 @@
       <c r="G107" t="s">
         <v>313</v>
       </c>
-      <c r="I107" t="s">
-        <v>510</v>
+      <c r="H107" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
         <v>119</v>
@@ -4312,10 +4315,10 @@
         <v>314</v>
       </c>
       <c r="H108" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I108" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4325,8 +4328,8 @@
       <c r="B109" t="s">
         <v>13</v>
       </c>
-      <c r="D109" t="s">
-        <v>175</v>
+      <c r="C109" t="s">
+        <v>120</v>
       </c>
       <c r="F109" t="s">
         <v>203</v>
@@ -4335,18 +4338,21 @@
         <v>315</v>
       </c>
       <c r="H109" t="s">
-        <v>451</v>
+        <v>452</v>
+      </c>
+      <c r="I109" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F110" t="s">
         <v>203</v>
@@ -4355,7 +4361,7 @@
         <v>316</v>
       </c>
       <c r="H110" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I110" t="s">
         <v>509</v>
@@ -4369,7 +4375,7 @@
         <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F111" t="s">
         <v>203</v>
@@ -4378,10 +4384,10 @@
         <v>317</v>
       </c>
       <c r="H111" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I111" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4391,8 +4397,8 @@
       <c r="B112" t="s">
         <v>13</v>
       </c>
-      <c r="D112" t="s">
-        <v>176</v>
+      <c r="C112" t="s">
+        <v>123</v>
       </c>
       <c r="F112" t="s">
         <v>203</v>
@@ -4400,8 +4406,8 @@
       <c r="G112" t="s">
         <v>318</v>
       </c>
-      <c r="H112" t="s">
-        <v>454</v>
+      <c r="I112" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4411,8 +4417,8 @@
       <c r="B113" t="s">
         <v>13</v>
       </c>
-      <c r="C113" t="s">
-        <v>122</v>
+      <c r="D113" t="s">
+        <v>175</v>
       </c>
       <c r="F113" t="s">
         <v>203</v>
@@ -4423,9 +4429,6 @@
       <c r="H113" t="s">
         <v>455</v>
       </c>
-      <c r="I113" t="s">
-        <v>511</v>
-      </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
@@ -4434,8 +4437,8 @@
       <c r="B114" t="s">
         <v>13</v>
       </c>
-      <c r="C114" t="s">
-        <v>123</v>
+      <c r="D114" t="s">
+        <v>176</v>
       </c>
       <c r="F114" t="s">
         <v>203</v>
@@ -4444,18 +4447,15 @@
         <v>320</v>
       </c>
       <c r="H114" t="s">
-        <v>456</v>
-      </c>
-      <c r="I114" t="s">
-        <v>513</v>
+        <v>451</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C115" t="s">
         <v>124</v>
@@ -4467,10 +4467,10 @@
         <v>321</v>
       </c>
       <c r="H115" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="I115" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4489,16 +4489,19 @@
       <c r="G116" t="s">
         <v>322</v>
       </c>
+      <c r="H116" t="s">
+        <v>457</v>
+      </c>
       <c r="I116" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
         <v>126</v>
@@ -4509,9 +4512,6 @@
       <c r="G117" t="s">
         <v>323</v>
       </c>
-      <c r="H117" t="s">
-        <v>457</v>
-      </c>
       <c r="I117" t="s">
         <v>511</v>
       </c>
@@ -4536,15 +4536,15 @@
         <v>458</v>
       </c>
       <c r="I118" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
         <v>128</v>
@@ -4559,7 +4559,7 @@
         <v>459</v>
       </c>
       <c r="I119" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4576,13 +4576,13 @@
         <v>204</v>
       </c>
       <c r="G120" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="H120" t="s">
         <v>460</v>
       </c>
       <c r="I120" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4599,13 +4599,13 @@
         <v>204</v>
       </c>
       <c r="G121" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="H121" t="s">
         <v>461</v>
       </c>
       <c r="I121" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4628,7 +4628,7 @@
         <v>462</v>
       </c>
       <c r="I122" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4674,15 +4674,15 @@
         <v>464</v>
       </c>
       <c r="I124" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
         <v>134</v>
@@ -4697,15 +4697,15 @@
         <v>465</v>
       </c>
       <c r="I125" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
         <v>135</v>
@@ -4720,7 +4720,7 @@
         <v>466</v>
       </c>
       <c r="I126" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4743,7 +4743,7 @@
         <v>467</v>
       </c>
       <c r="I127" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4766,15 +4766,15 @@
         <v>468</v>
       </c>
       <c r="I128" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
         <v>138</v>
@@ -4789,7 +4789,7 @@
         <v>469</v>
       </c>
       <c r="I129" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4812,7 +4812,7 @@
         <v>470</v>
       </c>
       <c r="I130" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4835,7 +4835,7 @@
         <v>471</v>
       </c>
       <c r="I131" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4858,7 +4858,7 @@
         <v>472</v>
       </c>
       <c r="I132" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4868,8 +4868,8 @@
       <c r="B133" t="s">
         <v>13</v>
       </c>
-      <c r="C133" t="s">
-        <v>142</v>
+      <c r="D133" t="s">
+        <v>177</v>
       </c>
       <c r="F133" t="s">
         <v>205</v>
@@ -4877,12 +4877,6 @@
       <c r="G133" t="s">
         <v>338</v>
       </c>
-      <c r="H133" t="s">
-        <v>473</v>
-      </c>
-      <c r="I133" t="s">
-        <v>509</v>
-      </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
@@ -4892,7 +4886,7 @@
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F134" t="s">
         <v>205</v>
@@ -4901,10 +4895,10 @@
         <v>339</v>
       </c>
       <c r="H134" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I134" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4915,7 +4909,7 @@
         <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F135" t="s">
         <v>205</v>
@@ -4923,22 +4917,19 @@
       <c r="G135" t="s">
         <v>340</v>
       </c>
-      <c r="H135" t="s">
-        <v>475</v>
-      </c>
       <c r="I135" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136" t="s">
-        <v>177</v>
+        <v>16</v>
+      </c>
+      <c r="C136" t="s">
+        <v>144</v>
       </c>
       <c r="F136" t="s">
         <v>205</v>
@@ -4946,6 +4937,12 @@
       <c r="G136" t="s">
         <v>341</v>
       </c>
+      <c r="H136" t="s">
+        <v>474</v>
+      </c>
+      <c r="I136" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
@@ -4964,10 +4961,10 @@
         <v>342</v>
       </c>
       <c r="H137" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I137" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4987,10 +4984,10 @@
         <v>343</v>
       </c>
       <c r="H138" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I138" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5009,8 +5006,11 @@
       <c r="G139" t="s">
         <v>344</v>
       </c>
+      <c r="H139" t="s">
+        <v>477</v>
+      </c>
       <c r="I139" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5033,7 +5033,7 @@
         <v>478</v>
       </c>
       <c r="I140" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5056,7 +5056,7 @@
         <v>479</v>
       </c>
       <c r="I141" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5079,15 +5079,15 @@
         <v>480</v>
       </c>
       <c r="I142" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
         <v>151</v>
@@ -5102,7 +5102,7 @@
         <v>481</v>
       </c>
       <c r="I143" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5125,7 +5125,7 @@
         <v>482</v>
       </c>
       <c r="I144" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5148,7 +5148,7 @@
         <v>483</v>
       </c>
       <c r="I145" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5171,7 +5171,7 @@
         <v>484</v>
       </c>
       <c r="I146" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5181,8 +5181,8 @@
       <c r="B147" t="s">
         <v>13</v>
       </c>
-      <c r="C147" t="s">
-        <v>155</v>
+      <c r="D147" t="s">
+        <v>178</v>
       </c>
       <c r="F147" t="s">
         <v>206</v>
@@ -5193,9 +5193,6 @@
       <c r="H147" t="s">
         <v>485</v>
       </c>
-      <c r="I147" t="s">
-        <v>511</v>
-      </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
@@ -5205,7 +5202,7 @@
         <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F148" t="s">
         <v>206</v>
@@ -5217,7 +5214,7 @@
         <v>486</v>
       </c>
       <c r="I148" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5228,7 +5225,7 @@
         <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F149" t="s">
         <v>206</v>
@@ -5240,7 +5237,7 @@
         <v>487</v>
       </c>
       <c r="I149" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5251,7 +5248,7 @@
         <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F150" t="s">
         <v>206</v>
@@ -5263,7 +5260,7 @@
         <v>488</v>
       </c>
       <c r="I150" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5273,8 +5270,8 @@
       <c r="B151" t="s">
         <v>13</v>
       </c>
-      <c r="D151" t="s">
-        <v>178</v>
+      <c r="C151" t="s">
+        <v>158</v>
       </c>
       <c r="F151" t="s">
         <v>206</v>
@@ -5285,6 +5282,9 @@
       <c r="H151" t="s">
         <v>489</v>
       </c>
+      <c r="I151" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
@@ -5306,7 +5306,7 @@
         <v>490</v>
       </c>
       <c r="I152" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5329,7 +5329,7 @@
         <v>491</v>
       </c>
       <c r="I153" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5398,7 +5398,7 @@
         <v>494</v>
       </c>
       <c r="I156" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5421,7 +5421,7 @@
         <v>495</v>
       </c>
       <c r="I157" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5444,7 +5444,7 @@
         <v>496</v>
       </c>
       <c r="I158" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5490,7 +5490,7 @@
         <v>498</v>
       </c>
       <c r="I160" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5513,7 +5513,7 @@
         <v>499</v>
       </c>
       <c r="I161" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5536,7 +5536,7 @@
         <v>500</v>
       </c>
       <c r="I162" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5594,9 +5594,6 @@
       <c r="G166" t="s">
         <v>371</v>
       </c>
-      <c r="H166" t="s">
-        <v>501</v>
-      </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
@@ -5610,6 +5607,9 @@
       </c>
       <c r="G167" t="s">
         <v>372</v>
+      </c>
+      <c r="H167" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="168" spans="1:9">

--- a/publipostage2/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
+++ b/publipostage2/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="508">
   <si>
     <t>statut</t>
   </si>
@@ -55,25 +55,37 @@
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00770393</t>
   </si>
   <si>
+    <t>NCT00327106</t>
+  </si>
+  <si>
     <t>NCT00428779</t>
   </si>
   <si>
-    <t>NCT00327106</t>
+    <t>NCT00452010</t>
+  </si>
+  <si>
+    <t>NCT00555438</t>
+  </si>
+  <si>
+    <t>NCT00522561</t>
+  </si>
+  <si>
+    <t>NCT00451776</t>
   </si>
   <si>
     <t>NCT00475059</t>
@@ -82,34 +94,25 @@
     <t>NCT00542906</t>
   </si>
   <si>
-    <t>NCT00555438</t>
-  </si>
-  <si>
-    <t>NCT00452010</t>
-  </si>
-  <si>
-    <t>NCT00522561</t>
-  </si>
-  <si>
-    <t>NCT00451776</t>
+    <t>NCT00904527</t>
+  </si>
+  <si>
+    <t>NCT00732290</t>
   </si>
   <si>
     <t>NCT00621907</t>
   </si>
   <si>
-    <t>NCT00732290</t>
-  </si>
-  <si>
-    <t>NCT00904527</t>
+    <t>NCT00941824</t>
+  </si>
+  <si>
+    <t>NCT00521508</t>
   </si>
   <si>
     <t>NCT00916526</t>
   </si>
   <si>
-    <t>NCT00941824</t>
-  </si>
-  <si>
-    <t>NCT00521508</t>
+    <t>NCT00515645</t>
   </si>
   <si>
     <t>NCT01135303</t>
@@ -118,298 +121,319 @@
     <t>NCT01385683</t>
   </si>
   <si>
-    <t>NCT00515645</t>
+    <t>NCT01401140</t>
+  </si>
+  <si>
+    <t>NCT00457158</t>
+  </si>
+  <si>
+    <t>NCT01606020</t>
+  </si>
+  <si>
+    <t>NCT02527902</t>
+  </si>
+  <si>
+    <t>NCT02538445</t>
   </si>
   <si>
     <t>NCT01303471</t>
   </si>
   <si>
-    <t>NCT02538445</t>
-  </si>
-  <si>
-    <t>NCT00457158</t>
-  </si>
-  <si>
-    <t>NCT01401140</t>
-  </si>
-  <si>
-    <t>NCT02527902</t>
-  </si>
-  <si>
-    <t>NCT01606020</t>
-  </si>
-  <si>
     <t>NCT01349270</t>
   </si>
   <si>
+    <t>NCT00676390</t>
+  </si>
+  <si>
+    <t>NCT02557568</t>
+  </si>
+  <si>
+    <t>NCT02522338</t>
+  </si>
+  <si>
+    <t>NCT02551354</t>
+  </si>
+  <si>
     <t>NCT02549378</t>
   </si>
   <si>
-    <t>NCT02551354</t>
-  </si>
-  <si>
-    <t>NCT00676390</t>
-  </si>
-  <si>
-    <t>NCT02522338</t>
-  </si>
-  <si>
-    <t>NCT02557568</t>
+    <t>NCT00922857</t>
+  </si>
+  <si>
+    <t>NCT02531048</t>
   </si>
   <si>
     <t>NCT02533518</t>
   </si>
   <si>
-    <t>NCT02531048</t>
-  </si>
-  <si>
     <t>NCT02046720</t>
   </si>
   <si>
-    <t>NCT00922857</t>
+    <t>NCT01732978</t>
+  </si>
+  <si>
+    <t>NCT02547246</t>
   </si>
   <si>
     <t>NCT02528591</t>
   </si>
   <si>
+    <t>NCT02526966</t>
+  </si>
+  <si>
+    <t>NCT00674531</t>
+  </si>
+  <si>
     <t>NCT02522819</t>
   </si>
   <si>
-    <t>NCT02547246</t>
-  </si>
-  <si>
-    <t>NCT00674531</t>
-  </si>
-  <si>
-    <t>NCT02526966</t>
-  </si>
-  <si>
-    <t>NCT01732978</t>
-  </si>
-  <si>
     <t>NCT01694914</t>
   </si>
   <si>
+    <t>NCT02374281</t>
+  </si>
+  <si>
+    <t>NCT02431819</t>
+  </si>
+  <si>
+    <t>NCT02528578</t>
+  </si>
+  <si>
+    <t>NCT02257164</t>
+  </si>
+  <si>
+    <t>NCT03280810</t>
+  </si>
+  <si>
     <t>NCT02524210</t>
   </si>
   <si>
+    <t>NCT03267979</t>
+  </si>
+  <si>
+    <t>NCT01982214</t>
+  </si>
+  <si>
+    <t>NCT02425839</t>
+  </si>
+  <si>
     <t>NCT02552524</t>
   </si>
   <si>
     <t>NCT01116570</t>
   </si>
   <si>
-    <t>NCT03280810</t>
-  </si>
-  <si>
-    <t>NCT01982214</t>
-  </si>
-  <si>
-    <t>NCT02528578</t>
-  </si>
-  <si>
-    <t>NCT02431819</t>
-  </si>
-  <si>
-    <t>NCT02425839</t>
-  </si>
-  <si>
-    <t>NCT02374281</t>
-  </si>
-  <si>
-    <t>NCT02257164</t>
-  </si>
-  <si>
-    <t>NCT03267979</t>
+    <t>NCT02538796</t>
+  </si>
+  <si>
+    <t>NCT02252497</t>
+  </si>
+  <si>
+    <t>NCT02386787</t>
+  </si>
+  <si>
+    <t>NCT02524041</t>
+  </si>
+  <si>
+    <t>NCT02670993</t>
   </si>
   <si>
     <t>NCT02279108</t>
   </si>
   <si>
-    <t>NCT02524041</t>
+    <t>NCT02657512</t>
+  </si>
+  <si>
+    <t>NCT02571088</t>
+  </si>
+  <si>
+    <t>NCT02355314</t>
   </si>
   <si>
     <t>NCT02524301</t>
   </si>
   <si>
-    <t>NCT02670993</t>
-  </si>
-  <si>
-    <t>NCT02571088</t>
-  </si>
-  <si>
-    <t>NCT02355314</t>
-  </si>
-  <si>
     <t>NCT02524223</t>
   </si>
   <si>
+    <t>NCT02549274</t>
+  </si>
+  <si>
     <t>NCT02544516</t>
   </si>
   <si>
     <t>NCT02668224</t>
   </si>
   <si>
-    <t>NCT02386787</t>
-  </si>
-  <si>
-    <t>NCT02252497</t>
-  </si>
-  <si>
-    <t>NCT02657512</t>
-  </si>
-  <si>
-    <t>NCT02549274</t>
-  </si>
-  <si>
-    <t>NCT02538796</t>
+    <t>NCT02526927</t>
+  </si>
+  <si>
+    <t>NCT02595112</t>
+  </si>
+  <si>
+    <t>NCT02260414</t>
   </si>
   <si>
     <t>NCT02502474</t>
   </si>
   <si>
-    <t>NCT02526927</t>
+    <t>NCT02562495</t>
   </si>
   <si>
     <t>NCT02595125</t>
   </si>
   <si>
+    <t>NCT02463890</t>
+  </si>
+  <si>
+    <t>NCT02960932</t>
+  </si>
+  <si>
     <t>NCT02895438</t>
   </si>
   <si>
-    <t>NCT02595112</t>
-  </si>
-  <si>
-    <t>NCT02260414</t>
-  </si>
-  <si>
     <t>NCT02112695</t>
   </si>
   <si>
-    <t>NCT02960932</t>
-  </si>
-  <si>
-    <t>NCT02562495</t>
-  </si>
-  <si>
     <t>NCT02531061</t>
   </si>
   <si>
-    <t>NCT02463890</t>
-  </si>
-  <si>
     <t>NCT03324048</t>
   </si>
   <si>
+    <t>NCT02386969</t>
+  </si>
+  <si>
+    <t>NCT03714269</t>
+  </si>
+  <si>
+    <t>NCT02559999</t>
+  </si>
+  <si>
+    <t>NCT02475486</t>
+  </si>
+  <si>
+    <t>NCT03690804</t>
+  </si>
+  <si>
+    <t>NCT03079232</t>
+  </si>
+  <si>
     <t>NCT03249857</t>
   </si>
   <si>
-    <t>NCT03690804</t>
-  </si>
-  <si>
     <t>NCT03190486</t>
   </si>
   <si>
-    <t>NCT02559999</t>
-  </si>
-  <si>
-    <t>NCT02475486</t>
-  </si>
-  <si>
-    <t>NCT03714269</t>
-  </si>
-  <si>
-    <t>NCT02386969</t>
+    <t>NCT02667678</t>
   </si>
   <si>
     <t>NCT02920723</t>
   </si>
   <si>
-    <t>NCT03079232</t>
+    <t>NCT03307434</t>
   </si>
   <si>
     <t>NCT03145454</t>
   </si>
   <si>
-    <t>NCT02667678</t>
-  </si>
-  <si>
     <t>NCT02596984</t>
   </si>
   <si>
-    <t>NCT03307434</t>
+    <t>NCT02506504</t>
+  </si>
+  <si>
+    <t>NCT04025138</t>
+  </si>
+  <si>
+    <t>NCT02834260</t>
+  </si>
+  <si>
+    <t>NCT02668237</t>
+  </si>
+  <si>
+    <t>NCT03549546</t>
+  </si>
+  <si>
+    <t>NCT02655172</t>
+  </si>
+  <si>
+    <t>NCT03586505</t>
+  </si>
+  <si>
+    <t>NCT03526211</t>
   </si>
   <si>
     <t>NCT02522806</t>
   </si>
   <si>
-    <t>NCT02506504</t>
-  </si>
-  <si>
-    <t>NCT03526211</t>
-  </si>
-  <si>
-    <t>NCT02668237</t>
-  </si>
-  <si>
-    <t>NCT04025138</t>
-  </si>
-  <si>
-    <t>NCT03549546</t>
-  </si>
-  <si>
-    <t>NCT02655172</t>
-  </si>
-  <si>
-    <t>NCT03586505</t>
-  </si>
-  <si>
-    <t>NCT02834260</t>
+    <t>NCT03445871</t>
   </si>
   <si>
     <t>NCT03126045</t>
   </si>
   <si>
+    <t>NCT03643328</t>
+  </si>
+  <si>
+    <t>NCT02591030</t>
+  </si>
+  <si>
+    <t>NCT02929004</t>
+  </si>
+  <si>
+    <t>NCT02386774</t>
+  </si>
+  <si>
     <t>NCT04093037</t>
   </si>
   <si>
-    <t>NCT03445871</t>
-  </si>
-  <si>
-    <t>NCT03643328</t>
-  </si>
-  <si>
-    <t>NCT02591030</t>
-  </si>
-  <si>
-    <t>NCT02386774</t>
+    <t>NCT03172390</t>
   </si>
   <si>
     <t>NCT03342339</t>
   </si>
   <si>
-    <t>NCT02929004</t>
-  </si>
-  <si>
     <t>NCT02672566</t>
   </si>
   <si>
-    <t>NCT03172390</t>
+    <t>NCT02675179</t>
+  </si>
+  <si>
+    <t>NCT03317613</t>
+  </si>
+  <si>
+    <t>NCT02668250</t>
+  </si>
+  <si>
+    <t>NCT02494648</t>
   </si>
   <si>
     <t>NCT02657304</t>
   </si>
   <si>
-    <t>NCT02668250</t>
-  </si>
-  <si>
-    <t>NCT03317613</t>
+    <t>NCT03182166</t>
+  </si>
+  <si>
+    <t>NCT02853045</t>
+  </si>
+  <si>
+    <t>NCT02665845</t>
+  </si>
+  <si>
+    <t>NCT04511858</t>
+  </si>
+  <si>
+    <t>NCT04859023</t>
+  </si>
+  <si>
+    <t>NCT03866785</t>
   </si>
   <si>
     <t>NCT03731247</t>
   </si>
   <si>
-    <t>NCT03866785</t>
+    <t>NCT02666339</t>
   </si>
   <si>
     <t>NCT03736733</t>
@@ -418,174 +442,198 @@
     <t>NCT01841242</t>
   </si>
   <si>
-    <t>NCT02666339</t>
-  </si>
-  <si>
-    <t>NCT02665845</t>
-  </si>
-  <si>
-    <t>NCT02675179</t>
-  </si>
-  <si>
-    <t>NCT02853045</t>
-  </si>
-  <si>
-    <t>NCT04859023</t>
-  </si>
-  <si>
-    <t>NCT02494648</t>
-  </si>
-  <si>
-    <t>NCT03182166</t>
-  </si>
-  <si>
-    <t>NCT04511858</t>
+    <t>NCT04102410</t>
+  </si>
+  <si>
+    <t>NCT04857710</t>
+  </si>
+  <si>
+    <t>NCT03240341</t>
+  </si>
+  <si>
+    <t>NCT02359513</t>
   </si>
   <si>
     <t>NCT03801122</t>
   </si>
   <si>
-    <t>NCT02359513</t>
-  </si>
-  <si>
-    <t>NCT03240341</t>
+    <t>NCT04767776</t>
   </si>
   <si>
     <t>NCT04117308</t>
   </si>
   <si>
+    <t>NCT04034719</t>
+  </si>
+  <si>
+    <t>NCT04895501</t>
+  </si>
+  <si>
     <t>NCT04998266</t>
   </si>
   <si>
-    <t>NCT04102410</t>
-  </si>
-  <si>
-    <t>NCT04767776</t>
-  </si>
-  <si>
-    <t>NCT04857710</t>
-  </si>
-  <si>
-    <t>NCT04895501</t>
-  </si>
-  <si>
-    <t>NCT04034719</t>
+    <t>NCT05170178</t>
+  </si>
+  <si>
+    <t>NCT04737018</t>
+  </si>
+  <si>
+    <t>NCT06110637</t>
+  </si>
+  <si>
+    <t>NCT04025411</t>
+  </si>
+  <si>
+    <t>NCT04469348</t>
+  </si>
+  <si>
+    <t>NCT02484820</t>
+  </si>
+  <si>
+    <t>NCT05155826</t>
+  </si>
+  <si>
+    <t>NCT05013021</t>
   </si>
   <si>
     <t>NCT05717543</t>
   </si>
   <si>
-    <t>NCT05170178</t>
-  </si>
-  <si>
-    <t>NCT04025411</t>
-  </si>
-  <si>
-    <t>NCT06110637</t>
-  </si>
-  <si>
-    <t>NCT04469348</t>
-  </si>
-  <si>
-    <t>NCT05155826</t>
-  </si>
-  <si>
-    <t>NCT04737018</t>
-  </si>
-  <si>
     <t>NCT05047718</t>
   </si>
   <si>
-    <t>NCT05013021</t>
-  </si>
-  <si>
-    <t>NCT02484820</t>
+    <t>NCT02579954</t>
+  </si>
+  <si>
+    <t>NCT03984682</t>
+  </si>
+  <si>
+    <t>NCT05367791</t>
+  </si>
+  <si>
+    <t>NCT05385653</t>
+  </si>
+  <si>
+    <t>NCT05314543</t>
+  </si>
+  <si>
+    <t>NCT03445845</t>
   </si>
   <si>
     <t>NCT06469359</t>
   </si>
   <si>
-    <t>NCT05385653</t>
-  </si>
-  <si>
-    <t>NCT03445845</t>
-  </si>
-  <si>
-    <t>NCT02579954</t>
-  </si>
-  <si>
-    <t>NCT05314543</t>
-  </si>
-  <si>
     <t>NCT03753776</t>
   </si>
   <si>
-    <t>NCT03984682</t>
-  </si>
-  <si>
-    <t>NCT05367791</t>
+    <t>NCT05574309</t>
+  </si>
+  <si>
+    <t>2007-001048-32</t>
+  </si>
+  <si>
+    <t>2006-007017-21</t>
+  </si>
+  <si>
+    <t>2006-005294-22</t>
+  </si>
+  <si>
+    <t>2008-004395-46</t>
   </si>
   <si>
     <t>2007-006275-36</t>
   </si>
   <si>
-    <t>2013-000313-20</t>
+    <t>2010-024047-33</t>
+  </si>
+  <si>
+    <t>2010-019591-67</t>
+  </si>
+  <si>
+    <t>2010-022272-31</t>
   </si>
   <si>
     <t>2013-005043-86</t>
   </si>
   <si>
+    <t>2014-002062-77</t>
+  </si>
+  <si>
+    <t>2013-004932-31</t>
+  </si>
+  <si>
     <t>2013-000791-15</t>
   </si>
   <si>
-    <t>2009-018189-36</t>
-  </si>
-  <si>
-    <t>2018-001505-90</t>
+    <t>2014-004005-32</t>
+  </si>
+  <si>
+    <t>2015-001839-21</t>
+  </si>
+  <si>
+    <t>2014-000946-31</t>
+  </si>
+  <si>
+    <t>2013-004733-32</t>
+  </si>
+  <si>
+    <t>2015-001455-68</t>
+  </si>
+  <si>
+    <t>2014-000789-22</t>
+  </si>
+  <si>
+    <t>2016-001168-12</t>
   </si>
   <si>
     <t>2017-004348-39</t>
   </si>
   <si>
-    <t>2018-001051-12</t>
-  </si>
-  <si>
-    <t>2018-003233-14</t>
-  </si>
-  <si>
-    <t>2006-005294-22</t>
+    <t>2015-002282-35</t>
+  </si>
+  <si>
+    <t>2016-000424-25</t>
+  </si>
+  <si>
+    <t>2017-002476-11</t>
+  </si>
+  <si>
+    <t>2016-004245-85</t>
+  </si>
+  <si>
+    <t>2014-001404-22</t>
+  </si>
+  <si>
+    <t>2015-002671-21</t>
+  </si>
+  <si>
+    <t>2012-000803-33</t>
+  </si>
+  <si>
+    <t>2015-000365-31</t>
+  </si>
+  <si>
+    <t>2018-004756-38</t>
+  </si>
+  <si>
+    <t>2019-004425-25</t>
+  </si>
+  <si>
+    <t>2021-003547-24</t>
+  </si>
+  <si>
+    <t>2017-004700-22</t>
+  </si>
+  <si>
+    <t>2018-002406-32</t>
   </si>
   <si>
     <t>2009-014690-41</t>
   </si>
   <si>
-    <t>2009-017768-18</t>
-  </si>
-  <si>
-    <t>2008-006256-22</t>
-  </si>
-  <si>
-    <t>2016-004381-25</t>
-  </si>
-  <si>
-    <t>2021-003547-24</t>
-  </si>
-  <si>
     <t>2008-008378-29</t>
   </si>
   <si>
-    <t>2020-001188-96</t>
-  </si>
-  <si>
-    <t>2015-001807-29</t>
-  </si>
-  <si>
-    <t>2010-021022-35</t>
-  </si>
-  <si>
-    <t>2016-000424-25</t>
-  </si>
-  <si>
     <t>2007</t>
   </si>
   <si>
@@ -640,13 +688,28 @@
     <t>2024</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>Randomized Phase III Trial Comparing Induction Chemotherapy Followed by Radiotherapy to Concomitant Chemoradiotherapy for Laryngeal Preservation in T3MO Pyriform Sinus Carcinoma</t>
   </si>
   <si>
+    <t>Efficacy of Tranexamic Acid on Perioperative Blood Loss During Hip Fracture Surgery.</t>
+  </si>
+  <si>
     <t>Neuromuscular and Cognitive Fatigue During a 24h Treadmill Running Exercise.</t>
   </si>
   <si>
-    <t>Efficacy of Tranexamic Acid on Perioperative Blood Loss During Hip Fracture Surgery.</t>
+    <t>Pain Reducing Effect of Transcutaneous Electrical Nerve Stimulation (TENS) in Patients With Chronic Low Back Pain or Chronic Lumbo-radiculalgia and Followed in Pain Treatment Centers</t>
+  </si>
+  <si>
+    <t>Prospective, Multicentre, Open-label Study Evaluating 1.5 mg/Day of Fondaparinux,in Venous Thromboembolic Events Prevention in Patients With Renal Impairment and Undergoing a Major Orthopaedic Surgery. PROPICE Study</t>
+  </si>
+  <si>
+    <t>Lower Limb Mechanical Characteristics: Effect on Running Mechanics and Energetics</t>
+  </si>
+  <si>
+    <t>Post Operative Hemodynamic Function After Anesthetic Induction With Etomidate for Cardiac Surgery With ECC. A Prospective, Monocentric, Randomised Double Blind Study</t>
   </si>
   <si>
     <t>Performance of Cimetidine-corrected MDRD Equation in Renal Transplant Patients</t>
@@ -655,37 +718,25 @@
     <t>Functional Organization of Somatosensory Responses in the Secondary Somatosensitive Area (SII) and Insula : an fMRI Study</t>
   </si>
   <si>
-    <t>Prospective, Multicentre, Open-label Study Evaluating 1.5 mg/Day of Fondaparinux,in Venous Thromboembolic Events Prevention in Patients With Renal Impairment and Undergoing a Major Orthopaedic Surgery. PROPICE Study</t>
-  </si>
-  <si>
-    <t>Pain Reducing Effect of Transcutaneous Electrical Nerve Stimulation (TENS) in Patients With Chronic Low Back Pain or Chronic Lumbo-radiculalgia and Followed in Pain Treatment Centers</t>
-  </si>
-  <si>
-    <t>Lower Limb Mechanical Characteristics: Effect on Running Mechanics and Energetics</t>
-  </si>
-  <si>
-    <t>Post Operative Hemodynamic Function After Anesthetic Induction With Etomidate for Cardiac Surgery With ECC. A Prospective, Monocentric, Randomised Double Blind Study</t>
-  </si>
-  <si>
-    <t>Levobupivacaine into post-caesarian analgesia: randomized monocentric study against placebo</t>
+    <t>Interest of Relaxation From Patients With Pain Due to Migraine</t>
+  </si>
+  <si>
+    <t>Investigation of Drug-drug Interaction Between Clopidogrel and Fluoxetine</t>
   </si>
   <si>
     <t>Levobupivacïne Into Post-analgesia : Randomized Monocentric Study Against Placebo</t>
   </si>
   <si>
-    <t>Investigation of Drug-drug Interaction Between Clopidogrel and Fluoxetine</t>
-  </si>
-  <si>
-    <t>Interest of Relaxation From Patients With Pain Due to Migraine</t>
+    <t>Pharmacokinetic Evaluation of an Intensified and Decreasing Dosing Regimen of Mycophenolate Sodium in Combination With Tacrolimus During the First 3 Months Post Kidney Transplant (the myFORTic Study)</t>
+  </si>
+  <si>
+    <t>Role of CD4+CD25+FoxP3+ Regulatory T Cells in Pathogenesis of Primary IgA Nephropathy</t>
   </si>
   <si>
     <t>Measurement of Exhaled NO and Bronchial Provocation Test With Mannitol as a Predictor of Response to Inhaled Corticosteroids in Chronic Cough</t>
   </si>
   <si>
-    <t>Pharmacokinetic Evaluation of an Intensified and Decreasing Dosing Regimen of Mycophenolate Sodium in Combination With Tacrolimus During the First 3 Months Post Kidney Transplant (the myFORTic Study)</t>
-  </si>
-  <si>
-    <t>Role of CD4+CD25+FoxP3+ Regulatory T Cells in Pathogenesis of Primary IgA Nephropathy</t>
+    <t>Cardiac Autonomic Functions During Head-out Immersion and During Head Down Tilt</t>
   </si>
   <si>
     <t>Effectiveness of VistaO2 Device in Screening of Sleep Apnea/Hypopnea Syndrome</t>
@@ -694,582 +745,529 @@
     <t>Investigation Drug-drug Interaction Between Dabigatran and Clarithromycin</t>
   </si>
   <si>
-    <t>Cardiac Autonomic Functions During Head-out Immersion and During Head Down Tilt</t>
+    <t>Coronary Surgery: Comparing the Protective Effects of Two Cardioplegic Solutions: Custodiol Versus St Thomas, on Cardiac Metabolism, as Assessed Using Microdialysis</t>
+  </si>
+  <si>
+    <t>PREPIC 2 : Interruption of Inferior Vena Cava by a Retrievable Filter for the Prevention of Recurrent Pulmonary Embolism : a Randomised, Open Label Study</t>
+  </si>
+  <si>
+    <t>Effects of Sleep Deprivation on Driving Performance and Central Fatigue</t>
+  </si>
+  <si>
+    <t>Autonomic Nervous System (ANS) Analysis According to Different Renal Function Stage in Immunoglobin A (IgA) Nephropathy</t>
+  </si>
+  <si>
+    <t>Can we Forget? Directed Forgetting and Embodied Cognition in Schizophrenia</t>
   </si>
   <si>
     <t>Pain Assessment During General Anesthesia : DOLANS (DOULeur ANeSthesie) Study</t>
   </si>
   <si>
-    <t>Can we Forget? Directed Forgetting and Embodied Cognition in Schizophrenia</t>
-  </si>
-  <si>
-    <t>PREPIC 2 : Interruption of Inferior Vena Cava by a Retrievable Filter for the Prevention of Recurrent Pulmonary Embolism : a Randomised, Open Label Study</t>
-  </si>
-  <si>
-    <t>Coronary Surgery: Comparing the Protective Effects of Two Cardioplegic Solutions: Custodiol Versus St Thomas, on Cardiac Metabolism, as Assessed Using Microdialysis</t>
-  </si>
-  <si>
-    <t>Autonomic Nervous System (ANS) Analysis According to Different Renal Function Stage in Immunoglobin A (IgA) Nephropathy</t>
-  </si>
-  <si>
-    <t>Effects of Sleep Deprivation on Driving Performance and Central Fatigue</t>
-  </si>
-  <si>
     <t>Multicentre Randomized Open-label Trial to Compare Efficacy and Tolerance of Corticosteroids and IVIg in Patients With Chronic Inflammatory Demyelinating Polyneuropathy on a One Year Follow up</t>
   </si>
   <si>
+    <t>Estimated Physical Activity of Congestive Heart Failure Patients by a Physical Activity Questionnaire : Concordance Study.</t>
+  </si>
+  <si>
+    <t>Evaluation of an Algorithm for Identifying Persistent Nasal Staphylococcus Aureus Carriage in a Cohort of Healthy Volunteers and Patients Regularly Monitored at the CHU of Saint-Etienne</t>
+  </si>
+  <si>
+    <t>Measurement of Glomerular Filtration Rate (GFR) in HIV Patients: Single-center Study Comparing the Accuracy of Estimators of GFR Versus Iohexol Plasma Clearance</t>
+  </si>
+  <si>
+    <t>Estimation of Pain During Epidural Analgesia During Labor - a Monocentric Study</t>
+  </si>
+  <si>
     <t>Study of the Impact of Changes in Carbonemia on Microcirculation in Patients - A Monocentric Study</t>
   </si>
   <si>
-    <t>Estimation of Pain During Epidural Analgesia During Labor - a Monocentric Study</t>
-  </si>
-  <si>
-    <t>Estimated Physical Activity of Congestive Heart Failure Patients by a Physical Activity Questionnaire : Concordance Study.</t>
-  </si>
-  <si>
-    <t>Measurement of Glomerular Filtration Rate (GFR) in HIV Patients: Single-center Study Comparing the Accuracy of Estimators of GFR Versus Iohexol Plasma Clearance</t>
-  </si>
-  <si>
-    <t>Evaluation of an Algorithm for Identifying Persistent Nasal Staphylococcus Aureus Carriage in a Cohort of Healthy Volunteers and Patients Regularly Monitored at the CHU of Saint-Etienne</t>
+    <t>Influence of Muscular Atrophy on Biological and Functional Benefit of Respiratory Rehabilitation in Patients With Chronic Respiratory Failure</t>
+  </si>
+  <si>
+    <t>Normative Values Laser Nociceptive Evoked Potentials Depending on the Age</t>
   </si>
   <si>
     <t>Ultra-Violet Fluorescence Bronchial Cancer Location</t>
   </si>
   <si>
-    <t>Normative Values Laser Nociceptive Evoked Potentials Depending on the Age</t>
-  </si>
-  <si>
     <t>The Influence of Age on Bispectral Index Associated With Propofol-induced Sedation</t>
   </si>
   <si>
-    <t>Influence of Muscular Atrophy on Biological and Functional Benefit of Respiratory Rehabilitation in Patients With Chronic Respiratory Failure</t>
+    <t>Are Parents Privileged Listeners Their Baby ?</t>
+  </si>
+  <si>
+    <t>Transcranial Magnetic Stimulation, Embodied Cognition and Bulimic Craving</t>
   </si>
   <si>
     <t>Prospective Single-center Study Evaluating the Central Blood Pressure in Renal Transplantation</t>
   </si>
   <si>
+    <t>Multicenter Study Evaluating the Performance of the Assay of Anti-hinge Region Antibodies in the Diagnosis of Progressive Forms of IgA Nephropathy</t>
+  </si>
+  <si>
+    <t>Detection of Enterovirus RNA by RT-PCR in Atheromatous Lesions</t>
+  </si>
+  <si>
     <t>Feasibility Evaluation of Continuous Positive Airway Pressure (CPAP) in the Treatment of Obstructive Sleep Apnea Synchrone in the Acute Phase of Stroke</t>
   </si>
   <si>
-    <t>Transcranial Magnetic Stimulation, Embodied Cognition and Bulimic Craving</t>
-  </si>
-  <si>
-    <t>Detection of Enterovirus RNA by RT-PCR in Atheromatous Lesions</t>
-  </si>
-  <si>
-    <t>Multicenter Study Evaluating the Performance of the Assay of Anti-hinge Region Antibodies in the Diagnosis of Progressive Forms of IgA Nephropathy</t>
-  </si>
-  <si>
-    <t>Are Parents Privileged Listeners Their Baby ?</t>
-  </si>
-  <si>
     <t>Comparative Study of Two Corneal Graft Storage Media: New Animal Compound Free Medium Versus Reference Medium</t>
   </si>
   <si>
+    <t>Autonomic Nervous System Reactivity of the Newborn After a Nociceptive Stress: Interest of Sucrose and Non-nutritive Sucking : A Controlled Randomized Single-center Study.</t>
+  </si>
+  <si>
+    <t>Single Center Prospective Study Evaluating the Safety of Progressive Compressive Stockings for the Treatment of Venous Insufficiency in Patients With Peripheral Arterial Disease</t>
+  </si>
+  <si>
+    <t>Modulation of Painful Perception</t>
+  </si>
+  <si>
+    <t>Anesthesic Techniques for Surgery of the Anterior Cruciate Ligament of the Knee in Ambulatory Surgery. Randomized Pilot Monocentric Trial</t>
+  </si>
+  <si>
+    <t>Effects of a Psycho-corporal Training on Postural and Cognitive Dual-task Performances in Patients With Schizophrenia</t>
+  </si>
+  <si>
     <t>Effect of Inhibitors of the Proton Pump on Intestinal Transporters and Their Impact on the Pharmacokinetics of Dabigatran - Mechanistic and Clinical Approach -BIPP Study</t>
   </si>
   <si>
+    <t>Assessing Pain in the Postoperative Period by Automatically Measuring the Variation Coefficient of Pupillary Diameter: PREVANS Study</t>
+  </si>
+  <si>
+    <t>Effects of Whole Body Vibration (WBV) on Musculoskeletal System of Aged Women</t>
+  </si>
+  <si>
+    <t>Assessment of Correlation Between Changes of Shear Wave Elastography and Surface Electromyogram of the Masseter, in Rest and Maximal Voluntary Contraction</t>
+  </si>
+  <si>
     <t>Study of the Effect of an Active rTMS Session in Pathological Gamblers: Impact on Craving and Severity of These Behaviors</t>
   </si>
   <si>
     <t>Exercise and Myopathies. Physical Training Introduction in Lifestyle of Facioscapulohumeral Dystrophy Patients: Functional, Tissue and Quality of Life Benefits.</t>
   </si>
   <si>
-    <t>Evaluation of the biological response to clopidogrel in patients with  ischemic stroke: role of platelet alpha2-adrenergic receptors 
- Evaluation de la réponse biologique au clopidogrel chez des patients en prévention secondaire d'accident ischémique cérébral : rôle des récepteurs alpha2-adrénergiques plaquettaires</t>
-  </si>
-  <si>
-    <t>Effects of a Psycho-corporal Training on Postural and Cognitive Dual-task Performances in Patients With Schizophrenia</t>
-  </si>
-  <si>
-    <t>Effects of Whole Body Vibration (WBV) on Musculoskeletal System of Aged Women</t>
-  </si>
-  <si>
-    <t>Modulation of Painful Perception</t>
-  </si>
-  <si>
-    <t>Reactivity of the autonomic nervous system after a nociceptive stress in the newborn: Interest of sucrose and non-nutritive sucking. 
- Réactivité du système nerveux autonome après un stress nociceptif chez le nouveau-né : Intérêt du sucrose et de la succion non nutritive.</t>
-  </si>
-  <si>
-    <t>Single Center Prospective Study Evaluating the Safety of Progressive Compressive Stockings for the Treatment of Venous Insufficiency in Patients With Peripheral Arterial Disease</t>
-  </si>
-  <si>
-    <t>Assessment of Correlation Between Changes of Shear Wave Elastography and Surface Electromyogram of the Masseter, in Rest and Maximal Voluntary Contraction</t>
-  </si>
-  <si>
-    <t>Autonomic Nervous System Reactivity of the Newborn After a Nociceptive Stress: Interest of Sucrose and Non-nutritive Sucking : A Controlled Randomized Single-center Study.</t>
-  </si>
-  <si>
-    <t>Anesthesic Techniques for Surgery of the Anterior Cruciate Ligament of the Knee in Ambulatory Surgery. Randomized Pilot Monocentric Trial</t>
-  </si>
-  <si>
-    <t>Assessing Pain in the Postoperative Period by Automatically Measuring the Variation Coefficient of Pupillary Diameter: PREVANS Study</t>
+    <t>The Embodied Cognition: Exploratory Study of Automatic and Controlled Processes in Anorexia Nervosa. A Monocentric Study</t>
+  </si>
+  <si>
+    <t>Tranexamic Acid in Total Hip Arthroplasty: Single Preoperative Administration vs Perioperative Administration. A Randomized Control Trial.</t>
+  </si>
+  <si>
+    <t>Ultrasound Assessment of Gastric Content for Semi Emergency Surgery</t>
+  </si>
+  <si>
+    <t>Association Between Serum Periostin Levels and Cortical Porosity in Patients With Secondary Hyperparathyroidism</t>
+  </si>
+  <si>
+    <t>Support by Singing Sessions on Physical and Moral Pain : Assessment of Its Effectiveness in Alzheimer's Disease. Multicenter Study LACME</t>
   </si>
   <si>
     <t>Comparative, Prospective, Randomized Study Assessing The Interest of Indocyanine Green Fluorescence Imaging With Radioisotope Method For Sentinel Lymph Node Biopsy in Patients With Breast Cancer</t>
   </si>
   <si>
-    <t>Association Between Serum Periostin Levels and Cortical Porosity in Patients With Secondary Hyperparathyroidism</t>
+    <t>Effect of Activated Charcoal on Rivaroxaban Pharmacokinetics in Healthy Subjects : RICHAR Study</t>
+  </si>
+  <si>
+    <t>Evaluation of a Training Program for Homozygous Sickle Cell Disease Patients: Benefits on Physical Ability and Skeletal Muscle. An Interventional Pilot, Multicentric, Prospective, Longitudinal Study</t>
+  </si>
+  <si>
+    <t>Doppler-based Renal Resistive Index in Assessing Renal Dysfunction Reversibility in ICU Patients</t>
   </si>
   <si>
     <t>Evaluation of Brain Opioid Receptor Activity in Anorexia Nervosa : a PET [11C]Diprenorphine Study</t>
   </si>
   <si>
-    <t>Support by Singing Sessions on Physical and Moral Pain : Assessment of Its Effectiveness in Alzheimer's Disease. Multicenter Study LACME</t>
-  </si>
-  <si>
-    <t>Evaluation of a Training Program for Homozygous Sickle Cell Disease Patients: Benefits on Physical Ability and Skeletal Muscle. An Interventional Pilot, Multicentric, Prospective, Longitudinal Study</t>
-  </si>
-  <si>
-    <t>Doppler-based Renal Resistive Index in Assessing Renal Dysfunction Reversibility in ICU Patients</t>
-  </si>
-  <si>
     <t>Prevalence of HPV Transmission During Medically Assisted Procreation Procedures</t>
   </si>
   <si>
+    <t>Effectiveness of Active Home Exercises for Patients With Chronic Neck Pain: a Prospective Comparative Randomized Clinical Trial</t>
+  </si>
+  <si>
     <t>Study on the Links Between Perception and Action in Schizophrenia, "Upside Down, Give me the Handle"</t>
   </si>
   <si>
     <t>Chronic Effects of Tendon Vibrations on the Neuromechanical Muscular Properties : Pilot Study, Interventional, Prospective, Longitudinal.</t>
   </si>
   <si>
-    <t>Ultrasound Assessment of Gastric Content for Semi Emergency Surgery</t>
-  </si>
-  <si>
-    <t>Tranexamic Acid in Total Hip Arthroplasty: Single Preoperative Administration vs Perioperative Administration. A Randomized Control Trial.</t>
-  </si>
-  <si>
-    <t>Effect of Activated Charcoal on Rivaroxaban Pharmacokinetics in Healthy Subjects : RICHAR Study</t>
-  </si>
-  <si>
-    <t>Effectiveness of Active Home Exercises for Patients With Chronic Neck Pain: a Prospective Comparative Randomized Clinical Trial</t>
-  </si>
-  <si>
-    <t>The Embodied Cognition: Exploratory Study of Automatic and Controlled Processes in Anorexia Nervosa. A Monocentric Study</t>
+    <t>Monocentric Study Evaluating Bone Microarchitecture by High Resolution Quantitative Computerized Tomography (HR-pQCT) in Young Adults and Adolescents Who Developed Anorexia Nervosa (AN) in Peri or Prepubertal Period.</t>
+  </si>
+  <si>
+    <t>Study of Staphylococcus Aureus Colonization of the Posterior Nasal Cavity in Patients Undergoing Otorhinolaryngologic Surgery. A Monocentric Study</t>
+  </si>
+  <si>
+    <t>Effects of Injection Tinzaparin Prophylactic Dose (4,500 IU Anti-Xa) on Thrombin Generation in Patients With Multiple Myeloma, Lymphoma Patients and Patients Hospitalized for an Acute Medical Condition.</t>
   </si>
   <si>
     <t>Study of the Colonic Carriage of Staphylococcus Aureus in a Prospective Cohort of Patients Undergoing Endoscopic Screening for Digestive Cancer in the University Hospital of Saint-Etienne.</t>
   </si>
   <si>
-    <t>Monocentric Study Evaluating Bone Microarchitecture by High Resolution Quantitative Computerized Tomography (HR-pQCT) in Young Adults and Adolescents Who Developed Anorexia Nervosa (AN) in Peri or Prepubertal Period.</t>
+    <t>Interest of the Ultrasound to Evaluate the Quadriceps Muscle Wasting in Critical Ill Patients.</t>
   </si>
   <si>
     <t>Comparative Study, Prospective, Randomized , Assessing the Reduction of Pain Felt During Installation Intra- Uterine Device by Direct Technique. A Monocentric Study</t>
   </si>
   <si>
+    <t>Effect of Exercise Training on Obstructive Sleep Apnea Syndrome Severity</t>
+  </si>
+  <si>
+    <t>Reproducibility Inter-session of the Measurement Elastography of the Passive Stiffness of Medial Beams of Gastrocnemius Muscle of the Hemiplegic Cerebral Child.</t>
+  </si>
+  <si>
     <t>Does Non Coeliac Gluten Sensitivity (NCGS) Exist in Children? A Double-Blind Randomized Placebo-Controlled Trial</t>
   </si>
   <si>
-    <t>Study of Staphylococcus Aureus Colonization of the Posterior Nasal Cavity in Patients Undergoing Otorhinolaryngologic Surgery. A Monocentric Study</t>
-  </si>
-  <si>
-    <t>Effects of Injection Tinzaparin Prophylactic Dose (4,500 IU Anti-Xa) on Thrombin Generation in Patients With Multiple Myeloma, Lymphoma Patients and Patients Hospitalized for an Acute Medical Condition.</t>
-  </si>
-  <si>
     <t>Opioid System Cerebral Activity in Endurance Sportswomen - Addiction or Denutrition ? [11C]Diprenorphine PET Study</t>
   </si>
   <si>
-    <t>Reproducibility Inter-session of the Measurement Elastography of the Passive Stiffness of Medial Beams of Gastrocnemius Muscle of the Hemiplegic Cerebral Child.</t>
-  </si>
-  <si>
-    <t>Interest of the Ultrasound to Evaluate the Quadriceps Muscle Wasting in Critical Ill Patients.</t>
-  </si>
-  <si>
     <t>Impact of the Persistence of Inflammation at Doppler Ultrasound Level on the Structural Evolution of Erosion in Rheumatoid Arthritis Treated With Biotherapy</t>
   </si>
   <si>
-    <t>Effect of Exercise Training on Obstructive Sleep Apnea Syndrome Severity</t>
-  </si>
-  <si>
     <t>A Single Mindfulness Meditation Session in Preoperative Anxiety : Effects on the Autonomous Nervous System</t>
   </si>
   <si>
+    <t>Long-term Efficacy of Repetitive Transcranial Magnetic Stimulation on the Primary Motor Cortex (M1) in Central Neuropathic Pain</t>
+  </si>
+  <si>
+    <t>Acute Effects of a Passive Stretching Session on the Mechanical Properties of Medial Gastrocnemius Muscle in Children With Cerebral Palsy</t>
+  </si>
+  <si>
+    <t>Objective Markers of Pain Perception in Humans: a Study in Healthy Subjects</t>
+  </si>
+  <si>
+    <t>Role of the Sympathetic Nervous System (ANS) Dysregulation in the Persistence of Fatigue in Rheumatoid Arthritis Patients Treated With Anti-TNF (Tumor Necrosis Factor) - a Monocentric Cross-sectional Study</t>
+  </si>
+  <si>
+    <t>Assessment of Autonomic Co-regulation Between Newborn and Parent During Kangaroo Care Sessions in Neonatal Intensive Care Units</t>
+  </si>
+  <si>
+    <t>In Vivo Imaging Innovation : Optical Coherence Microscopy in Dermato-oncology</t>
+  </si>
+  <si>
     <t>Study of Sensorimotor Compatibility Effects in Bipolar Affective Disorder.</t>
   </si>
   <si>
-    <t>Assessment of Autonomic Co-regulation Between Newborn and Parent During Kangaroo Care Sessions in Neonatal Intensive Care Units</t>
-  </si>
-  <si>
     <t>Perception of Baby's Painful Cry: Investigation in fMRI to Neuronal Activity Related to Empathy in Adults</t>
   </si>
   <si>
-    <t>Objective Markers of Pain Perception in Humans: a Study in Healthy Subjects</t>
-  </si>
-  <si>
-    <t>Role of the Sympathetic Nervous System (ANS) Dysregulation in the Persistence of Fatigue in Rheumatoid Arthritis Patients Treated With Anti-TNF (Tumor Necrosis Factor) - a Monocentric Cross-sectional Study</t>
-  </si>
-  <si>
-    <t>Acute Effects of a Passive Stretching Session on the Mechanical Properties of Medial Gastrocnemius Muscle in Children With Cerebral Palsy</t>
-  </si>
-  <si>
-    <t>Long-term Efficacy of Repetitive Transcranial Magnetic Stimulation on the Primary Motor Cortex (M1) in Central Neuropathic Pain</t>
+    <t>5 Years Follow-up Evaluation of Deterioration Kidney Biomarkers of HIV Patients : HIVOL 2 Study.</t>
   </si>
   <si>
     <t>Follow-up of the Patients Included in the EXESAS Study : Analysis of the Profit of the Physical Activity for the Control Group and of the Preservation of a Regular Physical Activity for the Group Initially Trained</t>
   </si>
   <si>
-    <t>In Vivo Imaging Innovation : Optical Coherence Microscopy in Dermato-oncology</t>
+    <t>PREVATHLE: To Evaluate the Effectiveness of an Injury Prevention Program in Athletics</t>
   </si>
   <si>
     <t>Objective Markers of Pain Perception in Pediatric Emergency</t>
   </si>
   <si>
-    <t>5 Years Follow-up Evaluation of Deterioration Kidney Biomarkers of HIV Patients : HIVOL 2 Study.</t>
-  </si>
-  <si>
     <t>Evaluation of the Pharmacokinetics of Caspofungin in ICU Patients</t>
   </si>
   <si>
-    <t>PREVATHLE: To Evaluate the Effectiveness of an Injury Prevention Program in Athletics</t>
+    <t>Prevention of Post-exercise Muscle Fatigue Using a Non Invasive Ventilation and Effect on Exercise Training in Severe Patients With COPD. QUADRIVEND Study</t>
+  </si>
+  <si>
+    <t>Fatigability Compared Men and Women Induced According to the Distance Traveled on an Ultra-marathon in the Mountains</t>
+  </si>
+  <si>
+    <t>Immunosuppression During Penetrating Keratoplasty, Using a Subconjunctival Implant Releasing Dexamethasone: Tolerance and Safety Pilot Study</t>
+  </si>
+  <si>
+    <t>Impact on Anti-infectious Treatments of the Early Molecular Detection Technique Coupled With Urinary Test of Infectious Agents Responsible of Community-acquired Pneumonia of Children at Pediatric Emergencies</t>
+  </si>
+  <si>
+    <t>Expression of the Inhibitory Receptors on Lymphocytes T Cells After Lung Cancer Surgery.</t>
+  </si>
+  <si>
+    <t>Study on the Links Between Action and Perception in Schizophrenia, " Have a Good Grasp of the World "</t>
+  </si>
+  <si>
+    <t>Tolerance to Light for Patients Suffering From Keratitis</t>
+  </si>
+  <si>
+    <t>Study of Feasibility and Safety of Functional Electrical Stimulation (FES) Cycling in Intensive Care Unit Patients</t>
   </si>
   <si>
     <t>Endometrial Local Injury Before First IVF : Evaluation of Pregnancy Rate</t>
   </si>
   <si>
-    <t>Prevention of Post-exercise Muscle Fatigue Using a Non Invasive Ventilation and Effect on Exercise Training in Severe Patients With COPD. QUADRIVEND Study</t>
-  </si>
-  <si>
-    <t>Study of Feasibility and Safety of Functional Electrical Stimulation (FES) Cycling in Intensive Care Unit Patients</t>
-  </si>
-  <si>
-    <t>Impact on Anti-infectious Treatments of the Early Molecular Detection Technique Coupled With Urinary Test of Infectious Agents Responsible of Community-acquired Pneumonia of Children at Pediatric Emergencies</t>
-  </si>
-  <si>
-    <t>Fatigability Compared Men and Women Induced According to the Distance Traveled on an Ultra-marathon in the Mountains</t>
-  </si>
-  <si>
-    <t>Expression of the Inhibitory Receptors on Lymphocytes T Cells After Lung Cancer Surgery.</t>
-  </si>
-  <si>
-    <t>Study on the Links Between Action and Perception in Schizophrenia, " Have a Good Grasp of the World "</t>
-  </si>
-  <si>
-    <t>Tolerance to Light for Patients Suffering From Keratitis</t>
-  </si>
-  <si>
-    <t>Immunosuppression During Penetrating Keratoplasty, Using a Subconjunctival Implant Releasing Dexamethasone: Tolerance and Safety Pilot Study</t>
+    <t>Association Between Methotrexate Erythrocyte Polyglutamate Concentration and Clinical Response in Rheumatoid Arthritis Patients Treated With Subcutaneous Injectable Methotrexate</t>
   </si>
   <si>
     <t>SPPLAASH Study : a Randomized Study Aiming at Evaluating the Incidence of Post Lumbar Puncture Headache (PLPH) With the Use of Atraumatic Needles in Hematology</t>
   </si>
   <si>
+    <t>Ex Vivo Evaluation of Immunity Activation Face to Staphylococcus Aureus Antigens and Adjuvants of a Vaccine Candidate in Cells From Haemodialysis Patients</t>
+  </si>
+  <si>
+    <t>Randomised Phase II/III Study, Assessing the Safety and Efficacy of Modified Folfirinox Versus Gemcis in Locally Advanced, Unresectable and/or Metastatic Bile Duct Tumours</t>
+  </si>
+  <si>
+    <t>Chronic Effects of Local Vibration on Neuromuscular Reconditioning After Anterior Cruciate Ligament Reconstruction</t>
+  </si>
+  <si>
+    <t>Innovative Imaging of the Conjunctiva, Cornea, and Ocular Adnexa : Study of a Handheld in Vivo Confocal Microscope and of a Fluorescent in Vivo Confocal Microscope</t>
+  </si>
+  <si>
     <t>Analysis of the Diagnostic Performance of LacryDiag, a New "All-in-one" Non-contact Analyzer of the Ocular Surface in the Dry Eye. Study LACRYMOSA</t>
   </si>
   <si>
-    <t>Prévention chez le receveur avec néphropathie à IgA primaire (NIGA) de la Récidive Après Transplantation rénale: ATG-F versus Basiliximab, comme traitements immunosuppresseurs d’induction.   Etude PIRAT: A vs B</t>
-  </si>
-  <si>
-    <t>Association Between Methotrexate Erythrocyte Polyglutamate Concentration and Clinical Response in Rheumatoid Arthritis Patients Treated With Subcutaneous Injectable Methotrexate</t>
-  </si>
-  <si>
-    <t>Ex Vivo Evaluation of Immunity Activation Face to Staphylococcus Aureus Antigens and Adjuvants of a Vaccine Candidate in Cells From Haemodialysis Patients</t>
-  </si>
-  <si>
-    <t>Randomised Phase II/III Study, Assessing the Safety and Efficacy of Modified Folfirinox Versus Gemcis in Locally Advanced, Unresectable and/or Metastatic Bile Duct Tumours</t>
-  </si>
-  <si>
-    <t>Innovative Imaging of the Conjunctiva, Cornea, and Ocular Adnexa : Study of a Handheld in Vivo Confocal Microscope and of a Fluorescent in Vivo Confocal Microscope</t>
+    <t>In Vivo Evaluation of Growth and Risk of Rupture of Dilated Ascending Aorta Using 4D Cardiac Magnetic Resonance</t>
   </si>
   <si>
     <t>Influence of Emotions on Decision-making in Parkinson's Disease</t>
   </si>
   <si>
-    <t>Decolonization of patients carrying S. aureus before cardiac surgery: study of the risk factors associated with failure 
- Décolonisation des patients porteurs de Staphylococcus aureus en chirurgie cardiaque : étude des facteurs de risque d’échec de décolonisation</t>
-  </si>
-  <si>
-    <t>Association between methotrexate erythrocyte polyglutamate concentration and clinical response in rheumatoid arthritis patients treated with subcutaneous injectable methotrexate</t>
-  </si>
-  <si>
-    <t>Chronic Effects of Local Vibration on Neuromuscular Reconditioning After Anterior Cruciate Ligament Reconstruction</t>
-  </si>
-  <si>
     <t>Low-molecular-weight Heparin in Constituted Vascular Intrauterine Growth Restriction. Randomized Multicenter Trial</t>
   </si>
   <si>
-    <t>In Vivo Evaluation of Growth and Risk of Rupture of Dilated Ascending Aorta Using 4D Cardiac Magnetic Resonance</t>
+    <t>EOS® Versus Spiral CT Technique for Achieving a Pelvimetry in Suites of Obstructed Labor: Comparative Single-center Prospective Study - PELVIC-EOS.</t>
+  </si>
+  <si>
+    <t>Clinical Trial Assessing the Efficacy of Capsaicin Patch (Qutenza®) in Cancer Patients With Neuropathic Pain</t>
+  </si>
+  <si>
+    <t>The OPTI-AGED Study : Influence of a Multi-parametric Optimization Strategy for General Anesthesia on Postoperative Morbidity and Mortality in Elderly Patients. A Randomized, Multicentre, Prospective Controlled Study</t>
+  </si>
+  <si>
+    <t>Effects of Inspiratory Muscles Strengthening Among Coronary Patients on the Sleep Apnea Obstructive Syndrome (SAOS)</t>
   </si>
   <si>
     <t>Effect of Early Education and Information of Sleep Apnea on the Observance of CPAP Treatment</t>
   </si>
   <si>
-    <t>The OPTI-AGED Study : Influence of a Multi-parametric Optimization Strategy for General Anesthesia on Postoperative Morbidity and Mortality in Elderly Patients. A Randomized, Multicentre, Prospective Controlled Study</t>
-  </si>
-  <si>
-    <t>Clinical Trial Assessing the Efficacy of Capsaicin Patch (Qutenza®) in Cancer Patients With Neuropathic Pain</t>
+    <t>Pharmacokinetic and Pharmacodynamic Study of Golimumab in Ulcerative Colitis (UC) Patients With Loss of Response (LOR) Followed by Dose Optimization</t>
+  </si>
+  <si>
+    <t>Comparison of Blood Pressure Control Achieved in Antihypertensive or Generic Drugs in Moderate to Severe Hypertensive Patients</t>
+  </si>
+  <si>
+    <t>Combination Corticosteroids+5-aminosalicylic Acids Compared to Corticosteroids Alone in the Treatment of Moderate-severe Active Ulcerative Colitis: A Protocol of a Multi-center Prospective Randomized Investigator Blinded Trial.</t>
+  </si>
+  <si>
+    <t>Difference in Central Fatigue During Two Ultra-endurance Practices: Running vs. Cycling</t>
+  </si>
+  <si>
+    <t>Comparison of Strategies Based on RT-PCR or Antigenic Test for the Screening of SARS-CoV-2 Infection in General Population Using Self-samples (COVID-19).</t>
   </si>
   <si>
     <t>Physical Activity Experiment on Male Prostate Cancer Patients : Feasibility Multicenter Study of an Innovative Follow-up by Peers</t>
   </si>
   <si>
+    <t>Mélisses Garden: Effect of the Mediation by Care-garden on Anxious State in Adult Patients Hospitalized in Psychiatry (Prospective, Monocentric, Controlled, Randomized, Open in Two Parallel Groups Study)</t>
+  </si>
+  <si>
     <t>Relevance of an Adapted and Supervised Physical Activity Program in Fibromyalgia Patients. The FIMOUV 1 Study. Interventional, Controlled, Randomized, Open Study of an Original Outpatient Management.</t>
   </si>
   <si>
     <t>Comparison of Alcoholic Chlorhexidine 2% Versus Alcoholic Povidone Iodine for Infections Prevention With Cardiac Resynchronization Therapy Device Implantation</t>
   </si>
   <si>
-    <t>Mélisses Garden: Effect of the Mediation by Care-garden on Anxious State in Adult Patients Hospitalized in Psychiatry (Prospective, Monocentric, Controlled, Randomized, Open in Two Parallel Groups Study)</t>
-  </si>
-  <si>
-    <t>Combination Corticosteroids+5-aminosalicylic Acids Compared to Corticosteroids Alone in the Treatment of Moderate-severe Active Ulcerative Colitis: A Protocol of a Multi-center Prospective Randomized Investigator Blinded Trial.</t>
-  </si>
-  <si>
-    <t>EOS® Versus Spiral CT Technique for Achieving a Pelvimetry in Suites of Obstructed Labor: Comparative Single-center Prospective Study - PELVIC-EOS.</t>
-  </si>
-  <si>
-    <t>Comparison of Blood Pressure Control Achieved in Antihypertensive or Generic Drugs in Moderate to Severe Hypertensive Patients</t>
-  </si>
-  <si>
-    <t>Comparison of Strategies Based on RT-PCR or Antigenic Test for the Screening of SARS-CoV-2 Infection in General Population Using Self-samples (COVID-19).</t>
-  </si>
-  <si>
-    <t>Effects of Inspiratory Muscles Strengthening Among Coronary Patients on the Sleep Apnea Obstructive Syndrome (SAOS)</t>
-  </si>
-  <si>
-    <t>Pharmacokinetic and Pharmacodynamic Study of Golimumab in Ulcerative Colitis (UC) Patients With Loss of Response (LOR) Followed by Dose Optimization</t>
-  </si>
-  <si>
-    <t>Difference in Central Fatigue During Two Ultra-endurance Practices: Running vs. Cycling</t>
-  </si>
-  <si>
-    <t>VEDO - PREDIRESPUC project - Value of pharmacokinetic assays (Vedolizumab and anti-vedolizumab antibody) in the prediction of induction and maintenance therapeutic response in Ulcerative Colitis</t>
+    <t>Assessing Force-velocity Profile: an Innovative Approach to Optimize Cardiac Rehabilitation in Coronary Patients</t>
+  </si>
+  <si>
+    <t>Chronic Effects of Wide-pulse Neuromuscular Electrostimulation on Neuromuscular and Functional Properties in Healthy Subjects</t>
+  </si>
+  <si>
+    <t>Influence of PARAmedical Interventions on Patient ACTivation in the Cancer Care Pathway</t>
+  </si>
+  <si>
+    <t>Evaluation of the Efficacy of Serotoninergic Antidepressants in Bulimia Nervosa, According to Brain Serotonin Profile Determined by Positron Emission Tomography With [18F] MPPF - a Multicenter Study</t>
   </si>
   <si>
     <t>Study of Thromboelastography During Tranexamic Acid Treatment in Preventing Bleeding in Patients With Haematological Malignancies Presenting Severe Thrombocytopenia (TTRAP-bleeding)</t>
   </si>
   <si>
-    <t>Evaluation of the Efficacy of Serotoninergic Antidepressants in Bulimia Nervosa, According to Brain Serotonin Profile Determined by Positron Emission Tomography With [18F] MPPF - a Multicenter Study</t>
-  </si>
-  <si>
-    <t>Influence of PARAmedical Interventions on Patient ACTivation in the Cancer Care Pathway</t>
+    <t>Non Inferiority Study of a Reduced Dose of Activated Charcoal on Rivaroxaban Pharmacokinetics.</t>
   </si>
   <si>
     <t>Analysis of the Use of the Fetal Movement Counting for Prolonged Pregnancy: Prospective Randomized Study.</t>
   </si>
   <si>
+    <t>Benefit of Scarf Support on Skin-to-skin Time and Portage in Neonatology and at Home(PAPSE)</t>
+  </si>
+  <si>
+    <t>Effects of Shoe Longitudinal Bending Stiffness on Changes in Energy Cost of Running During a 21 km Run</t>
+  </si>
+  <si>
     <t>Evaluation of Physical Capacities Within the Company and Effect of a Personalized Versus Traditional Training Program on the Quality of Life of Sedentary Employees: Randomized Controlled Trial</t>
   </si>
   <si>
-    <t>Assessing Force-velocity Profile: an Innovative Approach to Optimize Cardiac Rehabilitation in Coronary Patients</t>
-  </si>
-  <si>
-    <t>Non Inferiority Study of a Reduced Dose of Activated Charcoal on Rivaroxaban Pharmacokinetics.</t>
-  </si>
-  <si>
-    <t>Chronic Effects of Wide-pulse Neuromuscular Electrostimulation on Neuromuscular and Functional Properties in Healthy Subjects</t>
-  </si>
-  <si>
-    <t>Effects of Shoe Longitudinal Bending Stiffness on Changes in Energy Cost of Running During a 21 km Run</t>
-  </si>
-  <si>
-    <t>Benefit of Scarf Support on Skin-to-skin Time and Portage in Neonatology and at Home(PAPSE)</t>
+    <t>Cracking the Code of Crying Babies: How Familiarity Changes the Interpretation of Cries</t>
+  </si>
+  <si>
+    <t>Impact of a Focal Muscle Vibration Protocol in Front of the the Anterior Tibial Muscle in the Subacute Post-stroke Period on Motor Recovery in Hemiplegic Patients.</t>
+  </si>
+  <si>
+    <t>Effects of Running Shoe Sole Hardness on Vibration and Neuromuscular Fatigue During a Half-marathon Run on a Treadmill</t>
+  </si>
+  <si>
+    <t>Effectiveness of Computerized Device New of Visual Motor Simulation Versus Mirror Therapy in Hemiplegic Patients. SI-VIM Study</t>
+  </si>
+  <si>
+    <t>Inflammation, Intracellular Invasion and Colonization of the Nasal Mucosa by Staphylococcus Aureus</t>
+  </si>
+  <si>
+    <t>PREMAPESSAIRE: Prevention of Preterm Birth in Singletons Using Pessary After Resolutive Threatened Preterm Labor: a Prospective, Randomized Monocentric Clinical Trial</t>
+  </si>
+  <si>
+    <t>The Effect of Virtual Reality for Pain Management During Intracervical Balloon Placement for Labor Induction: a Randomized Controlled Trial (VIRTUALMAG)</t>
+  </si>
+  <si>
+    <t>Sprint Interval Training (SIT) on the Endurance, Strength and Velocity Capacities of Healthy Sedentary Subjects</t>
   </si>
   <si>
     <t>Imaging of Corneal and Crystalline by Near Infrared Retro-illumination</t>
   </si>
   <si>
-    <t>Cracking the Code of Crying Babies: How Familiarity Changes the Interpretation of Cries</t>
-  </si>
-  <si>
-    <t>Effectiveness of Computerized Device New of Visual Motor Simulation Versus Mirror Therapy in Hemiplegic Patients. SI-VIM Study</t>
-  </si>
-  <si>
-    <t>Evaluation of the neonatal autonomic stress during intubations under Propofol in a population of premature infants under 33 w’GA 
- Evaluation autonomique du stress lors de l’intubation en séquence rapide sous Propofol d’une population de prématurés de moins de 33 SA</t>
-  </si>
-  <si>
-    <t>Effects of Running Shoe Sole Hardness on Vibration and Neuromuscular Fatigue During a Half-marathon Run on a Treadmill</t>
-  </si>
-  <si>
-    <t>Inflammation, Intracellular Invasion and Colonization of the Nasal Mucosa by Staphylococcus Aureus</t>
-  </si>
-  <si>
-    <t>The Effect of Virtual Reality for Pain Management During Intracervical Balloon Placement for Labor Induction: a Randomized Controlled Trial (VIRTUALMAG)</t>
-  </si>
-  <si>
-    <t>Impact of a Focal Muscle Vibration Protocol in Front of the the Anterior Tibial Muscle in the Subacute Post-stroke Period on Motor Recovery in Hemiplegic Patients.</t>
-  </si>
-  <si>
     <t>Factors Influencing the COVID-19 Vaccine Immune Response (Reactogenicity and Immunogenicity) According to Age and Presence or Not of a Past History of COVID-19</t>
   </si>
   <si>
-    <t>Sprint Interval Training (SIT) on the Endurance, Strength and Velocity Capacities of Healthy Sedentary Subjects</t>
-  </si>
-  <si>
-    <t>PREMAPESSAIRE: Prevention of Preterm Birth in Singletons Using Pessary After Resolutive Threatened Preterm Labor: a Prospective, Randomized Monocentric Clinical Trial</t>
+    <t>Cardiac Function and Exercise Capacity in Pulmonary Arterial Hypertension</t>
+  </si>
+  <si>
+    <t>Impact of Joint Crisis Plan on the Duration of Isolation Measures in Psychiatry.</t>
+  </si>
+  <si>
+    <t>Improving Postural Control Through Innovative Stimulation of the Proprioceptive System</t>
+  </si>
+  <si>
+    <t>Pre-therapeutic Validation of the VR-based Exposure Scenario for CBT "ReVBEB" for the Induction of Food Craving in Patients With Bulimia and Binge Eating Disorder</t>
+  </si>
+  <si>
+    <t>Description and Determinants of the Power-speed-endurance Profile (PVE) in Cycling and Rowing to Optimize the Performance of the French Athletes at the Paris Olympics 2024</t>
+  </si>
+  <si>
+    <t>Rotation or Change of Biotherapy After TNF Blocker Treatment Failure for Axial Spondyloarthritis</t>
   </si>
   <si>
     <t>Development of a Methodology to Analyze Nasal Tissue-resident Memory Immune Cells and Peripheral Memory Cells Able to Migrate to Airway Tissues (MUCOVAC)</t>
   </si>
   <si>
-    <t>Pre-therapeutic Validation of the VR-based Exposure Scenario for CBT "ReVBEB" for the Induction of Food Craving in Patients With Bulimia and Binge Eating Disorder</t>
-  </si>
-  <si>
-    <t>Rotation or Change of Biotherapy After TNF Blocker Treatment Failure for Axial Spondyloarthritis</t>
-  </si>
-  <si>
-    <t>Cardiac Function and Exercise Capacity in Pulmonary Arterial Hypertension</t>
-  </si>
-  <si>
-    <t>Description and Determinants of the Power-speed-endurance Profile (PVE) in Cycling and Rowing to Optimize the Performance of the French Athletes at the Paris Olympics 2024</t>
-  </si>
-  <si>
     <t>Phase III Trial Evaluating Radium Bromatum Homeopathic Treatment Efficacy on Radiodermatitis Prevention and Treatment for Breast Cancer Women</t>
   </si>
   <si>
-    <t>Impact of Joint Crisis Plan on the Duration of Isolation Measures in Psychiatry.</t>
-  </si>
-  <si>
-    <t>Improving Postural Control Through Innovative Stimulation of the Proprioceptive System</t>
-  </si>
-  <si>
-    <t>Performance de l’équation MDRD corrigée par la cimétidine chez le patient transplanté rénal</t>
+    <t>Understanding the Measurement of Girdle Dissociation in the Fall of the Older People Subject. Case-control Study</t>
   </si>
   <si>
     <t>Comparison of the protective effect of two cardioplegic solutions Custodiol versus St Thomas on the cardiac metabolism assessed by microdialysis in coronary surgery</t>
   </si>
   <si>
-    <t>Analgésie par bloc continu du plan transverse de l’abdomen en chirurgie d’exérèse hépatique : efficacité et influence sur la réhabilitation précoce.</t>
-  </si>
-  <si>
-    <t>Evaluation by high resolution micro computerized tomography of bone microarchitecture changes in patients with rheumatoid arthritis under anti-TNF therapy.</t>
-  </si>
-  <si>
-    <t>Study of the impact of a targeted decolonization of S. aureus in persistent carriers on the occurrence of S. aureus infections in hemodialysis patients 
- Evaluation de l’impact d’une stratégie de décolonisation ciblée des porteurs persistants de Staphylococcus aureus sur la survenue d’infections à S. aureus en hémodialyse</t>
-  </si>
-  <si>
-    <t>Factors influencing the COVID-19 vaccine immune response (reactogenicity and immunogenicity) according to age and presence or not of a past history of COVID-19. COVIMMUNAGE study 
- Etude des facteurs influençant la réponse immunitaire vaccinale COVID-19 (réactogénicité et immunogénicité) en fonction de l’âge et de la présence ou non d’un antécédent de COVID-19. Etude COVIMMUNAGE</t>
-  </si>
-  <si>
     <t>A survey on the success of inhibitor elimination using individualized concentrate selection and controlled immune tolerance induction</t>
   </si>
   <si>
-    <t>Chemoprophylaxis of SARS-CoV-2 infection (COVID-19) in exposed healthcare workers: a randomized double-blind placebo-controlled clinical trial 
- Essai de chimioprophylaxie de l’infection à SARS-CoV-2 (COVID-19) chez les soignants exposés : essai multicentrique randomisé contrôle versus placebo en double aveugle.</t>
-  </si>
-  <si>
-    <t>Pharmacokinetic study of rituximab induction regimen in ANCA-associated vasculitis : a predictive factor of clinical outcome? (MONITUX) - A multicentric study 
- MONITUX : Evaluation de l’intérêt du MONitoring des taux de riTUXimab et de la recherche d’anticorps anti-rituximab comme facteur prédictif de rechute dans les vascularites à ANCA_x000D_ (Etude pilote, multicentrique)</t>
-  </si>
-  <si>
-    <t>Effet of curarization under general anaesthesia on eye movements in non-strabismus children</t>
-  </si>
-  <si>
-    <t>Low-molecular-weight heparin in constituted vascular intrauterine growth restriction. Randomized multicenter trial</t>
-  </si>
-  <si>
     <t>THIF</t>
   </si>
   <si>
+    <t>LOBOTENS</t>
+  </si>
+  <si>
     <t>PROPICE</t>
   </si>
   <si>
-    <t>LOBOTENS</t>
+    <t>MIGREL</t>
+  </si>
+  <si>
+    <t>PLATINE</t>
   </si>
   <si>
     <t>LEVOBU</t>
   </si>
   <si>
-    <t>PLATINE</t>
-  </si>
-  <si>
-    <t>MIGREL</t>
-  </si>
-  <si>
     <t>MANOTOUX</t>
   </si>
   <si>
+    <t>IMMERSION</t>
+  </si>
+  <si>
     <t>VISTAO2</t>
   </si>
   <si>
     <t>IMAGINE</t>
   </si>
   <si>
-    <t>IMMERSION</t>
+    <t>Cardioplégie</t>
+  </si>
+  <si>
+    <t>PREPIC2</t>
+  </si>
+  <si>
+    <t>PrivSom</t>
   </si>
   <si>
     <t>DOLANS</t>
   </si>
   <si>
-    <t>PREPIC2</t>
-  </si>
-  <si>
-    <t>Cardioplégie</t>
-  </si>
-  <si>
-    <t>PrivSom</t>
-  </si>
-  <si>
     <t>PRNC</t>
   </si>
   <si>
+    <t>H2OBis</t>
+  </si>
+  <si>
+    <t>ScreenStaph</t>
+  </si>
+  <si>
+    <t>HIVOL</t>
+  </si>
+  <si>
     <t>PERIDANS</t>
   </si>
   <si>
-    <t>H2OBis</t>
-  </si>
-  <si>
-    <t>HIVOL</t>
-  </si>
-  <si>
-    <t>ScreenStaph</t>
+    <t>INSPIRE</t>
   </si>
   <si>
     <t>UVFBCL</t>
   </si>
   <si>
-    <t>INSPIRE</t>
+    <t>BABIES_CRY</t>
   </si>
   <si>
     <t>PACT</t>
   </si>
   <si>
+    <t>NIGA-RA</t>
+  </si>
+  <si>
     <t>ATH-ENTE</t>
   </si>
   <si>
-    <t>NIGA-RA</t>
-  </si>
-  <si>
-    <t>BABIES_CRY</t>
+    <t>BBSUCROSE</t>
+  </si>
+  <si>
+    <t>MODOU</t>
+  </si>
+  <si>
+    <t>CLICA</t>
   </si>
   <si>
     <t>BIPP</t>
   </si>
   <si>
+    <t>PREVANS</t>
+  </si>
+  <si>
+    <t>VIBROS</t>
+  </si>
+  <si>
+    <t>EVEREST</t>
+  </si>
+  <si>
     <t>FSHD1</t>
   </si>
   <si>
-    <t>AAPIX</t>
-  </si>
-  <si>
-    <t>VIBROS</t>
-  </si>
-  <si>
-    <t>MODOU</t>
-  </si>
-  <si>
-    <t>BB SUCROSE</t>
-  </si>
-  <si>
-    <t>EVEREST</t>
-  </si>
-  <si>
-    <t>BBSUCROSE</t>
-  </si>
-  <si>
-    <t>CLICA</t>
-  </si>
-  <si>
-    <t>PREVANS</t>
+    <t>PORTO</t>
+  </si>
+  <si>
+    <t>ECHO-GAST</t>
+  </si>
+  <si>
+    <t>LACME</t>
   </si>
   <si>
     <t>FLUOTECH</t>
   </si>
   <si>
-    <t>LACME</t>
+    <t>RICHAR</t>
   </si>
   <si>
     <t>EXDRE</t>
@@ -1284,134 +1282,142 @@
     <t>NEUROVIB</t>
   </si>
   <si>
-    <t>ECHO-GAST</t>
-  </si>
-  <si>
-    <t>PORTO</t>
-  </si>
-  <si>
-    <t>RICHAR</t>
+    <t>AMOS</t>
+  </si>
+  <si>
+    <t>SREENSTAPH2</t>
+  </si>
+  <si>
+    <t>METRO B</t>
   </si>
   <si>
     <t>ColoStaph</t>
   </si>
   <si>
-    <t>AMOS</t>
+    <t>ECHOSCAN</t>
   </si>
   <si>
     <t>DIRECTE</t>
   </si>
   <si>
-    <t>SREENSTAPH2</t>
-  </si>
-  <si>
-    <t>METRO B</t>
+    <t>EXESAS</t>
   </si>
   <si>
     <t>ELASTOREPRO</t>
   </si>
   <si>
-    <t>ECHOSCAN</t>
-  </si>
-  <si>
-    <t>EXESAS</t>
+    <t>ANSRA</t>
   </si>
   <si>
     <t>Co-PAP</t>
   </si>
   <si>
-    <t>ANSRA</t>
+    <t>GALAXY</t>
+  </si>
+  <si>
+    <t>HIVOL2</t>
   </si>
   <si>
     <t>FOLLOW_EXESAS</t>
   </si>
   <si>
-    <t>GALAXY</t>
+    <t>PREVATHLE</t>
   </si>
   <si>
     <t>TAMALOU</t>
   </si>
   <si>
-    <t>HIVOL2</t>
-  </si>
-  <si>
     <t>CaspoKin</t>
   </si>
   <si>
-    <t>PREVATHLE</t>
+    <t>QUADRIVEND</t>
+  </si>
+  <si>
+    <t>UTMB_2019</t>
+  </si>
+  <si>
+    <t>IDEXACOR</t>
+  </si>
+  <si>
+    <t>OptiPAC</t>
+  </si>
+  <si>
+    <t>POIR</t>
+  </si>
+  <si>
+    <t>GRASP</t>
+  </si>
+  <si>
+    <t>EBLOUI</t>
+  </si>
+  <si>
+    <t>FES Cycling</t>
   </si>
   <si>
     <t>BEONE</t>
   </si>
   <si>
-    <t>QUADRIVEND</t>
-  </si>
-  <si>
-    <t>FES Cycling</t>
-  </si>
-  <si>
-    <t>OptiPAC</t>
-  </si>
-  <si>
-    <t>UTMB_2019</t>
-  </si>
-  <si>
-    <t>POIR</t>
-  </si>
-  <si>
-    <t>GRASP</t>
-  </si>
-  <si>
-    <t>EBLOUI</t>
-  </si>
-  <si>
-    <t>IDEXACOR</t>
+    <t>POLYGLU</t>
   </si>
   <si>
     <t>SPPLAASH</t>
   </si>
   <si>
+    <t>ANTISTAPH</t>
+  </si>
+  <si>
+    <t>AMEBICA</t>
+  </si>
+  <si>
+    <t>VIB_LCA</t>
+  </si>
+  <si>
+    <t>INNOV-EYE</t>
+  </si>
+  <si>
     <t>LACRYMOSA</t>
   </si>
   <si>
-    <t>PIRAT</t>
-  </si>
-  <si>
-    <t>POLYGLU</t>
-  </si>
-  <si>
-    <t>ANTISTAPH</t>
-  </si>
-  <si>
-    <t>AMEBICA</t>
-  </si>
-  <si>
-    <t>INNOV-EYE</t>
-  </si>
-  <si>
-    <t>STAdécol 
- STAdécol</t>
-  </si>
-  <si>
-    <t>VIB_LCA</t>
-  </si>
-  <si>
     <t>GROWTH</t>
   </si>
   <si>
+    <t>PELVI-EOS</t>
+  </si>
+  <si>
+    <t>CAPSONCO</t>
+  </si>
+  <si>
+    <t>OPTI-AGED</t>
+  </si>
+  <si>
+    <t>RICAOS</t>
+  </si>
+  <si>
     <t>CoachSAS</t>
   </si>
   <si>
-    <t>OPTI-AGED</t>
-  </si>
-  <si>
-    <t>CAPSONCO</t>
+    <t>GOLILOR</t>
+  </si>
+  <si>
+    <t>PRINGEN</t>
+  </si>
+  <si>
+    <t>COMBOMESA</t>
+  </si>
+  <si>
+    <t>FAT-CENTR</t>
+  </si>
+  <si>
+    <t>AutoCoV</t>
+  </si>
+  <si>
+    <t>ACTI_PAIR</t>
   </si>
   <si>
     <t>OCTAV</t>
   </si>
   <si>
-    <t>ACTI_PAIR</t>
+    <t>JDM</t>
   </si>
   <si>
     <t>FIMOUV 1</t>
@@ -1420,152 +1426,105 @@
     <t>CHLOVIS</t>
   </si>
   <si>
-    <t>JDM</t>
-  </si>
-  <si>
-    <t>COMBOMESA</t>
-  </si>
-  <si>
-    <t>PELVI-EOS</t>
-  </si>
-  <si>
-    <t>PRINGEN</t>
-  </si>
-  <si>
-    <t>AutoCoV</t>
-  </si>
-  <si>
-    <t>RICAOS</t>
-  </si>
-  <si>
-    <t>GOLILOR</t>
-  </si>
-  <si>
-    <t>FAT-CENTR</t>
+    <t>CITIUS</t>
+  </si>
+  <si>
+    <t>ELECTRO-WP</t>
+  </si>
+  <si>
+    <t>PARACT</t>
   </si>
   <si>
     <t>TTRAP-Bleeding</t>
   </si>
   <si>
-    <t>PARACT</t>
+    <t>RICHAR2</t>
   </si>
   <si>
     <t>COMPTAMAF</t>
   </si>
   <si>
+    <t>PAPSE</t>
+  </si>
+  <si>
+    <t>FAT-FLEX</t>
+  </si>
+  <si>
     <t>MOVING_LAB</t>
   </si>
   <si>
-    <t>CITIUS</t>
-  </si>
-  <si>
-    <t>RICHAR2</t>
-  </si>
-  <si>
-    <t>ELECTRO-WP</t>
-  </si>
-  <si>
-    <t>FAT-FLEX</t>
-  </si>
-  <si>
-    <t>PAPSE</t>
+    <t>BEBEDOL</t>
+  </si>
+  <si>
+    <t>VIBRATAC</t>
+  </si>
+  <si>
+    <t>FAT-VIB</t>
+  </si>
+  <si>
+    <t>SI-VIM</t>
+  </si>
+  <si>
+    <t>I3COSa</t>
+  </si>
+  <si>
+    <t>PREMAPESSAIRE</t>
+  </si>
+  <si>
+    <t>VIRTUALMAG</t>
+  </si>
+  <si>
+    <t>BénéfiSIT</t>
   </si>
   <si>
     <t>RETRO-ILLUMI</t>
   </si>
   <si>
-    <t>BEBEDOL</t>
-  </si>
-  <si>
-    <t>SI-VIM</t>
-  </si>
-  <si>
-    <t>PROPOSURF 
- PROPOSURF</t>
-  </si>
-  <si>
-    <t>FAT-VIB</t>
-  </si>
-  <si>
-    <t>I3COSa</t>
-  </si>
-  <si>
-    <t>VIRTUALMAG</t>
-  </si>
-  <si>
-    <t>VIBRATAC</t>
-  </si>
-  <si>
     <t>COVIMMUNAGE</t>
   </si>
   <si>
-    <t>BénéfiSIT</t>
-  </si>
-  <si>
-    <t>PREMAPESSAIRE</t>
+    <t>FONCE-HTAP</t>
+  </si>
+  <si>
+    <t>PLANCO-ISO</t>
+  </si>
+  <si>
+    <t>IMPULSES</t>
+  </si>
+  <si>
+    <t>RevBED</t>
+  </si>
+  <si>
+    <t>THPCA2024</t>
+  </si>
+  <si>
+    <t>ROC-SPA</t>
   </si>
   <si>
     <t>MUCOVAC</t>
   </si>
   <si>
-    <t>RevBED</t>
-  </si>
-  <si>
-    <t>ROC-SPA</t>
-  </si>
-  <si>
-    <t>FONCE-HTAP</t>
-  </si>
-  <si>
-    <t>THPCA2024</t>
-  </si>
-  <si>
     <t>HOMEORAD</t>
   </si>
   <si>
-    <t>PLANCO-ISO</t>
-  </si>
-  <si>
-    <t>IMPULSES</t>
-  </si>
-  <si>
-    <t>CIBERSTAPH 
- CIBERSTAPH</t>
-  </si>
-  <si>
-    <t>COVIMMUNAGE 
- COVIMMUNAGE</t>
+    <t>EPAD-C2</t>
   </si>
   <si>
     <t>OBSITI</t>
   </si>
   <si>
-    <t>COVIDAXIS 
- COVIDAXIS</t>
-  </si>
-  <si>
-    <t>MONITUX</t>
-  </si>
-  <si>
-    <t>STRABO</t>
-  </si>
-  <si>
-    <t>GROWTH 
- GROWTH</t>
-  </si>
-  <si>
     <t>PROCEDURE</t>
   </si>
   <si>
     <t>DRUG</t>
   </si>
   <si>
+    <t>DEVICE</t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
-    <t>DEVICE</t>
-  </si>
-  <si>
     <t>BEHAVIORAL</t>
   </si>
   <si>
@@ -1576,6 +1535,9 @@
   </si>
   <si>
     <t>DIAGNOSTIC_TEST</t>
+  </si>
+  <si>
+    <t>DRUG (presumed)</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1895,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1979,13 +1941,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="I2" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1999,13 +1961,16 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="G3" t="s">
-        <v>209</v>
+        <v>226</v>
+      </c>
+      <c r="H3" t="s">
+        <v>380</v>
       </c>
       <c r="I3" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2019,102 +1984,105 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H4" t="s">
-        <v>379</v>
+        <v>227</v>
       </c>
       <c r="I4" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>228</v>
+      </c>
+      <c r="H5" t="s">
+        <v>381</v>
       </c>
       <c r="I5" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
       <c r="F6" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="G6" t="s">
-        <v>212</v>
+        <v>229</v>
+      </c>
+      <c r="H6" t="s">
+        <v>382</v>
       </c>
       <c r="I6" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="G7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" t="s">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="I7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
+      <c r="D8" t="s">
+        <v>172</v>
+      </c>
       <c r="F8" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>214</v>
-      </c>
-      <c r="H8" t="s">
-        <v>381</v>
+        <v>231</v>
       </c>
       <c r="I8" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2127,14 +2095,17 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
+      <c r="D9" t="s">
+        <v>173</v>
+      </c>
       <c r="F9" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="G9" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="I9" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2148,13 +2119,13 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="G10" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="I10" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2164,63 +2135,72 @@
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>170</v>
+      <c r="C11" t="s">
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="G11" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="H11" t="s">
-        <v>382</v>
+        <v>383</v>
+      </c>
+      <c r="I11" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>174</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="G12" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="H12" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I12" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>175</v>
       </c>
       <c r="F13" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="G13" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H13" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I13" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2231,19 +2211,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G14" t="s">
-        <v>220</v>
-      </c>
-      <c r="H14" t="s">
-        <v>384</v>
+        <v>237</v>
       </c>
       <c r="I14" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2254,19 +2231,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="G15" t="s">
-        <v>221</v>
-      </c>
-      <c r="H15" t="s">
-        <v>385</v>
+        <v>238</v>
       </c>
       <c r="I15" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2277,16 +2251,19 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="G16" t="s">
-        <v>222</v>
+        <v>239</v>
+      </c>
+      <c r="H16" t="s">
+        <v>386</v>
       </c>
       <c r="I16" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2297,16 +2274,19 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G17" t="s">
-        <v>223</v>
+        <v>240</v>
+      </c>
+      <c r="H17" t="s">
+        <v>387</v>
       </c>
       <c r="I17" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2317,19 +2297,19 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="G18" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="H18" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I18" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2340,19 +2320,22 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>176</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="H19" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I19" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2363,42 +2346,42 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G20" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="H20" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I20" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="G21" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="H21" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="I21" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2409,39 +2392,39 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>228</v>
+        <v>245</v>
+      </c>
+      <c r="H22" t="s">
+        <v>392</v>
       </c>
       <c r="I22" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>229</v>
-      </c>
-      <c r="H23" t="s">
-        <v>390</v>
+        <v>246</v>
       </c>
       <c r="I23" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2452,19 +2435,16 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>230</v>
-      </c>
-      <c r="H24" t="s">
-        <v>391</v>
+        <v>247</v>
       </c>
       <c r="I24" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2475,16 +2455,22 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>177</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
-        <v>231</v>
+        <v>248</v>
+      </c>
+      <c r="H25" t="s">
+        <v>393</v>
       </c>
       <c r="I25" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2495,19 +2481,19 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G26" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="H26" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I26" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2518,19 +2504,19 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G27" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="H27" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I27" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2541,16 +2527,19 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G28" t="s">
-        <v>234</v>
+        <v>251</v>
+      </c>
+      <c r="H28" t="s">
+        <v>396</v>
       </c>
       <c r="I28" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2561,19 +2550,22 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>178</v>
       </c>
       <c r="F29" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G29" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="H29" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="I29" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2584,19 +2576,19 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G30" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="H30" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I30" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2607,42 +2599,39 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G31" t="s">
-        <v>237</v>
-      </c>
-      <c r="H31" t="s">
-        <v>396</v>
+        <v>254</v>
       </c>
       <c r="I31" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G32" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="H32" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I32" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2653,19 +2642,16 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G33" t="s">
-        <v>239</v>
-      </c>
-      <c r="H33" t="s">
-        <v>398</v>
+        <v>256</v>
       </c>
       <c r="I33" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2676,16 +2662,19 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G34" t="s">
-        <v>240</v>
+        <v>257</v>
+      </c>
+      <c r="H34" t="s">
+        <v>400</v>
       </c>
       <c r="I34" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2696,39 +2685,39 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G35" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="I35" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="G36" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="H36" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I36" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2739,19 +2728,16 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="G37" t="s">
-        <v>243</v>
-      </c>
-      <c r="H37" t="s">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="I37" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2762,16 +2748,19 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="G38" t="s">
-        <v>244</v>
+        <v>261</v>
+      </c>
+      <c r="H38" t="s">
+        <v>402</v>
       </c>
       <c r="I38" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2782,16 +2771,19 @@
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="G39" t="s">
-        <v>245</v>
+        <v>262</v>
+      </c>
+      <c r="H39" t="s">
+        <v>403</v>
       </c>
       <c r="I39" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2802,19 +2794,19 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="G40" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="H40" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="I40" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2825,19 +2817,16 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="G41" t="s">
-        <v>247</v>
-      </c>
-      <c r="H41" t="s">
-        <v>402</v>
+        <v>264</v>
       </c>
       <c r="I41" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2848,19 +2837,16 @@
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="G42" t="s">
-        <v>248</v>
-      </c>
-      <c r="H42" t="s">
-        <v>403</v>
+        <v>265</v>
       </c>
       <c r="I42" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2871,16 +2857,22 @@
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>179</v>
       </c>
       <c r="F43" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="G43" t="s">
-        <v>249</v>
+        <v>266</v>
+      </c>
+      <c r="H43" t="s">
+        <v>405</v>
       </c>
       <c r="I43" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2891,39 +2883,39 @@
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G44" t="s">
-        <v>250</v>
-      </c>
-      <c r="H44" t="s">
-        <v>404</v>
+        <v>267</v>
       </c>
       <c r="I44" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G45" t="s">
-        <v>251</v>
+        <v>268</v>
+      </c>
+      <c r="H45" t="s">
+        <v>406</v>
       </c>
       <c r="I45" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2934,19 +2926,22 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="D46" t="s">
+        <v>180</v>
       </c>
       <c r="F46" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G46" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="H46" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I46" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2956,17 +2951,17 @@
       <c r="B47" t="s">
         <v>13</v>
       </c>
-      <c r="D47" t="s">
-        <v>171</v>
+      <c r="C47" t="s">
+        <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G47" t="s">
-        <v>253</v>
-      </c>
-      <c r="H47" t="s">
-        <v>406</v>
+        <v>270</v>
+      </c>
+      <c r="I47" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2977,39 +2972,45 @@
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
       </c>
       <c r="F48" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G48" t="s">
-        <v>254</v>
+        <v>271</v>
+      </c>
+      <c r="H48" t="s">
+        <v>408</v>
       </c>
       <c r="I48" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F49" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G49" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="H49" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I49" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3020,19 +3021,19 @@
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F50" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G50" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="H50" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I50" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3042,37 +3043,40 @@
       <c r="B51" t="s">
         <v>13</v>
       </c>
-      <c r="D51" t="s">
-        <v>172</v>
+      <c r="C51" t="s">
+        <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G51" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="H51" t="s">
-        <v>409</v>
+        <v>411</v>
+      </c>
+      <c r="I51" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F52" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G52" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="I52" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3083,19 +3087,19 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G53" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="H53" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I53" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3106,88 +3110,85 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F54" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G54" t="s">
-        <v>260</v>
-      </c>
-      <c r="H54" t="s">
-        <v>411</v>
+        <v>277</v>
       </c>
       <c r="I54" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>182</v>
       </c>
       <c r="F55" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G55" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="H55" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I55" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G56" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="H56" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I56" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F57" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G57" t="s">
-        <v>263</v>
-      </c>
-      <c r="H57" t="s">
-        <v>414</v>
+        <v>280</v>
       </c>
       <c r="I57" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3198,59 +3199,71 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F58" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G58" t="s">
-        <v>264</v>
+        <v>281</v>
+      </c>
+      <c r="H58" t="s">
+        <v>415</v>
       </c>
       <c r="I58" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="D59" t="s">
+        <v>183</v>
       </c>
       <c r="F59" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G59" t="s">
-        <v>265</v>
+        <v>282</v>
+      </c>
+      <c r="H59" t="s">
+        <v>416</v>
       </c>
       <c r="I59" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="D60" t="s">
+        <v>184</v>
       </c>
       <c r="F60" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G60" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="H60" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I60" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3261,19 +3274,19 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G61" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="H61" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I61" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3284,42 +3297,39 @@
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F62" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G62" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="H62" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I62" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G63" t="s">
-        <v>269</v>
-      </c>
-      <c r="H63" t="s">
-        <v>418</v>
+        <v>286</v>
       </c>
       <c r="I63" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3330,16 +3340,19 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F64" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G64" t="s">
-        <v>270</v>
+        <v>287</v>
+      </c>
+      <c r="H64" t="s">
+        <v>420</v>
       </c>
       <c r="I64" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3350,19 +3363,16 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F65" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G65" t="s">
-        <v>271</v>
-      </c>
-      <c r="H65" t="s">
-        <v>419</v>
+        <v>288</v>
       </c>
       <c r="I65" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3373,68 +3383,62 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F66" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G66" t="s">
-        <v>272</v>
-      </c>
-      <c r="H66" t="s">
-        <v>420</v>
+        <v>289</v>
       </c>
       <c r="I66" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="F67" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G67" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="H67" t="s">
         <v>421</v>
       </c>
       <c r="I67" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F68" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="G68" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="H68" t="s">
         <v>422</v>
       </c>
       <c r="I68" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3445,16 +3449,19 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F69" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="G69" t="s">
-        <v>275</v>
+        <v>292</v>
+      </c>
+      <c r="H69" t="s">
+        <v>423</v>
       </c>
       <c r="I69" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3465,16 +3472,22 @@
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="D70" t="s">
+        <v>185</v>
       </c>
       <c r="F70" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="G70" t="s">
-        <v>276</v>
+        <v>293</v>
+      </c>
+      <c r="H70" t="s">
+        <v>424</v>
       </c>
       <c r="I70" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3485,19 +3498,19 @@
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F71" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="G71" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="H71" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="I71" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3508,19 +3521,19 @@
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F72" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="G72" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="H72" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I72" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3531,62 +3544,65 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F73" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="G73" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="H73" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I73" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F74" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="G74" t="s">
-        <v>280</v>
+        <v>297</v>
+      </c>
+      <c r="H74" t="s">
+        <v>428</v>
       </c>
       <c r="I74" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F75" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="G75" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="H75" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="I75" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3597,19 +3613,16 @@
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F76" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="G76" t="s">
-        <v>282</v>
-      </c>
-      <c r="H76" t="s">
-        <v>427</v>
+        <v>299</v>
       </c>
       <c r="I76" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3620,39 +3633,39 @@
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="D77" t="s">
+        <v>186</v>
       </c>
       <c r="F77" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="G77" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="I77" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F78" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="G78" t="s">
-        <v>284</v>
-      </c>
-      <c r="H78" t="s">
-        <v>428</v>
+        <v>301</v>
       </c>
       <c r="I78" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3663,19 +3676,16 @@
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F79" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G79" t="s">
-        <v>285</v>
-      </c>
-      <c r="H79" t="s">
-        <v>429</v>
+        <v>302</v>
       </c>
       <c r="I79" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3686,39 +3696,36 @@
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F80" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G80" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="I80" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F81" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G81" t="s">
-        <v>287</v>
-      </c>
-      <c r="H81" t="s">
-        <v>430</v>
+        <v>304</v>
       </c>
       <c r="I81" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3729,16 +3736,16 @@
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F82" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G82" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I82" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3749,16 +3756,19 @@
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F83" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G83" t="s">
-        <v>289</v>
+        <v>306</v>
+      </c>
+      <c r="H83" t="s">
+        <v>430</v>
       </c>
       <c r="I83" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3769,19 +3779,19 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F84" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G84" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="H84" t="s">
         <v>431</v>
       </c>
       <c r="I84" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3792,16 +3802,19 @@
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F85" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G85" t="s">
-        <v>291</v>
+        <v>308</v>
+      </c>
+      <c r="H85" t="s">
+        <v>432</v>
       </c>
       <c r="I85" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3812,16 +3825,16 @@
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F86" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G86" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="I86" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3832,39 +3845,42 @@
         <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F87" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G87" t="s">
-        <v>293</v>
-      </c>
-      <c r="H87" t="s">
-        <v>432</v>
+        <v>310</v>
       </c>
       <c r="I87" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="D88" t="s">
+        <v>187</v>
       </c>
       <c r="F88" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G88" t="s">
-        <v>294</v>
+        <v>311</v>
+      </c>
+      <c r="H88" t="s">
+        <v>433</v>
       </c>
       <c r="I88" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3875,39 +3891,42 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F89" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G89" t="s">
-        <v>295</v>
+        <v>312</v>
+      </c>
+      <c r="H89" t="s">
+        <v>434</v>
       </c>
       <c r="I89" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F90" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G90" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="H90" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I90" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3918,19 +3937,19 @@
         <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F91" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G91" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="H91" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I91" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3941,19 +3960,22 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="D92" t="s">
+        <v>188</v>
       </c>
       <c r="F92" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G92" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="H92" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I92" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3964,65 +3986,68 @@
         <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F93" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G93" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="H93" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I93" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F94" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G94" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="H94" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I94" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="D95" t="s">
+        <v>189</v>
       </c>
       <c r="F95" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G95" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="H95" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I95" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4033,19 +4058,19 @@
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F96" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G96" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="H96" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I96" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4056,19 +4081,19 @@
         <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F97" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G97" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="H97" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I97" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4079,65 +4104,65 @@
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F98" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G98" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="H98" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I98" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F99" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G99" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="H99" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I99" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F100" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G100" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="H100" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="I100" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4148,19 +4173,19 @@
         <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G101" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="H101" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I101" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4171,111 +4196,117 @@
         <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="D102" t="s">
+        <v>190</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G102" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="H102" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I102" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G103" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="H103" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="I103" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G104" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="H104" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I104" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="D105" t="s">
+        <v>191</v>
       </c>
       <c r="F105" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="G105" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="H105" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I105" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F106" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="G106" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="H106" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I106" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4285,17 +4316,20 @@
       <c r="B107" t="s">
         <v>13</v>
       </c>
-      <c r="D107" t="s">
-        <v>174</v>
+      <c r="C107" t="s">
+        <v>122</v>
       </c>
       <c r="F107" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="G107" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="H107" t="s">
-        <v>450</v>
+        <v>452</v>
+      </c>
+      <c r="I107" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4306,19 +4340,19 @@
         <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F108" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="G108" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="H108" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I108" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4329,42 +4363,36 @@
         <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F109" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="G109" t="s">
-        <v>315</v>
-      </c>
-      <c r="H109" t="s">
-        <v>452</v>
+        <v>332</v>
       </c>
       <c r="I109" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F110" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="G110" t="s">
-        <v>316</v>
-      </c>
-      <c r="H110" t="s">
-        <v>453</v>
+        <v>333</v>
       </c>
       <c r="I110" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4375,19 +4403,22 @@
         <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+      <c r="D111" t="s">
+        <v>192</v>
       </c>
       <c r="F111" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="G111" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="H111" t="s">
         <v>454</v>
       </c>
       <c r="I111" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4398,16 +4429,19 @@
         <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F112" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="G112" t="s">
-        <v>318</v>
+        <v>335</v>
+      </c>
+      <c r="H112" t="s">
+        <v>455</v>
       </c>
       <c r="I112" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4417,60 +4451,69 @@
       <c r="B113" t="s">
         <v>13</v>
       </c>
+      <c r="C113" t="s">
+        <v>128</v>
+      </c>
       <c r="D113" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="F113" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="G113" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="H113" t="s">
-        <v>455</v>
+        <v>456</v>
+      </c>
+      <c r="I113" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114" t="s">
-        <v>176</v>
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
+        <v>129</v>
       </c>
       <c r="F114" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="G114" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="H114" t="s">
-        <v>451</v>
+        <v>457</v>
+      </c>
+      <c r="I114" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F115" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="G115" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="H115" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="I115" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4481,19 +4524,19 @@
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F116" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="G116" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="H116" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I116" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4504,16 +4547,22 @@
         <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>126</v>
+        <v>132</v>
+      </c>
+      <c r="D117" t="s">
+        <v>194</v>
       </c>
       <c r="F117" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="G117" t="s">
-        <v>323</v>
+        <v>340</v>
+      </c>
+      <c r="H117" t="s">
+        <v>460</v>
       </c>
       <c r="I117" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4524,42 +4573,48 @@
         <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>127</v>
+        <v>133</v>
+      </c>
+      <c r="D118" t="s">
+        <v>195</v>
       </c>
       <c r="F118" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G118" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="H118" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="I118" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>128</v>
+        <v>134</v>
+      </c>
+      <c r="D119" t="s">
+        <v>196</v>
       </c>
       <c r="F119" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G119" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="H119" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="I119" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4570,42 +4625,42 @@
         <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F120" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G120" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="H120" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="I120" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F121" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G121" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H121" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="I121" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4616,19 +4671,19 @@
         <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F122" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G122" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="H122" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="I122" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4639,19 +4694,19 @@
         <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F123" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G123" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="H123" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I123" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4662,19 +4717,19 @@
         <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F124" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G124" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="H124" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="I124" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4685,19 +4740,19 @@
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F125" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G125" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="H125" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="I125" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4708,19 +4763,22 @@
         <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>135</v>
+        <v>141</v>
+      </c>
+      <c r="D126" t="s">
+        <v>197</v>
       </c>
       <c r="F126" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G126" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="H126" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="I126" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4731,19 +4789,19 @@
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F127" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G127" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="H127" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="I127" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4754,19 +4812,19 @@
         <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F128" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G128" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="H128" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="I128" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4777,19 +4835,19 @@
         <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F129" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G129" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="H129" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="I129" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4800,19 +4858,19 @@
         <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="D130" t="s">
+        <v>198</v>
       </c>
       <c r="F130" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G130" t="s">
-        <v>335</v>
-      </c>
-      <c r="H130" t="s">
-        <v>470</v>
+        <v>352</v>
       </c>
       <c r="I130" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4823,19 +4881,22 @@
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="D131" t="s">
+        <v>199</v>
       </c>
       <c r="F131" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G131" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="H131" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I131" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4846,19 +4907,22 @@
         <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>141</v>
+        <v>147</v>
+      </c>
+      <c r="D132" t="s">
+        <v>200</v>
       </c>
       <c r="F132" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G132" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="H132" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="I132" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4868,14 +4932,20 @@
       <c r="B133" t="s">
         <v>13</v>
       </c>
-      <c r="D133" t="s">
-        <v>177</v>
+      <c r="C133" t="s">
+        <v>148</v>
       </c>
       <c r="F133" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="G133" t="s">
-        <v>338</v>
+        <v>355</v>
+      </c>
+      <c r="H133" t="s">
+        <v>475</v>
+      </c>
+      <c r="I133" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4886,19 +4956,19 @@
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F134" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="G134" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="H134" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="I134" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4909,39 +4979,42 @@
         <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F135" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="G135" t="s">
-        <v>340</v>
+        <v>357</v>
+      </c>
+      <c r="H135" t="s">
+        <v>477</v>
       </c>
       <c r="I135" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F136" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="G136" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="H136" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="I136" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4952,19 +5025,19 @@
         <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F137" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G137" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="H137" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I137" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4975,19 +5048,19 @@
         <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F138" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G138" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="H138" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="I138" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4998,19 +5071,19 @@
         <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F139" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G139" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="H139" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="I139" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5021,19 +5094,19 @@
         <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F140" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G140" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="H140" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="I140" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5044,19 +5117,19 @@
         <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F141" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G141" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="H141" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="I141" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5067,19 +5140,19 @@
         <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F142" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G142" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="H142" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="I142" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5090,19 +5163,19 @@
         <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F143" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G143" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="H143" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="I143" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5113,19 +5186,19 @@
         <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F144" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="G144" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="H144" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="I144" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5136,19 +5209,19 @@
         <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F145" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="G145" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="H145" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I145" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5159,19 +5232,22 @@
         <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>154</v>
+        <v>161</v>
+      </c>
+      <c r="D146" t="s">
+        <v>201</v>
       </c>
       <c r="F146" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="G146" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="H146" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="I146" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5181,17 +5257,20 @@
       <c r="B147" t="s">
         <v>13</v>
       </c>
-      <c r="D147" t="s">
-        <v>178</v>
+      <c r="C147" t="s">
+        <v>162</v>
       </c>
       <c r="F147" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G147" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="H147" t="s">
-        <v>485</v>
+        <v>489</v>
+      </c>
+      <c r="I147" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5202,19 +5281,19 @@
         <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F148" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G148" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="H148" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="I148" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5225,19 +5304,19 @@
         <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F149" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G149" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="H149" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="I149" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5248,19 +5327,19 @@
         <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F150" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G150" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="H150" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="I150" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5271,19 +5350,19 @@
         <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F151" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G151" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="H151" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="I151" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5294,19 +5373,22 @@
         <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>159</v>
+        <v>167</v>
+      </c>
+      <c r="D152" t="s">
+        <v>202</v>
       </c>
       <c r="F152" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G152" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="H152" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="I152" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5317,19 +5399,19 @@
         <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F153" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G153" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="H153" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="I153" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5340,19 +5422,22 @@
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>161</v>
+        <v>169</v>
+      </c>
+      <c r="D154" t="s">
+        <v>203</v>
       </c>
       <c r="F154" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G154" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="H154" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="I154" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5363,19 +5448,19 @@
         <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F155" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G155" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="H155" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="I155" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5385,20 +5470,14 @@
       <c r="B156" t="s">
         <v>13</v>
       </c>
-      <c r="C156" t="s">
-        <v>163</v>
-      </c>
-      <c r="F156" t="s">
-        <v>207</v>
+      <c r="D156" t="s">
+        <v>204</v>
       </c>
       <c r="G156" t="s">
-        <v>361</v>
-      </c>
-      <c r="H156" t="s">
-        <v>494</v>
+        <v>378</v>
       </c>
       <c r="I156" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5408,309 +5487,16 @@
       <c r="B157" t="s">
         <v>13</v>
       </c>
-      <c r="C157" t="s">
-        <v>164</v>
-      </c>
-      <c r="F157" t="s">
-        <v>207</v>
+      <c r="D157" t="s">
+        <v>205</v>
       </c>
       <c r="G157" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="H157" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="I157" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" t="s">
-        <v>9</v>
-      </c>
-      <c r="B158" t="s">
-        <v>13</v>
-      </c>
-      <c r="C158" t="s">
-        <v>165</v>
-      </c>
-      <c r="F158" t="s">
-        <v>207</v>
-      </c>
-      <c r="G158" t="s">
-        <v>363</v>
-      </c>
-      <c r="H158" t="s">
-        <v>496</v>
-      </c>
-      <c r="I158" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" t="s">
-        <v>9</v>
-      </c>
-      <c r="B159" t="s">
-        <v>13</v>
-      </c>
-      <c r="C159" t="s">
-        <v>166</v>
-      </c>
-      <c r="F159" t="s">
-        <v>207</v>
-      </c>
-      <c r="G159" t="s">
-        <v>364</v>
-      </c>
-      <c r="H159" t="s">
-        <v>497</v>
-      </c>
-      <c r="I159" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" t="s">
-        <v>9</v>
-      </c>
-      <c r="B160" t="s">
-        <v>13</v>
-      </c>
-      <c r="C160" t="s">
-        <v>167</v>
-      </c>
-      <c r="F160" t="s">
-        <v>207</v>
-      </c>
-      <c r="G160" t="s">
-        <v>365</v>
-      </c>
-      <c r="H160" t="s">
-        <v>498</v>
-      </c>
-      <c r="I160" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" t="s">
-        <v>9</v>
-      </c>
-      <c r="B161" t="s">
-        <v>13</v>
-      </c>
-      <c r="C161" t="s">
-        <v>168</v>
-      </c>
-      <c r="F161" t="s">
-        <v>207</v>
-      </c>
-      <c r="G161" t="s">
-        <v>366</v>
-      </c>
-      <c r="H161" t="s">
-        <v>499</v>
-      </c>
-      <c r="I161" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
-      <c r="A162" t="s">
-        <v>9</v>
-      </c>
-      <c r="B162" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" t="s">
-        <v>169</v>
-      </c>
-      <c r="F162" t="s">
-        <v>207</v>
-      </c>
-      <c r="G162" t="s">
-        <v>367</v>
-      </c>
-      <c r="H162" t="s">
-        <v>500</v>
-      </c>
-      <c r="I162" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
-      <c r="A163" t="s">
-        <v>9</v>
-      </c>
-      <c r="B163" t="s">
-        <v>13</v>
-      </c>
-      <c r="D163" t="s">
-        <v>179</v>
-      </c>
-      <c r="G163" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164" t="s">
-        <v>9</v>
-      </c>
-      <c r="B164" t="s">
-        <v>13</v>
-      </c>
-      <c r="D164" t="s">
-        <v>180</v>
-      </c>
-      <c r="G164" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165" t="s">
-        <v>9</v>
-      </c>
-      <c r="B165" t="s">
-        <v>13</v>
-      </c>
-      <c r="D165" t="s">
-        <v>181</v>
-      </c>
-      <c r="G165" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
-      <c r="A166" t="s">
-        <v>9</v>
-      </c>
-      <c r="B166" t="s">
-        <v>13</v>
-      </c>
-      <c r="D166" t="s">
-        <v>182</v>
-      </c>
-      <c r="G166" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
-      <c r="A167" t="s">
-        <v>9</v>
-      </c>
-      <c r="B167" t="s">
-        <v>13</v>
-      </c>
-      <c r="D167" t="s">
-        <v>183</v>
-      </c>
-      <c r="G167" t="s">
-        <v>372</v>
-      </c>
-      <c r="H167" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
-      <c r="A168" t="s">
-        <v>9</v>
-      </c>
-      <c r="B168" t="s">
-        <v>13</v>
-      </c>
-      <c r="D168" t="s">
-        <v>184</v>
-      </c>
-      <c r="G168" t="s">
-        <v>373</v>
-      </c>
-      <c r="H168" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="A169" t="s">
-        <v>9</v>
-      </c>
-      <c r="B169" t="s">
-        <v>13</v>
-      </c>
-      <c r="D169" t="s">
-        <v>185</v>
-      </c>
-      <c r="G169" t="s">
-        <v>374</v>
-      </c>
-      <c r="H169" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
-      <c r="A170" t="s">
-        <v>9</v>
-      </c>
-      <c r="B170" t="s">
-        <v>13</v>
-      </c>
-      <c r="D170" t="s">
-        <v>186</v>
-      </c>
-      <c r="G170" t="s">
-        <v>375</v>
-      </c>
-      <c r="H170" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
-      <c r="A171" t="s">
-        <v>9</v>
-      </c>
-      <c r="B171" t="s">
-        <v>13</v>
-      </c>
-      <c r="D171" t="s">
-        <v>187</v>
-      </c>
-      <c r="G171" t="s">
-        <v>376</v>
-      </c>
-      <c r="H171" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
-      <c r="A172" t="s">
-        <v>9</v>
-      </c>
-      <c r="B172" t="s">
-        <v>13</v>
-      </c>
-      <c r="D172" t="s">
-        <v>188</v>
-      </c>
-      <c r="G172" t="s">
-        <v>377</v>
-      </c>
-      <c r="H172" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
-      <c r="A173" t="s">
-        <v>9</v>
-      </c>
-      <c r="B173" t="s">
-        <v>13</v>
-      </c>
-      <c r="D173" t="s">
-        <v>189</v>
-      </c>
-      <c r="G173" t="s">
-        <v>378</v>
-      </c>
-      <c r="H173" t="s">
         <v>507</v>
       </c>
     </row>
